--- a/50TrialsVaryPackets.xlsx
+++ b/50TrialsVaryPackets.xlsx
@@ -1,38 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\AP-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{DA865735-4964-475F-A9D0-43763CECDC5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DE86A58E-83BE-405C-A11A-2AA73AB987E1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE71D59C-8C66-40EA-AE64-D27E4A4964B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN 1D" sheetId="1" r:id="rId1"/>
     <sheet name="CNN 2D" sheetId="2" r:id="rId2"/>
     <sheet name="MW CNN 1D" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="12">
+  <si>
+    <t>Acc</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
   <si>
     <t>298 Packets</t>
   </si>
@@ -52,19 +51,10 @@
     <t>210 Packets</t>
   </si>
   <si>
-    <t>200 Packets</t>
+    <t xml:space="preserve"> 88.99850845336914]</t>
   </si>
   <si>
-    <t>Acc</t>
-  </si>
-  <si>
-    <t>Loss</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 88.99850845336914]</t>
+    <t>200 Packets</t>
   </si>
   <si>
     <t xml:space="preserve"> Time</t>
@@ -74,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,101 +901,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>89.166885614395099</v>
       </c>
@@ -1070,7 +1060,7 @@
         <v>73.582070589065495</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>88.785070180892902</v>
       </c>
@@ -1135,7 +1125,7 @@
         <v>67.9497230052948</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>89.546328783035193</v>
       </c>
@@ -1200,7 +1190,7 @@
         <v>66.092020034789996</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>90.113121271133394</v>
       </c>
@@ -1265,7 +1255,7 @@
         <v>66.409309387207003</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>89.394551515579195</v>
       </c>
@@ -1330,7 +1320,7 @@
         <v>66.010299682617102</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>88.839614391326904</v>
       </c>
@@ -1395,7 +1385,7 @@
         <v>66.264995574951101</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>89.389806985855103</v>
       </c>
@@ -1460,7 +1450,7 @@
         <v>65.976788997650104</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>89.460951089858995</v>
       </c>
@@ -1525,7 +1515,7 @@
         <v>65.205659151077199</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>89.043563604354802</v>
       </c>
@@ -1590,7 +1580,7 @@
         <v>65.611485958099294</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>89.247518777847205</v>
       </c>
@@ -1655,7 +1645,7 @@
         <v>66.539926290512</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>89.961344003677297</v>
       </c>
@@ -1720,7 +1710,7 @@
         <v>65.167735099792395</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>89.385062456130896</v>
       </c>
@@ -1785,7 +1775,7 @@
         <v>65.925595998763995</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>89.280718564987097</v>
       </c>
@@ -1850,7 +1840,7 @@
         <v>67.157522201538001</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>89.197713136672903</v>
       </c>
@@ -1915,7 +1905,7 @@
         <v>65.675297260284395</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>89.546328783035193</v>
       </c>
@@ -1980,7 +1970,7 @@
         <v>66.605241537094102</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>89.657789468765202</v>
       </c>
@@ -2045,7 +2035,7 @@
         <v>66.532241106033297</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>89.0909969806671</v>
       </c>
@@ -2110,7 +2100,7 @@
         <v>66.140627145767198</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>89.420634508132906</v>
       </c>
@@ -2175,7 +2165,7 @@
         <v>65.496098279953003</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>90.049088001251206</v>
       </c>
@@ -2240,7 +2230,7 @@
         <v>66.7325856685638</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>89.548701047897296</v>
       </c>
@@ -2305,7 +2295,7 @@
         <v>66.541148662567096</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>89.072024822235093</v>
       </c>
@@ -2370,7 +2360,7 @@
         <v>66.388028383255005</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>88.920247554778996</v>
       </c>
@@ -2435,7 +2425,7 @@
         <v>65.9139981269836</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>88.8989031314849</v>
       </c>
@@ -2500,7 +2490,7 @@
         <v>66.501577854156494</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>90.087032318115206</v>
       </c>
@@ -2565,7 +2555,7 @@
         <v>65.911603450775104</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>88.9273583889007</v>
       </c>
@@ -2630,7 +2620,7 @@
         <v>65.8059756755828</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>89.425379037856999</v>
       </c>
@@ -2695,7 +2685,7 @@
         <v>66.723790645599294</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>89.382690191268907</v>
       </c>
@@ -2760,7 +2750,7 @@
         <v>65.204807519912706</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>89.188230037689195</v>
       </c>
@@ -2825,7 +2815,7 @@
         <v>66.849703073501502</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>89.064908027648897</v>
       </c>
@@ -2890,7 +2880,7 @@
         <v>65.678332090377793</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>88.559776544570894</v>
       </c>
@@ -2955,7 +2945,7 @@
         <v>66.234234571456895</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>88.588231801986694</v>
       </c>
@@ -3020,7 +3010,7 @@
         <v>65.366728305816594</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>88.737636804580603</v>
       </c>
@@ -3085,7 +3075,7 @@
         <v>65.6241614818573</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>88.955819606781006</v>
       </c>
@@ -3150,7 +3140,7 @@
         <v>66.216899871826101</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>89.2973184585571</v>
       </c>
@@ -3215,7 +3205,7 @@
         <v>66.761482715606604</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>88.391393423080402</v>
       </c>
@@ -3280,7 +3270,7 @@
         <v>65.874914646148596</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>89.380323886871295</v>
       </c>
@@ -3345,7 +3335,7 @@
         <v>66.123952150344806</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>89.7858500480651</v>
       </c>
@@ -3410,7 +3400,7 @@
         <v>65.218166351318303</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>88.863331079483004</v>
       </c>
@@ -3475,7 +3465,7 @@
         <v>66.768859863281193</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>89.311546087265</v>
       </c>
@@ -3540,7 +3530,7 @@
         <v>65.841428995132404</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>89.413523674011202</v>
       </c>
@@ -3605,7 +3595,7 @@
         <v>66.209949731826697</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>89.311546087265</v>
       </c>
@@ -3670,7 +3660,7 @@
         <v>65.915704965591402</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>89.290201663970905</v>
       </c>
@@ -3735,7 +3725,7 @@
         <v>65.625644922256399</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>90.013515949249197</v>
       </c>
@@ -3800,7 +3790,7 @@
         <v>65.7077312469482</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>90.068060159683199</v>
       </c>
@@ -3865,7 +3855,7 @@
         <v>66.727711915969806</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>89.351862668991004</v>
       </c>
@@ -3930,7 +3920,7 @@
         <v>65.662639856338501</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>89.238029718399005</v>
       </c>
@@ -3995,7 +3985,7 @@
         <v>65.695250272750798</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>88.445943593978797</v>
       </c>
@@ -4060,7 +4050,7 @@
         <v>65.567113876342702</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>89.337635040283203</v>
       </c>
@@ -4125,7 +4115,7 @@
         <v>66.367227077484102</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>89.157396554946899</v>
       </c>
@@ -4172,7 +4162,7 @@
         <v>68.886629104614201</v>
       </c>
       <c r="U51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V51">
         <v>0.24941599555441599</v>
@@ -4204,97 +4194,97 @@
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>87.468874454498206</v>
       </c>
@@ -4360,7 +4350,7 @@
         <v>67.290010929107595</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>87.563735246658297</v>
       </c>
@@ -4425,7 +4415,7 @@
         <v>66.396825075149494</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>88.000094890594397</v>
       </c>
@@ -4490,7 +4480,7 @@
         <v>65.558467149734497</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>87.767684459686194</v>
       </c>
@@ -4555,7 +4545,7 @@
         <v>65.826833248138399</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>83.306849002838106</v>
       </c>
@@ -4620,7 +4610,7 @@
         <v>65.761678695678697</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>87.162947654724107</v>
       </c>
@@ -4685,7 +4675,7 @@
         <v>65.0974698066711</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>87.698912620544405</v>
       </c>
@@ -4750,7 +4740,7 @@
         <v>61.287345170974703</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>83.330565690994206</v>
       </c>
@@ -4815,7 +4805,7 @@
         <v>61.200113534927297</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>87.459385395050006</v>
       </c>
@@ -4880,7 +4870,7 @@
         <v>66.596321582794104</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>87.826973199844304</v>
       </c>
@@ -4945,7 +4935,7 @@
         <v>64.106638193130493</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>87.976378202438298</v>
       </c>
@@ -5010,7 +5000,7 @@
         <v>64.160237550735403</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>87.537646293640094</v>
       </c>
@@ -5075,7 +5065,7 @@
         <v>61.358152866363497</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>87.122631072998004</v>
       </c>
@@ -5140,7 +5130,7 @@
         <v>65.032004833221393</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>88.555032014846802</v>
       </c>
@@ -5205,7 +5195,7 @@
         <v>65.463674068450899</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>83.700525760650606</v>
       </c>
@@ -5270,7 +5260,7 @@
         <v>66.049296617507906</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>87.964522838592501</v>
       </c>
@@ -5335,7 +5325,7 @@
         <v>61.688814640045102</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>87.774801254272404</v>
       </c>
@@ -5400,7 +5390,7 @@
         <v>65.205819129943805</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>87.732112407684298</v>
       </c>
@@ -5465,7 +5455,7 @@
         <v>66.543475866317706</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>83.211988210678101</v>
       </c>
@@ -5530,7 +5520,7 @@
         <v>67.582562446594196</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>88.185071945190401</v>
       </c>
@@ -5595,7 +5585,7 @@
         <v>67.450929641723604</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>82.941639423370304</v>
       </c>
@@ -5660,7 +5650,7 @@
         <v>67.692631244659395</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>87.746340036392198</v>
       </c>
@@ -5725,7 +5715,7 @@
         <v>67.456271886825505</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>82.941639423370304</v>
       </c>
@@ -5790,7 +5780,7 @@
         <v>64.375463724136296</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>82.941639423370304</v>
       </c>
@@ -5855,7 +5845,7 @@
         <v>60.734239101409898</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>82.941639423370304</v>
       </c>
@@ -5920,7 +5910,7 @@
         <v>66.988158702850299</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>87.770056724548297</v>
       </c>
@@ -5985,7 +5975,7 @@
         <v>61.1500530242919</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>86.963737010955796</v>
       </c>
@@ -6050,7 +6040,7 @@
         <v>60.492553949356001</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>87.5661075115203</v>
       </c>
@@ -6115,7 +6105,7 @@
         <v>66.510779142379704</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>86.911565065383897</v>
       </c>
@@ -6180,7 +6170,7 @@
         <v>66.378743171691895</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>87.355041503906193</v>
       </c>
@@ -6245,7 +6235,7 @@
         <v>61.351038455963099</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>88.367682695388794</v>
       </c>
@@ -6310,7 +6300,7 @@
         <v>66.023054361343299</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>88.713926076888995</v>
       </c>
@@ -6375,7 +6365,7 @@
         <v>67.002029418945298</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>87.606424093246403</v>
       </c>
@@ -6440,7 +6430,7 @@
         <v>61.413606643676701</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>88.611948490142794</v>
       </c>
@@ -6505,7 +6495,7 @@
         <v>67.168449163436804</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>87.509191036224294</v>
       </c>
@@ -6570,7 +6560,7 @@
         <v>66.8585751056671</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>82.941639423370304</v>
       </c>
@@ -6635,7 +6625,7 @@
         <v>67.386412620544405</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>87.992978096008301</v>
       </c>
@@ -6700,7 +6690,7 @@
         <v>63.078752994537297</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>87.402468919754</v>
       </c>
@@ -6765,7 +6755,7 @@
         <v>66.118104219436603</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>88.014322519302297</v>
       </c>
@@ -6830,7 +6820,7 @@
         <v>60.746504306793199</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>84.355062246322603</v>
       </c>
@@ -6895,7 +6885,7 @@
         <v>66.8369717597961</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>86.766904592513995</v>
       </c>
@@ -6960,7 +6950,7 @@
         <v>66.3361496925354</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>82.941639423370304</v>
       </c>
@@ -7025,7 +7015,7 @@
         <v>61.371240615844698</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>82.941639423370304</v>
       </c>
@@ -7090,7 +7080,7 @@
         <v>64.951596975326495</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>87.682312726974402</v>
       </c>
@@ -7155,7 +7145,7 @@
         <v>60.868054389953599</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>86.973226070403996</v>
       </c>
@@ -7220,7 +7210,7 @@
         <v>66.776542425155597</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>87.281525135040198</v>
       </c>
@@ -7285,7 +7275,7 @@
         <v>65.724978685379</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>87.260180711746202</v>
       </c>
@@ -7350,7 +7340,7 @@
         <v>66.127233982086096</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>82.941639423370304</v>
       </c>
@@ -7415,7 +7405,7 @@
         <v>64.955434799194293</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>87.736856937408405</v>
       </c>
@@ -7488,67 +7478,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A06EE43-A370-47E6-9A9B-D644A56FBF0A}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>89.899682998657198</v>
       </c>
@@ -7576,8 +7578,17 @@
       <c r="K3">
         <v>571.54140663146904</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="M3">
+        <v>88.483887910842896</v>
+      </c>
+      <c r="N3">
+        <v>0.281325041714515</v>
+      </c>
+      <c r="O3">
+        <v>551.36055135726895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>89.669644832610999</v>
       </c>
@@ -7605,8 +7616,17 @@
       <c r="K4">
         <v>563.20081591606095</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="M4">
+        <v>88.996136188506995</v>
+      </c>
+      <c r="N4">
+        <v>0.252420932368148</v>
+      </c>
+      <c r="O4">
+        <v>544.04951500892605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>87.739229202270494</v>
       </c>
@@ -7634,8 +7654,17 @@
       <c r="K5">
         <v>570.53296017646699</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="M5">
+        <v>88.417482376098604</v>
+      </c>
+      <c r="N5">
+        <v>0.306426730454052</v>
+      </c>
+      <c r="O5">
+        <v>542.28713583946205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>87.928950786590505</v>
       </c>
@@ -7663,8 +7692,17 @@
       <c r="K6">
         <v>567.04648327827397</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="M6">
+        <v>89.041191339492798</v>
+      </c>
+      <c r="N6">
+        <v>0.26398389835938002</v>
+      </c>
+      <c r="O6">
+        <v>546.41168141364994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>87.656223773956299</v>
       </c>
@@ -7692,8 +7730,17 @@
       <c r="K7">
         <v>567.60861730575505</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="M7">
+        <v>88.889414072036701</v>
+      </c>
+      <c r="N7">
+        <v>0.28471131582523101</v>
+      </c>
+      <c r="O7">
+        <v>541.61022663116398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>89.000874757766695</v>
       </c>
@@ -7721,8 +7768,17 @@
       <c r="K8">
         <v>567.39737844467095</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="M8">
+        <v>88.851469755172701</v>
+      </c>
+      <c r="N8">
+        <v>0.27909826622030498</v>
+      </c>
+      <c r="O8">
+        <v>542.92116403579701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>89.169257879257202</v>
       </c>
@@ -7750,8 +7806,17 @@
       <c r="K9">
         <v>569.47559022903397</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="M9">
+        <v>88.986647129058795</v>
+      </c>
+      <c r="N9">
+        <v>0.26166537757056002</v>
+      </c>
+      <c r="O9">
+        <v>545.85422968864395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>89.216685295104895</v>
       </c>
@@ -7779,8 +7844,17 @@
       <c r="K10">
         <v>567.98920059204102</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="M10">
+        <v>88.355821371078406</v>
+      </c>
+      <c r="N10">
+        <v>0.284870725911266</v>
+      </c>
+      <c r="O10">
+        <v>547.05730724334705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>89.356607198715196</v>
       </c>
@@ -7808,8 +7882,17 @@
       <c r="K11">
         <v>566.18249654769897</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="M11">
+        <v>88.597720861434894</v>
+      </c>
+      <c r="N11">
+        <v>0.28846056012302701</v>
+      </c>
+      <c r="O11">
+        <v>544.99331116676296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>88.744753599166799</v>
       </c>
@@ -7837,8 +7920,17 @@
       <c r="K12">
         <v>568.16771006584099</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="M12">
+        <v>88.6830925941467</v>
+      </c>
+      <c r="N12">
+        <v>0.26560601756776298</v>
+      </c>
+      <c r="O12">
+        <v>546.16639089584305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>88.946330547332707</v>
       </c>
@@ -7866,8 +7958,17 @@
       <c r="K13">
         <v>566.52932882308903</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="M13">
+        <v>87.36452460289</v>
+      </c>
+      <c r="N13">
+        <v>0.359610378499442</v>
+      </c>
+      <c r="O13">
+        <v>546.45408487319901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>88.317877054214406</v>
       </c>
@@ -7895,8 +7996,17 @@
       <c r="K14">
         <v>567.09138488769497</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="M14">
+        <v>88.901275396347003</v>
+      </c>
+      <c r="N14">
+        <v>0.26030729608185499</v>
+      </c>
+      <c r="O14">
+        <v>546.16273212432804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>89.446723461151095</v>
       </c>
@@ -7924,8 +8034,17 @@
       <c r="K15">
         <v>568.954289674758</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="M15">
+        <v>88.614320755004798</v>
+      </c>
+      <c r="N15">
+        <v>0.28436701727602598</v>
+      </c>
+      <c r="O15">
+        <v>546.87314581870999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>88.227760791778493</v>
       </c>
@@ -7953,8 +8072,17 @@
       <c r="K16">
         <v>564.79920411109902</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16">
+        <v>89.036452770233097</v>
+      </c>
+      <c r="N16">
+        <v>0.27837585723352398</v>
+      </c>
+      <c r="O16">
+        <v>547.32949757575898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>89.000874757766695</v>
       </c>
@@ -7982,8 +8110,17 @@
       <c r="K17">
         <v>570.29118657112099</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17">
+        <v>88.939219713211003</v>
+      </c>
+      <c r="N17">
+        <v>0.26104552296434202</v>
+      </c>
+      <c r="O17">
+        <v>545.30119872093201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>89.211940765380803</v>
       </c>
@@ -8011,8 +8148,17 @@
       <c r="K18">
         <v>564.91241025924603</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18">
+        <v>88.711553812026906</v>
+      </c>
+      <c r="N18">
+        <v>0.26672030669906699</v>
+      </c>
+      <c r="O18">
+        <v>545.76163697242703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>88.251477479934593</v>
       </c>
@@ -8040,8 +8186,17 @@
       <c r="K19">
         <v>565.87722325325001</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19">
+        <v>88.640403747558594</v>
+      </c>
+      <c r="N19">
+        <v>0.25990669919340398</v>
+      </c>
+      <c r="O19">
+        <v>545.28115653991699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>88.075983524322496</v>
       </c>
@@ -8069,8 +8224,17 @@
       <c r="K20">
         <v>568.35680985450699</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20">
+        <v>89.010363817214895</v>
+      </c>
+      <c r="N20">
+        <v>0.27289671628287598</v>
+      </c>
+      <c r="O20">
+        <v>545.80812358856201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>88.993763923645005</v>
       </c>
@@ -8098,8 +8262,17 @@
       <c r="K21">
         <v>569.515851259231</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21">
+        <v>88.585859537124605</v>
+      </c>
+      <c r="N21">
+        <v>0.29010992726569801</v>
+      </c>
+      <c r="O21">
+        <v>547.65209531784001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>87.331324815750094</v>
       </c>
@@ -8127,8 +8300,17 @@
       <c r="K22">
         <v>569.02983236312798</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22">
+        <v>88.204044103622394</v>
+      </c>
+      <c r="N22">
+        <v>0.30982169429669798</v>
+      </c>
+      <c r="O22">
+        <v>545.26629543304398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>87.447530031204195</v>
       </c>
@@ -8156,8 +8338,17 @@
       <c r="K23">
         <v>566.78986501693703</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23">
+        <v>87.639623880386296</v>
+      </c>
+      <c r="N23">
+        <v>0.264758731574678</v>
+      </c>
+      <c r="O23">
+        <v>544.52358675002995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>88.287049531936603</v>
       </c>
@@ -8185,8 +8376,17 @@
       <c r="K24">
         <v>568.81757926940895</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24">
+        <v>90.044349431991506</v>
+      </c>
+      <c r="N24">
+        <v>0.24955440453571301</v>
+      </c>
+      <c r="O24">
+        <v>546.63705778121903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>89.098107814788804</v>
       </c>
@@ -8214,8 +8414,17 @@
       <c r="K25">
         <v>568.20859313011101</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25">
+        <v>89.543956518173204</v>
+      </c>
+      <c r="N25">
+        <v>0.25332823623609002</v>
+      </c>
+      <c r="O25">
+        <v>546.20874142646699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>88.135272264480506</v>
       </c>
@@ -8243,8 +8452,17 @@
       <c r="K26">
         <v>569.044016361236</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26">
+        <v>88.834869861602698</v>
+      </c>
+      <c r="N26">
+        <v>0.26073585859903697</v>
+      </c>
+      <c r="O26">
+        <v>547.71153569221497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>88.334476947784395</v>
       </c>
@@ -8272,8 +8490,17 @@
       <c r="K27">
         <v>567.303020238876</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="M27">
+        <v>82.941639423370304</v>
+      </c>
+      <c r="N27">
+        <v>2.6234215325207999</v>
+      </c>
+      <c r="O27">
+        <v>545.36057758331299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>89.361351728439303</v>
       </c>
@@ -8301,8 +8528,17 @@
       <c r="K28">
         <v>564.03714585304203</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="M28">
+        <v>82.941639423370304</v>
+      </c>
+      <c r="N28">
+        <v>2.62342143300845</v>
+      </c>
+      <c r="O28">
+        <v>543.04964137077297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>89.306801557540894</v>
       </c>
@@ -8330,8 +8566,17 @@
       <c r="K29">
         <v>570.32110118865899</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="M29">
+        <v>88.777953386306706</v>
+      </c>
+      <c r="N29">
+        <v>0.27444691853879799</v>
+      </c>
+      <c r="O29">
+        <v>544.50223922729401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>88.315504789352403</v>
       </c>
@@ -8359,8 +8604,17 @@
       <c r="K30">
         <v>565.27814984321503</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="M30">
+        <v>88.808786869049001</v>
+      </c>
+      <c r="N30">
+        <v>0.28404082121221902</v>
+      </c>
+      <c r="O30">
+        <v>547.74136209487904</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>87.895745038986206</v>
       </c>
@@ -8388,8 +8642,17 @@
       <c r="K31">
         <v>569.52728033065796</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="M31">
+        <v>88.626176118850694</v>
+      </c>
+      <c r="N31">
+        <v>0.26247188221237999</v>
+      </c>
+      <c r="O31">
+        <v>543.99815678596497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>88.747125864028902</v>
       </c>
@@ -8417,8 +8680,17 @@
       <c r="K32">
         <v>567.20298838615395</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="M32">
+        <v>89.100480079650794</v>
+      </c>
+      <c r="N32">
+        <v>0.259553523475755</v>
+      </c>
+      <c r="O32">
+        <v>547.98098540306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>89.370834827423096</v>
       </c>
@@ -8446,8 +8718,17 @@
       <c r="K33">
         <v>568.78105330467201</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="M33">
+        <v>88.846731185913001</v>
+      </c>
+      <c r="N33">
+        <v>0.26531235577315598</v>
+      </c>
+      <c r="O33">
+        <v>544.29760575294495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>88.737636804580603</v>
       </c>
@@ -8475,8 +8756,17 @@
       <c r="K34">
         <v>564.85970544814995</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="M34">
+        <v>88.633292913436804</v>
+      </c>
+      <c r="N34">
+        <v>0.27672774358729701</v>
+      </c>
+      <c r="O34">
+        <v>544.23738980293194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>88.389027118682804</v>
       </c>
@@ -8504,8 +8794,17 @@
       <c r="K35">
         <v>565.68032455444302</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="M35">
+        <v>89.067280292510901</v>
+      </c>
+      <c r="N35">
+        <v>0.248404741251362</v>
+      </c>
+      <c r="O35">
+        <v>543.86246681213299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>88.268077373504596</v>
       </c>
@@ -8533,8 +8832,17 @@
       <c r="K36">
         <v>564.46240520477295</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="M36">
+        <v>89.031708240509005</v>
+      </c>
+      <c r="N36">
+        <v>0.26492855713896202</v>
+      </c>
+      <c r="O36">
+        <v>544.77868914604096</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>88.8846755027771</v>
       </c>
@@ -8562,8 +8870,17 @@
       <c r="K37">
         <v>566.59601569175697</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="M37">
+        <v>88.830125331878605</v>
+      </c>
+      <c r="N37">
+        <v>0.25159506870326198</v>
+      </c>
+      <c r="O37">
+        <v>547.13121771812405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>87.741601467132497</v>
       </c>
@@ -8591,8 +8908,17 @@
       <c r="K38">
         <v>568.67201066017105</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="M38">
+        <v>87.608796358108506</v>
+      </c>
+      <c r="N38">
+        <v>0.29609051382293999</v>
+      </c>
+      <c r="O38">
+        <v>547.16282296180702</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>89.309173822402897</v>
       </c>
@@ -8620,8 +8946,17 @@
       <c r="K39">
         <v>568.89972043037403</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="M39">
+        <v>87.947922945022498</v>
+      </c>
+      <c r="N39">
+        <v>0.28873343550453801</v>
+      </c>
+      <c r="O39">
+        <v>549.94790124893098</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>87.722629308700505</v>
       </c>
@@ -8649,8 +8984,17 @@
       <c r="K40">
         <v>566.00424218177795</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="M40">
+        <v>88.426971435546804</v>
+      </c>
+      <c r="N40">
+        <v>0.27449781699912401</v>
+      </c>
+      <c r="O40">
+        <v>545.10195541381802</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>88.891786336898804</v>
       </c>
@@ -8678,8 +9022,17 @@
       <c r="K41">
         <v>568.02661538124005</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="M41">
+        <v>89.043563604354802</v>
+      </c>
+      <c r="N41">
+        <v>0.268049381352639</v>
+      </c>
+      <c r="O41">
+        <v>547.15556144714299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>88.922619819641099</v>
       </c>
@@ -8707,8 +9060,17 @@
       <c r="K42">
         <v>565.79061031341496</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="M42">
+        <v>88.846731185913001</v>
+      </c>
+      <c r="N42">
+        <v>0.25549514489000302</v>
+      </c>
+      <c r="O42">
+        <v>552.29076719284001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>88.509970903396606</v>
       </c>
@@ -8736,8 +9098,17 @@
       <c r="K43">
         <v>570.74440741539001</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="M43">
+        <v>88.962930440902696</v>
+      </c>
+      <c r="N43">
+        <v>0.26159132634100402</v>
+      </c>
+      <c r="O43">
+        <v>547.493482589721</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>89.057791233062702</v>
       </c>
@@ -8765,8 +9136,17 @@
       <c r="K44">
         <v>566.73435997962895</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="M44">
+        <v>88.661748170852604</v>
+      </c>
+      <c r="N44">
+        <v>0.28134602580025903</v>
+      </c>
+      <c r="O44">
+        <v>546.67198348045304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>82.941639423370304</v>
       </c>
@@ -8794,8 +9174,17 @@
       <c r="K45">
         <v>567.932703971862</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="M45">
+        <v>88.936847448348999</v>
+      </c>
+      <c r="N45">
+        <v>0.24437450679058301</v>
+      </c>
+      <c r="O45">
+        <v>542.47305011749199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>89.072024822235093</v>
       </c>
@@ -8823,8 +9212,17 @@
       <c r="K46">
         <v>570.83284282684303</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="M46">
+        <v>89.088624715804997</v>
+      </c>
+      <c r="N46">
+        <v>0.25561373741417698</v>
+      </c>
+      <c r="O46">
+        <v>547.44016408920197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>88.782697916030799</v>
       </c>
@@ -8852,8 +9250,17 @@
       <c r="K47">
         <v>565.16936302185002</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="M47">
+        <v>89.000874757766695</v>
+      </c>
+      <c r="N47">
+        <v>0.26804574518342</v>
+      </c>
+      <c r="O47">
+        <v>544.81893038749695</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>88.906013965606604</v>
       </c>
@@ -8881,8 +9288,17 @@
       <c r="K48">
         <v>569.66812443733204</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="M48">
+        <v>88.901275396347003</v>
+      </c>
+      <c r="N48">
+        <v>0.25049732122971802</v>
+      </c>
+      <c r="O48">
+        <v>546.60061383247296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>88.336849212646399</v>
       </c>
@@ -8910,8 +9326,17 @@
       <c r="K49">
         <v>567.20592927932705</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="M49">
+        <v>88.974791765212998</v>
+      </c>
+      <c r="N49">
+        <v>0.26366006618967502</v>
+      </c>
+      <c r="O49">
+        <v>546.98892784118596</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>88.206416368484497</v>
       </c>
@@ -8939,8 +9364,17 @@
       <c r="K50">
         <v>567.783757925033</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="M50">
+        <v>88.657009601593003</v>
+      </c>
+      <c r="N50">
+        <v>0.27222664157325699</v>
+      </c>
+      <c r="O50">
+        <v>543.56502509117104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>88.097327947616506</v>
       </c>
@@ -8967,6 +9401,15 @@
       </c>
       <c r="K51">
         <v>570.62241840362503</v>
+      </c>
+      <c r="M51">
+        <v>89.638817310333195</v>
+      </c>
+      <c r="N51">
+        <v>0.25382578302136999</v>
+      </c>
+      <c r="O51">
+        <v>546.291284561157</v>
       </c>
     </row>
   </sheetData>

--- a/50TrialsVaryPackets.xlsx
+++ b/50TrialsVaryPackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\AP-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE71D59C-8C66-40EA-AE64-D27E4A4964B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804E305C-E450-4D70-A88A-23844BAB8B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="12">
   <si>
     <t>Acc</t>
   </si>
@@ -7478,15 +7478,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A06EE43-A370-47E6-9A9B-D644A56FBF0A}">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -7502,8 +7502,11 @@
       <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7549,8 +7552,17 @@
       <c r="S2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>89.899682998657198</v>
       </c>
@@ -7587,8 +7599,17 @@
       <c r="O3">
         <v>551.36055135726895</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>87.703657150268498</v>
+      </c>
+      <c r="R3">
+        <v>0.32339541383366199</v>
+      </c>
+      <c r="S3">
+        <v>513.13632917404095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>89.669644832610999</v>
       </c>
@@ -7625,8 +7646,17 @@
       <c r="O4">
         <v>544.04951500892605</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>89.245146512985201</v>
+      </c>
+      <c r="R4">
+        <v>0.254406929885792</v>
+      </c>
+      <c r="S4">
+        <v>502.66289806365899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>87.739229202270494</v>
       </c>
@@ -7663,8 +7693,17 @@
       <c r="O5">
         <v>542.28713583946205</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>89.223802089691105</v>
+      </c>
+      <c r="R5">
+        <v>0.259136820126531</v>
+      </c>
+      <c r="S5">
+        <v>501.67518973350502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>87.928950786590505</v>
       </c>
@@ -7701,8 +7740,17 @@
       <c r="O6">
         <v>546.41168141364994</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>88.185071945190401</v>
+      </c>
+      <c r="R6">
+        <v>0.27531552605310899</v>
+      </c>
+      <c r="S6">
+        <v>498.93015694618202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>87.656223773956299</v>
       </c>
@@ -7739,8 +7787,17 @@
       <c r="O7">
         <v>541.61022663116398</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>89.026963710784898</v>
+      </c>
+      <c r="R7">
+        <v>0.249530878661437</v>
+      </c>
+      <c r="S7">
+        <v>499.93049550056401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>89.000874757766695</v>
       </c>
@@ -7777,8 +7834,17 @@
       <c r="O8">
         <v>542.92116403579701</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>89.589017629623399</v>
+      </c>
+      <c r="R8">
+        <v>0.273849304244485</v>
+      </c>
+      <c r="S8">
+        <v>502.08425998687699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>89.169257879257202</v>
       </c>
@@ -7815,8 +7881,17 @@
       <c r="O9">
         <v>545.85422968864395</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>89.854627847671495</v>
+      </c>
+      <c r="R9">
+        <v>0.23938763019855799</v>
+      </c>
+      <c r="S9">
+        <v>501.63039469718899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>89.216685295104895</v>
       </c>
@@ -7853,8 +7928,17 @@
       <c r="O10">
         <v>547.05730724334705</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>87.841200828552203</v>
+      </c>
+      <c r="R10">
+        <v>0.28207105664682902</v>
+      </c>
+      <c r="S10">
+        <v>499.93942928314198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>89.356607198715196</v>
       </c>
@@ -7891,8 +7975,17 @@
       <c r="O11">
         <v>544.99331116676296</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>88.208788633346501</v>
+      </c>
+      <c r="R11">
+        <v>0.29210190150156001</v>
+      </c>
+      <c r="S11">
+        <v>504.15216732025101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>88.744753599166799</v>
       </c>
@@ -7929,8 +8022,17 @@
       <c r="O12">
         <v>546.16639089584305</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>88.374793529510498</v>
+      </c>
+      <c r="R12">
+        <v>0.25190459219327799</v>
+      </c>
+      <c r="S12">
+        <v>502.88548517227099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>88.946330547332707</v>
       </c>
@@ -7967,8 +8069,17 @@
       <c r="O13">
         <v>546.45408487319901</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>89.603245258331299</v>
+      </c>
+      <c r="R13">
+        <v>0.280288274066054</v>
+      </c>
+      <c r="S13">
+        <v>503.613765001297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>88.317877054214406</v>
       </c>
@@ -8005,8 +8116,17 @@
       <c r="O14">
         <v>546.16273212432804</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>89.152652025222693</v>
+      </c>
+      <c r="R14">
+        <v>0.25122237992315799</v>
+      </c>
+      <c r="S14">
+        <v>503.34356117248501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>89.446723461151095</v>
       </c>
@@ -8043,8 +8163,17 @@
       <c r="O15">
         <v>546.87314581870999</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>88.955819606781006</v>
+      </c>
+      <c r="R15">
+        <v>0.262904541021033</v>
+      </c>
+      <c r="S15">
+        <v>501.38673090934702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>88.227760791778493</v>
       </c>
@@ -8081,8 +8210,17 @@
       <c r="O16">
         <v>547.32949757575898</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>89.155024290084796</v>
+      </c>
+      <c r="R16">
+        <v>0.25923464412610497</v>
+      </c>
+      <c r="S16">
+        <v>503.03025245666498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>89.000874757766695</v>
       </c>
@@ -8119,8 +8257,17 @@
       <c r="O17">
         <v>545.30119872093201</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>88.346338272094698</v>
+      </c>
+      <c r="R17">
+        <v>0.26661843286817999</v>
+      </c>
+      <c r="S17">
+        <v>502.25094246864302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>89.211940765380803</v>
       </c>
@@ -8157,8 +8304,17 @@
       <c r="O18">
         <v>545.76163697242703</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>89.173996448516803</v>
+      </c>
+      <c r="R18">
+        <v>0.25083581785206399</v>
+      </c>
+      <c r="S18">
+        <v>503.68373632431002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>88.251477479934593</v>
       </c>
@@ -8195,8 +8351,17 @@
       <c r="O19">
         <v>545.28115653991699</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>88.789814710616994</v>
+      </c>
+      <c r="R19">
+        <v>0.263333906400956</v>
+      </c>
+      <c r="S19">
+        <v>502.88818001747097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>88.075983524322496</v>
       </c>
@@ -8233,8 +8398,17 @@
       <c r="O20">
         <v>545.80812358856201</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>87.5803351402282</v>
+      </c>
+      <c r="R20">
+        <v>0.32525435395212399</v>
+      </c>
+      <c r="S20">
+        <v>499.70321536064102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>88.993763923645005</v>
       </c>
@@ -8271,8 +8445,17 @@
       <c r="O21">
         <v>547.65209531784001</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>88.853842020034705</v>
+      </c>
+      <c r="R21">
+        <v>0.28285851866833001</v>
+      </c>
+      <c r="S21">
+        <v>503.92856574058499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>87.331324815750094</v>
       </c>
@@ -8309,8 +8492,17 @@
       <c r="O22">
         <v>545.26629543304398</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>88.353449106216402</v>
+      </c>
+      <c r="R22">
+        <v>0.28909618343189503</v>
+      </c>
+      <c r="S22">
+        <v>505.04830193519501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>87.447530031204195</v>
       </c>
@@ -8347,8 +8539,17 @@
       <c r="O23">
         <v>544.52358675002995</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>89.173996448516803</v>
+      </c>
+      <c r="R23">
+        <v>0.269333901143752</v>
+      </c>
+      <c r="S23">
+        <v>503.45758676528902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>88.287049531936603</v>
       </c>
@@ -8385,8 +8586,17 @@
       <c r="O24">
         <v>546.63705778121903</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>89.399296045303302</v>
+      </c>
+      <c r="R24">
+        <v>0.26802358747653798</v>
+      </c>
+      <c r="S24">
+        <v>503.64614963531398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>89.098107814788804</v>
       </c>
@@ -8423,8 +8633,17 @@
       <c r="O25">
         <v>546.20874142646699</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>87.777173519134493</v>
+      </c>
+      <c r="R25">
+        <v>0.31135509708749098</v>
+      </c>
+      <c r="S25">
+        <v>504.09301447868302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>88.135272264480506</v>
       </c>
@@ -8461,8 +8680,17 @@
       <c r="O26">
         <v>547.71153569221497</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>88.237249851226807</v>
+      </c>
+      <c r="R26">
+        <v>0.294473698137734</v>
+      </c>
+      <c r="S26">
+        <v>503.687465190887</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>88.334476947784395</v>
       </c>
@@ -8499,8 +8727,17 @@
       <c r="O27">
         <v>545.36057758331299</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>88.882303237914996</v>
+      </c>
+      <c r="R27">
+        <v>0.26118712204175798</v>
+      </c>
+      <c r="S27">
+        <v>505.29672431945801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>89.361351728439303</v>
       </c>
@@ -8537,8 +8774,17 @@
       <c r="O28">
         <v>543.04964137077297</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>85.941612720489502</v>
+      </c>
+      <c r="R28">
+        <v>0.31737491708827198</v>
+      </c>
+      <c r="S28">
+        <v>504.03100633621199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>89.306801557540894</v>
       </c>
@@ -8575,8 +8821,17 @@
       <c r="O29">
         <v>544.50223922729401</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>87.881517410278306</v>
+      </c>
+      <c r="R29">
+        <v>0.30841567893434002</v>
+      </c>
+      <c r="S29">
+        <v>504.01990795135498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>88.315504789352403</v>
       </c>
@@ -8613,8 +8868,17 @@
       <c r="O30">
         <v>547.74136209487904</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>87.385869026183997</v>
+      </c>
+      <c r="R30">
+        <v>0.32520304055804999</v>
+      </c>
+      <c r="S30">
+        <v>503.82376790046601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>87.895745038986206</v>
       </c>
@@ -8651,8 +8915,17 @@
       <c r="O31">
         <v>543.99815678596497</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>88.545542955398503</v>
+      </c>
+      <c r="R31">
+        <v>0.28942292421129601</v>
+      </c>
+      <c r="S31">
+        <v>501.82972598075798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>88.747125864028902</v>
       </c>
@@ -8689,8 +8962,17 @@
       <c r="O32">
         <v>547.98098540306</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>89.057791233062702</v>
+      </c>
+      <c r="R32">
+        <v>0.24997637207201101</v>
+      </c>
+      <c r="S32">
+        <v>502.504124641418</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>89.370834827423096</v>
       </c>
@@ -8727,8 +9009,17 @@
       <c r="O33">
         <v>544.29760575294495</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <v>88.201671838760305</v>
+      </c>
+      <c r="R33">
+        <v>0.29460028703839403</v>
+      </c>
+      <c r="S33">
+        <v>501.97546529769897</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>88.737636804580603</v>
       </c>
@@ -8765,8 +9056,17 @@
       <c r="O34">
         <v>544.23738980293194</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>88.813525438308702</v>
+      </c>
+      <c r="R34">
+        <v>0.251193278323396</v>
+      </c>
+      <c r="S34">
+        <v>502.832363128662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>88.389027118682804</v>
       </c>
@@ -8803,8 +9103,17 @@
       <c r="O35">
         <v>543.86246681213299</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>88.970047235488806</v>
+      </c>
+      <c r="R35">
+        <v>0.26526913727101797</v>
+      </c>
+      <c r="S35">
+        <v>500.71220993995598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>88.268077373504596</v>
       </c>
@@ -8841,8 +9150,17 @@
       <c r="O36">
         <v>544.77868914604096</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>89.259374141693101</v>
+      </c>
+      <c r="R36">
+        <v>0.27159849401903202</v>
+      </c>
+      <c r="S36">
+        <v>502.38794183731</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>88.8846755027771</v>
       </c>
@@ -8879,8 +9197,17 @@
       <c r="O37">
         <v>547.13121771812405</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>89.667272567748995</v>
+      </c>
+      <c r="R37">
+        <v>0.25650285274602402</v>
+      </c>
+      <c r="S37">
+        <v>501.87644219398499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>87.741601467132497</v>
       </c>
@@ -8917,8 +9244,17 @@
       <c r="O38">
         <v>547.16282296180702</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>88.818269968032794</v>
+      </c>
+      <c r="R38">
+        <v>0.26652290204589202</v>
+      </c>
+      <c r="S38">
+        <v>501.35289955139098</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>89.309173822402897</v>
       </c>
@@ -8955,8 +9291,17 @@
       <c r="O39">
         <v>549.94790124893098</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>89.157396554946899</v>
+      </c>
+      <c r="R39">
+        <v>0.244437376629909</v>
+      </c>
+      <c r="S39">
+        <v>502.79593753814697</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>87.722629308700505</v>
       </c>
@@ -8993,8 +9338,17 @@
       <c r="O40">
         <v>545.10195541381802</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>89.036452770233097</v>
+      </c>
+      <c r="R40">
+        <v>0.254452926719276</v>
+      </c>
+      <c r="S40">
+        <v>504.56968164443902</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>88.891786336898804</v>
       </c>
@@ -9031,8 +9385,17 @@
       <c r="O41">
         <v>547.15556144714299</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>88.327366113662706</v>
+      </c>
+      <c r="R41">
+        <v>0.28876673847038897</v>
+      </c>
+      <c r="S41">
+        <v>502.76340556144697</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>88.922619819641099</v>
       </c>
@@ -9069,8 +9432,17 @@
       <c r="O42">
         <v>552.29076719284001</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <v>87.639623880386296</v>
+      </c>
+      <c r="R42">
+        <v>0.30783324543025598</v>
+      </c>
+      <c r="S42">
+        <v>507.10781574249199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>88.509970903396606</v>
       </c>
@@ -9107,8 +9479,17 @@
       <c r="O43">
         <v>547.493482589721</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <v>88.858586549758897</v>
+      </c>
+      <c r="R43">
+        <v>0.274864964552544</v>
+      </c>
+      <c r="S43">
+        <v>503.01429700851401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>89.057791233062702</v>
       </c>
@@ -9145,8 +9526,17 @@
       <c r="O44">
         <v>546.67198348045304</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <v>88.467282056808401</v>
+      </c>
+      <c r="R44">
+        <v>0.27505873285733401</v>
+      </c>
+      <c r="S44">
+        <v>505.76502108573902</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>82.941639423370304</v>
       </c>
@@ -9183,8 +9573,17 @@
       <c r="O45">
         <v>542.47305011749199</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>88.830125331878605</v>
+      </c>
+      <c r="R45">
+        <v>0.25426941915770801</v>
+      </c>
+      <c r="S45">
+        <v>506.609098911285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>89.072024822235093</v>
       </c>
@@ -9221,8 +9620,17 @@
       <c r="O46">
         <v>547.44016408920197</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>89.211940765380803</v>
+      </c>
+      <c r="R46">
+        <v>0.26151681250084002</v>
+      </c>
+      <c r="S46">
+        <v>504.03819203376702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>88.782697916030799</v>
       </c>
@@ -9259,8 +9667,17 @@
       <c r="O47">
         <v>544.81893038749695</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <v>88.732898235321002</v>
+      </c>
+      <c r="R47">
+        <v>0.28200692942259398</v>
+      </c>
+      <c r="S47">
+        <v>501.86926364898602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>88.906013965606604</v>
       </c>
@@ -9297,8 +9714,17 @@
       <c r="O48">
         <v>546.60061383247296</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <v>89.209568500518799</v>
+      </c>
+      <c r="R48">
+        <v>0.25169849239608999</v>
+      </c>
+      <c r="S48">
+        <v>504.42156839370699</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>88.336849212646399</v>
       </c>
@@ -9335,8 +9761,17 @@
       <c r="O49">
         <v>546.98892784118596</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <v>88.977164030075002</v>
+      </c>
+      <c r="R49">
+        <v>0.267249805656951</v>
+      </c>
+      <c r="S49">
+        <v>503.68649840354902</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>88.206416368484497</v>
       </c>
@@ -9373,8 +9808,17 @@
       <c r="O50">
         <v>543.56502509117104</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>87.786656618118201</v>
+      </c>
+      <c r="R50">
+        <v>0.28814849022857197</v>
+      </c>
+      <c r="S50">
+        <v>504.78978967666598</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>88.097327947616506</v>
       </c>
@@ -9410,6 +9854,15 @@
       </c>
       <c r="O51">
         <v>546.291284561157</v>
+      </c>
+      <c r="Q51">
+        <v>88.616693019866901</v>
+      </c>
+      <c r="R51">
+        <v>0.26249624012110501</v>
+      </c>
+      <c r="S51">
+        <v>505.93578052520701</v>
       </c>
     </row>
   </sheetData>

--- a/50TrialsVaryPackets.xlsx
+++ b/50TrialsVaryPackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/914cffd35fd44916/Documents/AP-Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\AP-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D732A543-9884-4BEE-8E33-F2B4A1784D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6030"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="4" r:id="rId1"/>
@@ -17,7 +18,17 @@
     <sheet name="CNN 2D" sheetId="2" r:id="rId3"/>
     <sheet name="MW CNN 1D" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -84,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +418,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -568,12 +585,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -928,11 +946,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,11 +1297,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB57"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="AB56" sqref="B56:AB57"/>
+      <selection activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4566,87 +4584,87 @@
         <v>12</v>
       </c>
       <c r="B53" s="2">
-        <f>AVERAGE(B3:B51)</f>
+        <f t="shared" ref="B53:D54" si="0">AVERAGE(B3:B51)</f>
         <v>89.277377663826442</v>
       </c>
       <c r="C53" s="2">
-        <f>AVERAGE(C3:C51)</f>
+        <f t="shared" si="0"/>
         <v>0.25250892815873882</v>
       </c>
       <c r="D53" s="2">
-        <f>AVERAGE(D3:D51)</f>
+        <f t="shared" si="0"/>
         <v>75.356114840020936</v>
       </c>
       <c r="F53" s="2">
-        <f>AVERAGE(F3:F51)</f>
+        <f t="shared" ref="F53:H54" si="1">AVERAGE(F3:F51)</f>
         <v>89.280571621291472</v>
       </c>
       <c r="G53" s="2">
-        <f>AVERAGE(G3:G51)</f>
+        <f t="shared" si="1"/>
         <v>0.25296847138353051</v>
       </c>
       <c r="H53" s="2">
-        <f>AVERAGE(H3:H51)</f>
+        <f t="shared" si="1"/>
         <v>77.27786358521908</v>
       </c>
       <c r="J53" s="2">
-        <f>AVERAGE(J3:J51)</f>
+        <f t="shared" ref="J53:L54" si="2">AVERAGE(J3:J51)</f>
         <v>89.196165118898662</v>
       </c>
       <c r="K53" s="2">
-        <f>AVERAGE(K3:K51)</f>
+        <f t="shared" si="2"/>
         <v>0.25271396173605115</v>
       </c>
       <c r="L53" s="2">
-        <f>AVERAGE(L3:L51)</f>
+        <f t="shared" si="2"/>
         <v>75.959391423634116</v>
       </c>
       <c r="N53" s="2">
-        <f>AVERAGE(N3:N51)</f>
+        <f t="shared" ref="N53:P54" si="3">AVERAGE(N3:N51)</f>
         <v>89.085381128350065</v>
       </c>
       <c r="O53" s="2">
-        <f>AVERAGE(O3:O51)</f>
+        <f t="shared" si="3"/>
         <v>0.25397736139035804</v>
       </c>
       <c r="P53" s="2">
-        <f>AVERAGE(P3:P51)</f>
+        <f t="shared" si="3"/>
         <v>71.114031037505782</v>
       </c>
       <c r="R53" s="2">
-        <f>AVERAGE(R3:R51)</f>
+        <f t="shared" ref="R53:T54" si="4">AVERAGE(R3:R51)</f>
         <v>89.125841734360662</v>
       </c>
       <c r="S53" s="2">
-        <f>AVERAGE(S3:S51)</f>
+        <f t="shared" si="4"/>
         <v>0.25457393418632901</v>
       </c>
       <c r="T53" s="2">
-        <f>AVERAGE(T3:T51)</f>
+        <f t="shared" si="4"/>
         <v>68.716105879569525</v>
       </c>
       <c r="V53" s="2">
-        <f>AVERAGE(V3:V51)</f>
+        <f t="shared" ref="V53:X54" si="5">AVERAGE(V3:V51)</f>
         <v>88.942626615365327</v>
       </c>
       <c r="W53" s="2">
-        <f>AVERAGE(W3:W51)</f>
+        <f t="shared" si="5"/>
         <v>0.25667699720940784</v>
       </c>
       <c r="X53" s="2">
-        <f>AVERAGE(X3:X51)</f>
+        <f t="shared" si="5"/>
         <v>66.748775078325849</v>
       </c>
       <c r="Z53" s="2">
-        <f>AVERAGE(Z3:Z51)</f>
+        <f t="shared" ref="Z53:AB54" si="6">AVERAGE(Z3:Z51)</f>
         <v>88.910614957614797</v>
       </c>
       <c r="AA53" s="2">
-        <f>AVERAGE(AA3:AA51)</f>
+        <f t="shared" si="6"/>
         <v>0.25882860519111833</v>
       </c>
       <c r="AB53" s="2">
-        <f>AVERAGE(AB3:AB51)</f>
+        <f t="shared" si="6"/>
         <v>66.240382535116993</v>
       </c>
     </row>
@@ -4655,87 +4673,87 @@
         <v>13</v>
       </c>
       <c r="B54" s="2">
-        <f>AVERAGE(B4:B52)</f>
+        <f t="shared" si="0"/>
         <v>89.279679581522927</v>
       </c>
       <c r="C54" s="2">
-        <f>AVERAGE(C4:C52)</f>
+        <f t="shared" si="0"/>
         <v>0.25254877018417432</v>
       </c>
       <c r="D54" s="2">
-        <f>AVERAGE(D4:D52)</f>
+        <f t="shared" si="0"/>
         <v>75.188310151298822</v>
       </c>
       <c r="F54" s="2">
-        <f>AVERAGE(F4:F52)</f>
+        <f t="shared" si="1"/>
         <v>89.276517182588563</v>
       </c>
       <c r="G54" s="2">
-        <f>AVERAGE(G4:G52)</f>
+        <f t="shared" si="1"/>
         <v>0.25303751978002381</v>
       </c>
       <c r="H54" s="2">
-        <f>AVERAGE(H4:H52)</f>
+        <f t="shared" si="1"/>
         <v>77.123212203383432</v>
       </c>
       <c r="J54" s="2">
-        <f>AVERAGE(J4:J52)</f>
+        <f t="shared" si="2"/>
         <v>89.186202113827065</v>
       </c>
       <c r="K54" s="2">
-        <f>AVERAGE(K4:K52)</f>
+        <f t="shared" si="2"/>
         <v>0.25288449866961188</v>
       </c>
       <c r="L54" s="2">
-        <f>AVERAGE(L4:L52)</f>
+        <f t="shared" si="2"/>
         <v>75.824053451418862</v>
       </c>
       <c r="N54" s="2">
-        <f>AVERAGE(N4:N52)</f>
+        <f t="shared" si="3"/>
         <v>89.083436131477342</v>
       </c>
       <c r="O54" s="2">
-        <f>AVERAGE(O4:O52)</f>
+        <f t="shared" si="3"/>
         <v>0.25400719784337505</v>
       </c>
       <c r="P54" s="2">
-        <f>AVERAGE(P4:P52)</f>
+        <f t="shared" si="3"/>
         <v>71.399017761150986</v>
       </c>
       <c r="R54" s="2">
-        <f>AVERAGE(R4:R52)</f>
+        <f t="shared" si="4"/>
         <v>89.126962920029953</v>
       </c>
       <c r="S54" s="2">
-        <f>AVERAGE(S4:S52)</f>
+        <f t="shared" si="4"/>
         <v>0.25427081832504811</v>
       </c>
       <c r="T54" s="2">
-        <f>AVERAGE(T4:T52)</f>
+        <f t="shared" si="4"/>
         <v>68.54665261010328</v>
       </c>
       <c r="V54" s="2">
-        <f>AVERAGE(V4:V52)</f>
+        <f t="shared" si="5"/>
         <v>88.948451331321209</v>
       </c>
       <c r="W54" s="2">
-        <f>AVERAGE(W4:W52)</f>
+        <f t="shared" si="5"/>
         <v>0.25662136002290409</v>
       </c>
       <c r="X54" s="2">
-        <f>AVERAGE(X4:X52)</f>
+        <f t="shared" si="5"/>
         <v>66.592242146531717</v>
       </c>
       <c r="Z54" s="2">
-        <f>AVERAGE(Z4:Z52)</f>
+        <f t="shared" si="6"/>
         <v>88.906560589869798</v>
       </c>
       <c r="AA54" s="2">
-        <f>AVERAGE(AA4:AA52)</f>
+        <f t="shared" si="6"/>
         <v>0.25892122318202854</v>
       </c>
       <c r="AB54" s="2">
-        <f>AVERAGE(AB4:AB52)</f>
+        <f t="shared" si="6"/>
         <v>66.087430700659738</v>
       </c>
     </row>
@@ -4876,7 +4894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB59"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
@@ -8497,11 +8515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27:P28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8628,6 +8646,15 @@
       <c r="T3">
         <v>513.13632917404095</v>
       </c>
+      <c r="V3">
+        <v>88.239616155624304</v>
+      </c>
+      <c r="W3">
+        <v>0.27343421652540201</v>
+      </c>
+      <c r="X3">
+        <v>483.47402858734102</v>
+      </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -8675,6 +8702,15 @@
       <c r="T4">
         <v>502.66289806365899</v>
       </c>
+      <c r="V4">
+        <v>89.283090829849201</v>
+      </c>
+      <c r="W4">
+        <v>0.25869673290508699</v>
+      </c>
+      <c r="X4">
+        <v>475.05851984024002</v>
+      </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -8722,6 +8758,15 @@
       <c r="T5">
         <v>501.67518973350502</v>
       </c>
+      <c r="V5">
+        <v>88.059383630752507</v>
+      </c>
+      <c r="W5">
+        <v>0.292166782665643</v>
+      </c>
+      <c r="X5">
+        <v>475.72938919067298</v>
+      </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -8769,6 +8814,15 @@
       <c r="T6">
         <v>498.93015694618202</v>
       </c>
+      <c r="V6">
+        <v>88.823014497756901</v>
+      </c>
+      <c r="W6">
+        <v>0.27073244168051502</v>
+      </c>
+      <c r="X6">
+        <v>474.949491262435</v>
+      </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -8816,6 +8870,15 @@
       <c r="T7">
         <v>499.93049550056401</v>
       </c>
+      <c r="V7">
+        <v>88.140016794204698</v>
+      </c>
+      <c r="W7">
+        <v>0.27658210352254298</v>
+      </c>
+      <c r="X7">
+        <v>475.75396847724897</v>
+      </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -8863,6 +8926,15 @@
       <c r="T8">
         <v>502.08425998687699</v>
       </c>
+      <c r="V8">
+        <v>88.187444210052405</v>
+      </c>
+      <c r="W8">
+        <v>0.25093016665626999</v>
+      </c>
+      <c r="X8">
+        <v>473.405846834182</v>
+      </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -8910,6 +8982,15 @@
       <c r="T9">
         <v>501.63039469718899</v>
       </c>
+      <c r="V9">
+        <v>87.625396251678396</v>
+      </c>
+      <c r="W9">
+        <v>0.290271485498106</v>
+      </c>
+      <c r="X9">
+        <v>475.68893241882301</v>
+      </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -8957,6 +9038,15 @@
       <c r="T10">
         <v>499.93942928314198</v>
       </c>
+      <c r="V10">
+        <v>89.190596342086707</v>
+      </c>
+      <c r="W10">
+        <v>0.25366190866465899</v>
+      </c>
+      <c r="X10">
+        <v>475.92329239845202</v>
+      </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -9004,6 +9094,15 @@
       <c r="T11">
         <v>504.15216732025101</v>
       </c>
+      <c r="V11">
+        <v>89.1289412975311</v>
+      </c>
+      <c r="W11">
+        <v>0.27186900231785099</v>
+      </c>
+      <c r="X11">
+        <v>474.27302718162503</v>
+      </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -9051,6 +9150,15 @@
       <c r="T12">
         <v>502.88548517227099</v>
       </c>
+      <c r="V12">
+        <v>87.857800722122093</v>
+      </c>
+      <c r="W12">
+        <v>0.26855127063338202</v>
+      </c>
+      <c r="X12">
+        <v>474.56031656265202</v>
+      </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13">
@@ -9098,6 +9206,15 @@
       <c r="T13">
         <v>503.613765001297</v>
       </c>
+      <c r="V13">
+        <v>88.704437017440796</v>
+      </c>
+      <c r="W13">
+        <v>0.26727963977828301</v>
+      </c>
+      <c r="X13">
+        <v>474.399509191513</v>
+      </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -9145,6 +9262,15 @@
       <c r="T14">
         <v>503.34356117248501</v>
       </c>
+      <c r="V14">
+        <v>88.208788633346501</v>
+      </c>
+      <c r="W14">
+        <v>0.30733290919774497</v>
+      </c>
+      <c r="X14">
+        <v>475.571006774902</v>
+      </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -9192,6 +9318,15 @@
       <c r="T15">
         <v>501.38673090934702</v>
       </c>
+      <c r="V15">
+        <v>88.393765687942505</v>
+      </c>
+      <c r="W15">
+        <v>0.287633079399091</v>
+      </c>
+      <c r="X15">
+        <v>476.75548529624899</v>
+      </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -9239,8 +9374,17 @@
       <c r="T16">
         <v>503.03025245666498</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V16" s="5">
+        <v>82.941639423370304</v>
+      </c>
+      <c r="W16">
+        <v>2.6234215325207999</v>
+      </c>
+      <c r="X16">
+        <v>475.862070322036</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>89.000874757766695</v>
       </c>
@@ -9286,8 +9430,17 @@
       <c r="T17">
         <v>502.25094246864302</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <v>88.846731185913001</v>
+      </c>
+      <c r="W17">
+        <v>0.26995677887936798</v>
+      </c>
+      <c r="X17">
+        <v>475.50758361816401</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>89.211940765380803</v>
       </c>
@@ -9333,8 +9486,17 @@
       <c r="T18">
         <v>503.68373632431002</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <v>87.831717729568396</v>
+      </c>
+      <c r="W18">
+        <v>0.303669110416184</v>
+      </c>
+      <c r="X18">
+        <v>473.659565687179</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>88.251477479934593</v>
       </c>
@@ -9380,8 +9542,17 @@
       <c r="T19">
         <v>502.88818001747097</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V19">
+        <v>89.762133359909001</v>
+      </c>
+      <c r="W19">
+        <v>0.26553729447443403</v>
+      </c>
+      <c r="X19">
+        <v>473.31639146804798</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>88.075983524322496</v>
       </c>
@@ -9427,8 +9598,17 @@
       <c r="T20">
         <v>499.70321536064102</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <v>88.849097490310598</v>
+      </c>
+      <c r="W20">
+        <v>0.27681490250896001</v>
+      </c>
+      <c r="X20">
+        <v>474.595871925354</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>88.993763923645005</v>
       </c>
@@ -9474,8 +9654,17 @@
       <c r="T21">
         <v>503.92856574058499</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <v>89.634072780609102</v>
+      </c>
+      <c r="W21">
+        <v>0.27028999525349401</v>
+      </c>
+      <c r="X21">
+        <v>473.565135717391</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>87.331324815750094</v>
       </c>
@@ -9521,8 +9710,17 @@
       <c r="T22">
         <v>505.04830193519501</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <v>88.429337739944401</v>
+      </c>
+      <c r="W22">
+        <v>0.28783930616323899</v>
+      </c>
+      <c r="X22">
+        <v>474.60574960708601</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>87.447530031204195</v>
       </c>
@@ -9568,8 +9766,17 @@
       <c r="T23">
         <v>503.45758676528902</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V23">
+        <v>87.518674135208101</v>
+      </c>
+      <c r="W23">
+        <v>0.299483421928181</v>
+      </c>
+      <c r="X23">
+        <v>477.67639923095697</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>88.287049531936603</v>
       </c>
@@ -9615,8 +9822,17 @@
       <c r="T24">
         <v>503.64614963531398</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V24">
+        <v>89.034080505371094</v>
+      </c>
+      <c r="W24">
+        <v>0.26059916884217299</v>
+      </c>
+      <c r="X24">
+        <v>476.15692424774102</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>89.098107814788804</v>
       </c>
@@ -9662,8 +9878,17 @@
       <c r="T25">
         <v>504.09301447868302</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <v>88.151872158050494</v>
+      </c>
+      <c r="W25">
+        <v>0.281142269587288</v>
+      </c>
+      <c r="X25">
+        <v>475.56362199783302</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>88.135272264480506</v>
       </c>
@@ -9709,8 +9934,17 @@
       <c r="T26">
         <v>503.687465190887</v>
       </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <v>88.258588314056396</v>
+      </c>
+      <c r="W26">
+        <v>0.26324638395573502</v>
+      </c>
+      <c r="X26">
+        <v>476.65149116516102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>88.334476947784395</v>
       </c>
@@ -9756,8 +9990,17 @@
       <c r="T27">
         <v>505.29672431945801</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V27">
+        <v>88.744753599166799</v>
+      </c>
+      <c r="W27">
+        <v>0.284407365364377</v>
+      </c>
+      <c r="X27">
+        <v>474.98331236839198</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>89.361351728439303</v>
       </c>
@@ -9803,8 +10046,17 @@
       <c r="T28">
         <v>504.03100633621199</v>
       </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V28">
+        <v>88.175588846206594</v>
+      </c>
+      <c r="W28">
+        <v>0.285111464213891</v>
+      </c>
+      <c r="X28">
+        <v>475.80445694923401</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>89.306801557540894</v>
       </c>
@@ -9850,8 +10102,17 @@
       <c r="T29">
         <v>504.01990795135498</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V29">
+        <v>88.882303237914996</v>
+      </c>
+      <c r="W29">
+        <v>0.25975923391168199</v>
+      </c>
+      <c r="X29">
+        <v>474.51709723472499</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>88.315504789352403</v>
       </c>
@@ -9897,8 +10158,17 @@
       <c r="T30">
         <v>503.82376790046601</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V30">
+        <v>88.0546391010284</v>
+      </c>
+      <c r="W30">
+        <v>0.29059671263517201</v>
+      </c>
+      <c r="X30">
+        <v>475.62811589240999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>87.895745038986206</v>
       </c>
@@ -9944,8 +10214,17 @@
       <c r="T31">
         <v>501.82972598075798</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V31">
+        <v>88.059383630752507</v>
+      </c>
+      <c r="W31">
+        <v>0.30187840168542002</v>
+      </c>
+      <c r="X31">
+        <v>473.84651637077297</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>88.747125864028902</v>
       </c>
@@ -9991,8 +10270,17 @@
       <c r="T32">
         <v>502.504124641418</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V32">
+        <v>88.595348596572805</v>
+      </c>
+      <c r="W32">
+        <v>0.26718273395944703</v>
+      </c>
+      <c r="X32">
+        <v>473.736820936203</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>89.370834827423096</v>
       </c>
@@ -10038,8 +10326,17 @@
       <c r="T33">
         <v>501.97546529769897</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V33">
+        <v>89.015108346939002</v>
+      </c>
+      <c r="W33">
+        <v>0.26404085830018298</v>
+      </c>
+      <c r="X33">
+        <v>476.33879399299599</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>88.737636804580603</v>
       </c>
@@ -10085,8 +10382,17 @@
       <c r="T34">
         <v>502.832363128662</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V34">
+        <v>88.059383630752507</v>
+      </c>
+      <c r="W34">
+        <v>0.28140151834544103</v>
+      </c>
+      <c r="X34">
+        <v>475.83533501624999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>88.389027118682804</v>
       </c>
@@ -10132,8 +10438,17 @@
       <c r="T35">
         <v>500.71220993995598</v>
       </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V35">
+        <v>89.003247022628699</v>
+      </c>
+      <c r="W35">
+        <v>0.26970616802012998</v>
+      </c>
+      <c r="X35">
+        <v>474.96280455589198</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>88.268077373504596</v>
       </c>
@@ -10179,8 +10494,17 @@
       <c r="T36">
         <v>502.38794183731</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V36">
+        <v>89.807194471359196</v>
+      </c>
+      <c r="W36">
+        <v>0.26886090285554598</v>
+      </c>
+      <c r="X36">
+        <v>472.89153981208801</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>88.8846755027771</v>
       </c>
@@ -10226,8 +10550,17 @@
       <c r="T37">
         <v>501.87644219398499</v>
       </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V37">
+        <v>89.404034614562903</v>
+      </c>
+      <c r="W37">
+        <v>0.254103022740505</v>
+      </c>
+      <c r="X37">
+        <v>475.616893529891</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>87.741601467132497</v>
       </c>
@@ -10273,8 +10606,17 @@
       <c r="T38">
         <v>501.35289955139098</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V38">
+        <v>87.347924709319997</v>
+      </c>
+      <c r="W38">
+        <v>0.28969253109181398</v>
+      </c>
+      <c r="X38">
+        <v>476.06138896942099</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>89.309173822402897</v>
       </c>
@@ -10320,8 +10662,17 @@
       <c r="T39">
         <v>502.79593753814697</v>
       </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V39">
+        <v>87.509191036224294</v>
+      </c>
+      <c r="W39">
+        <v>0.31016186920070998</v>
+      </c>
+      <c r="X39">
+        <v>474.98520922660799</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>87.722629308700505</v>
       </c>
@@ -10367,8 +10718,17 @@
       <c r="T40">
         <v>504.56968164443902</v>
       </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V40">
+        <v>88.851469755172701</v>
+      </c>
+      <c r="W40">
+        <v>0.26670696850613601</v>
+      </c>
+      <c r="X40">
+        <v>473.39102768897999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>88.891786336898804</v>
       </c>
@@ -10414,8 +10774,17 @@
       <c r="T41">
         <v>502.76340556144697</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V41">
+        <v>87.755829095840397</v>
+      </c>
+      <c r="W41">
+        <v>0.30109523190104798</v>
+      </c>
+      <c r="X41">
+        <v>475.56896162033001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>88.922619819641099</v>
       </c>
@@ -10461,8 +10830,17 @@
       <c r="T42">
         <v>507.10781574249199</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V42">
+        <v>89.304435253143296</v>
+      </c>
+      <c r="W42">
+        <v>0.24556850342737599</v>
+      </c>
+      <c r="X42">
+        <v>475.40050315856899</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>88.509970903396606</v>
       </c>
@@ -10508,8 +10886,17 @@
       <c r="T43">
         <v>503.01429700851401</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V43">
+        <v>88.277560472488403</v>
+      </c>
+      <c r="W43">
+        <v>0.29728718058918402</v>
+      </c>
+      <c r="X43">
+        <v>475.44683098793001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>89.057791233062702</v>
       </c>
@@ -10555,8 +10942,17 @@
       <c r="T44">
         <v>505.76502108573902</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V44">
+        <v>88.057011365890503</v>
+      </c>
+      <c r="W44">
+        <v>0.28707218853222699</v>
+      </c>
+      <c r="X44">
+        <v>475.22317361831603</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>82.941639423370304</v>
       </c>
@@ -10602,8 +10998,17 @@
       <c r="T45">
         <v>506.609098911285</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V45">
+        <v>88.702064752578707</v>
+      </c>
+      <c r="W45">
+        <v>0.260360641379145</v>
+      </c>
+      <c r="X45">
+        <v>473.21894955635003</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>89.072024822235093</v>
       </c>
@@ -10649,8 +11054,17 @@
       <c r="T46">
         <v>504.03819203376702</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V46">
+        <v>88.839614391326904</v>
+      </c>
+      <c r="W46">
+        <v>0.26437195707536998</v>
+      </c>
+      <c r="X46">
+        <v>475.72774577140802</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>88.782697916030799</v>
       </c>
@@ -10696,8 +11110,17 @@
       <c r="T47">
         <v>501.86926364898602</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V47">
+        <v>87.997722625732393</v>
+      </c>
+      <c r="W47">
+        <v>0.26337824377491198</v>
+      </c>
+      <c r="X47">
+        <v>475.782336473464</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>88.906013965606604</v>
       </c>
@@ -10743,8 +11166,17 @@
       <c r="T48">
         <v>504.42156839370699</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V48">
+        <v>88.543170690536499</v>
+      </c>
+      <c r="W48">
+        <v>0.25953211930480102</v>
+      </c>
+      <c r="X48">
+        <v>474.92248678207397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>88.336849212646399</v>
       </c>
@@ -10790,8 +11222,17 @@
       <c r="T49">
         <v>503.68649840354902</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V49">
+        <v>88.770842552185002</v>
+      </c>
+      <c r="W49">
+        <v>0.26780182982297002</v>
+      </c>
+      <c r="X49">
+        <v>475.63016104698102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>88.206416368484497</v>
       </c>
@@ -10837,8 +11278,17 @@
       <c r="T50">
         <v>504.78978967666598</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V50">
+        <v>89.159768819808903</v>
+      </c>
+      <c r="W50">
+        <v>0.24985707223282499</v>
+      </c>
+      <c r="X50">
+        <v>474.57900500297501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>88.097327947616506</v>
       </c>
@@ -10884,8 +11334,17 @@
       <c r="T51">
         <v>505.93578052520701</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V51">
+        <v>89.067280292510901</v>
+      </c>
+      <c r="W51">
+        <v>0.25451135662409802</v>
+      </c>
+      <c r="X51">
+        <v>475.34892082214299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
@@ -10949,8 +11408,20 @@
         <f>AVERAGE(T3:T51)</f>
         <v>503.28157556300238</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V53" s="2">
+        <f>AVERAGE(V3:V51)</f>
+        <v>88.43030832251722</v>
+      </c>
+      <c r="W53" s="2">
+        <f>AVERAGE(W3:W51)</f>
+        <v>0.3227671016218131</v>
+      </c>
+      <c r="X53" s="2">
+        <f>AVERAGE(X3:X51)</f>
+        <v>475.26840829362646</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -11014,8 +11485,20 @@
         <f>AVERAGE(T3:T51)</f>
         <v>503.28157556300238</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V54">
+        <f>AVERAGE(V3:V15,V17:V51)</f>
+        <v>88.544655591249452</v>
+      </c>
+      <c r="W54">
+        <f>AVERAGE(W3:W15,W17:W51)</f>
+        <v>0.27483680097808427</v>
+      </c>
+      <c r="X54">
+        <f>AVERAGE(X3:X15,X17:X51)</f>
+        <v>475.25604033470125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>1</v>
       </c>
@@ -11027,6 +11510,12 @@
       </c>
       <c r="N56">
         <v>2</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/50TrialsVaryPackets.xlsx
+++ b/50TrialsVaryPackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\AP-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D732A543-9884-4BEE-8E33-F2B4A1784D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CAB177-267D-4F72-A91B-8D2040F6CEE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="20">
   <si>
     <t>Acc</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>CNN 2D All</t>
+  </si>
+  <si>
+    <t>v c</t>
   </si>
 </sst>
 </file>
@@ -8516,15 +8519,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:X56"/>
+  <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
@@ -8543,8 +8546,11 @@
       <c r="W1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8599,8 +8605,17 @@
       <c r="X2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>89.899682998657198</v>
       </c>
@@ -8655,8 +8670,17 @@
       <c r="X3">
         <v>483.47402858734102</v>
       </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z3">
+        <v>88.647520542144704</v>
+      </c>
+      <c r="AA3">
+        <v>0.29172533327497502</v>
+      </c>
+      <c r="AB3">
+        <v>471.59354948997498</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>89.669644832610999</v>
       </c>
@@ -8711,8 +8735,17 @@
       <c r="X4">
         <v>475.05851984024002</v>
       </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z4">
+        <v>89.394551515579195</v>
+      </c>
+      <c r="AA4">
+        <v>0.25142665083347998</v>
+      </c>
+      <c r="AB4">
+        <v>461.119449615478</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>87.739229202270494</v>
       </c>
@@ -8767,8 +8800,17 @@
       <c r="X5">
         <v>475.72938919067298</v>
       </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z5">
+        <v>89.271229505538898</v>
+      </c>
+      <c r="AA5">
+        <v>0.26566754305444901</v>
+      </c>
+      <c r="AB5">
+        <v>461.11307930946299</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>87.928950786590505</v>
       </c>
@@ -8823,8 +8865,17 @@
       <c r="X6">
         <v>474.949491262435</v>
       </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z6">
+        <v>89.688616991043006</v>
+      </c>
+      <c r="AA6">
+        <v>0.25564228762697799</v>
+      </c>
+      <c r="AB6">
+        <v>461.56454730033801</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>87.656223773956299</v>
       </c>
@@ -8879,8 +8930,17 @@
       <c r="X7">
         <v>475.75396847724897</v>
       </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z7">
+        <v>88.019067049026404</v>
+      </c>
+      <c r="AA7">
+        <v>0.29991020372850602</v>
+      </c>
+      <c r="AB7">
+        <v>461.12673068046502</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>89.000874757766695</v>
       </c>
@@ -8935,8 +8995,17 @@
       <c r="X8">
         <v>473.405846834182</v>
       </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z8">
+        <v>89.000874757766695</v>
+      </c>
+      <c r="AA8">
+        <v>0.28511941850529499</v>
+      </c>
+      <c r="AB8">
+        <v>465.46656298637299</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>89.169257879257202</v>
       </c>
@@ -8991,8 +9060,17 @@
       <c r="X9">
         <v>475.68893241882301</v>
       </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z9">
+        <v>88.730525970458899</v>
+      </c>
+      <c r="AA9">
+        <v>0.27735378177696901</v>
+      </c>
+      <c r="AB9">
+        <v>460.39963817596401</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>89.216685295104895</v>
       </c>
@@ -9047,8 +9125,17 @@
       <c r="X10">
         <v>475.92329239845202</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z10">
+        <v>89.247518777847205</v>
+      </c>
+      <c r="AA10">
+        <v>0.25306278556266498</v>
+      </c>
+      <c r="AB10">
+        <v>464.23108601570101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>89.356607198715196</v>
       </c>
@@ -9103,8 +9190,17 @@
       <c r="X11">
         <v>474.27302718162503</v>
       </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z11">
+        <v>89.079135656356797</v>
+      </c>
+      <c r="AA11">
+        <v>0.24944038304830901</v>
+      </c>
+      <c r="AB11">
+        <v>462.913558006286</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>88.744753599166799</v>
       </c>
@@ -9159,8 +9255,17 @@
       <c r="X12">
         <v>474.56031656265202</v>
       </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z12">
+        <v>85.476791858673096</v>
+      </c>
+      <c r="AA12">
+        <v>0.32642584738585301</v>
+      </c>
+      <c r="AB12">
+        <v>463.599218606948</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>88.946330547332707</v>
       </c>
@@ -9215,8 +9320,17 @@
       <c r="X13">
         <v>474.399509191513</v>
       </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z13">
+        <v>88.699692487716604</v>
+      </c>
+      <c r="AA13">
+        <v>0.27395483164948198</v>
+      </c>
+      <c r="AB13">
+        <v>462.34886145591702</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>88.317877054214406</v>
       </c>
@@ -9271,8 +9385,17 @@
       <c r="X14">
         <v>475.571006774902</v>
       </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z14">
+        <v>89.1194522380828</v>
+      </c>
+      <c r="AA14">
+        <v>0.27031771345587702</v>
+      </c>
+      <c r="AB14">
+        <v>463.07760882377602</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>89.446723461151095</v>
       </c>
@@ -9327,8 +9450,17 @@
       <c r="X15">
         <v>476.75548529624899</v>
       </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z15">
+        <v>89.847511053085299</v>
+      </c>
+      <c r="AA15">
+        <v>0.25591995566252901</v>
+      </c>
+      <c r="AB15">
+        <v>460.390878915786</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>88.227760791778493</v>
       </c>
@@ -9383,8 +9515,17 @@
       <c r="X16">
         <v>475.862070322036</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z16">
+        <v>88.301277160644503</v>
+      </c>
+      <c r="AA16">
+        <v>0.26133078872799798</v>
+      </c>
+      <c r="AB16">
+        <v>462.88062715530299</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>89.000874757766695</v>
       </c>
@@ -9439,8 +9580,17 @@
       <c r="X17">
         <v>475.50758361816401</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z17">
+        <v>87.457019090652395</v>
+      </c>
+      <c r="AA17">
+        <v>0.29450335650544102</v>
+      </c>
+      <c r="AB17">
+        <v>462.04888916015602</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>89.211940765380803</v>
       </c>
@@ -9495,8 +9645,17 @@
       <c r="X18">
         <v>473.659565687179</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z18">
+        <v>88.934475183486896</v>
+      </c>
+      <c r="AA18">
+        <v>0.25481036988731598</v>
+      </c>
+      <c r="AB18">
+        <v>461.48591017722998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>88.251477479934593</v>
       </c>
@@ -9551,8 +9710,17 @@
       <c r="X19">
         <v>473.31639146804798</v>
       </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z19">
+        <v>87.867289781570406</v>
+      </c>
+      <c r="AA19">
+        <v>0.31816218429759602</v>
+      </c>
+      <c r="AB19">
+        <v>463.88524746894802</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>88.075983524322496</v>
       </c>
@@ -9607,8 +9775,17 @@
       <c r="X20">
         <v>474.595871925354</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z20">
+        <v>89.017480611801105</v>
+      </c>
+      <c r="AA20">
+        <v>0.257885398734092</v>
+      </c>
+      <c r="AB20">
+        <v>461.82305645942603</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>88.993763923645005</v>
       </c>
@@ -9663,8 +9840,17 @@
       <c r="X21">
         <v>473.565135717391</v>
       </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z21">
+        <v>88.799297809600802</v>
+      </c>
+      <c r="AA21">
+        <v>0.27025974393110003</v>
+      </c>
+      <c r="AB21">
+        <v>463.57051944732598</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>87.331324815750094</v>
       </c>
@@ -9719,8 +9905,17 @@
       <c r="X22">
         <v>474.60574960708601</v>
       </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z22">
+        <v>89.233285188674898</v>
+      </c>
+      <c r="AA22">
+        <v>0.25176019515860398</v>
+      </c>
+      <c r="AB22">
+        <v>462.14640021324101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>87.447530031204195</v>
       </c>
@@ -9775,8 +9970,17 @@
       <c r="X23">
         <v>477.67639923095697</v>
       </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z23">
+        <v>89.572411775588904</v>
+      </c>
+      <c r="AA23">
+        <v>0.245837544843688</v>
+      </c>
+      <c r="AB23">
+        <v>463.55166697502102</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>88.287049531936603</v>
       </c>
@@ -9831,8 +10035,17 @@
       <c r="X24">
         <v>476.15692424774102</v>
       </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z24">
+        <v>89.010363817214895</v>
+      </c>
+      <c r="AA24">
+        <v>0.27472634441592397</v>
+      </c>
+      <c r="AB24">
+        <v>459.59633493423399</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>89.098107814788804</v>
       </c>
@@ -9887,8 +10100,17 @@
       <c r="X25">
         <v>475.56362199783302</v>
       </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z25">
+        <v>89.247518777847205</v>
+      </c>
+      <c r="AA25">
+        <v>0.26139393250298198</v>
+      </c>
+      <c r="AB25">
+        <v>461.20588707923798</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>88.135272264480506</v>
       </c>
@@ -9943,8 +10165,17 @@
       <c r="X26">
         <v>476.65149116516102</v>
       </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z26">
+        <v>88.718664646148596</v>
+      </c>
+      <c r="AA26">
+        <v>0.27351009722826503</v>
+      </c>
+      <c r="AB26">
+        <v>465.39883661270102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>88.334476947784395</v>
       </c>
@@ -9999,8 +10230,17 @@
       <c r="X27">
         <v>474.98331236839198</v>
       </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z27">
+        <v>89.114707708358694</v>
+      </c>
+      <c r="AA27">
+        <v>0.25417985736045901</v>
+      </c>
+      <c r="AB27">
+        <v>462.37801456451399</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>89.361351728439303</v>
       </c>
@@ -10055,8 +10295,17 @@
       <c r="X28">
         <v>475.80445694923401</v>
       </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z28">
+        <v>88.694953918457003</v>
+      </c>
+      <c r="AA28">
+        <v>0.293079361334737</v>
+      </c>
+      <c r="AB28">
+        <v>463.96956706047001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>89.306801557540894</v>
       </c>
@@ -10111,8 +10360,17 @@
       <c r="X29">
         <v>474.51709723472499</v>
       </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z29">
+        <v>89.143168926238999</v>
+      </c>
+      <c r="AA29">
+        <v>0.24245275793190299</v>
+      </c>
+      <c r="AB29">
+        <v>459.76927876472399</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>88.315504789352403</v>
       </c>
@@ -10167,8 +10425,17 @@
       <c r="X30">
         <v>475.62811589240999</v>
       </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z30">
+        <v>89.000874757766695</v>
+      </c>
+      <c r="AA30">
+        <v>0.25922572803289601</v>
+      </c>
+      <c r="AB30">
+        <v>460.57213950157097</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>87.895745038986206</v>
       </c>
@@ -10223,8 +10490,17 @@
       <c r="X31">
         <v>473.84651637077297</v>
       </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z31">
+        <v>88.481515645980807</v>
+      </c>
+      <c r="AA31">
+        <v>0.29369116100866999</v>
+      </c>
+      <c r="AB31">
+        <v>462.12938785552899</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>88.747125864028902</v>
       </c>
@@ -10279,8 +10555,17 @@
       <c r="X32">
         <v>473.736820936203</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z32">
+        <v>89.181113243102999</v>
+      </c>
+      <c r="AA32">
+        <v>0.25030409383191898</v>
+      </c>
+      <c r="AB32">
+        <v>462.83479976654002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>89.370834827423096</v>
       </c>
@@ -10335,8 +10620,17 @@
       <c r="X33">
         <v>476.33879399299599</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z33">
+        <v>87.864917516708303</v>
+      </c>
+      <c r="AA33">
+        <v>0.298987714733779</v>
+      </c>
+      <c r="AB33">
+        <v>462.400925159454</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>88.737636804580603</v>
       </c>
@@ -10391,8 +10685,17 @@
       <c r="X34">
         <v>475.83533501624999</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z34">
+        <v>88.777953386306706</v>
+      </c>
+      <c r="AA34">
+        <v>0.27118690311007498</v>
+      </c>
+      <c r="AB34">
+        <v>464.17543506622297</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>88.389027118682804</v>
       </c>
@@ -10447,8 +10750,17 @@
       <c r="X35">
         <v>474.96280455589198</v>
       </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z35">
+        <v>88.815897703170705</v>
+      </c>
+      <c r="AA35">
+        <v>0.27288601945761498</v>
+      </c>
+      <c r="AB35">
+        <v>462.15470814704798</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>88.268077373504596</v>
       </c>
@@ -10503,8 +10815,17 @@
       <c r="X36">
         <v>472.89153981208801</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z36">
+        <v>89.306801557540894</v>
+      </c>
+      <c r="AA36">
+        <v>0.24464437900555899</v>
+      </c>
+      <c r="AB36">
+        <v>460.146674156188</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>88.8846755027771</v>
       </c>
@@ -10559,8 +10880,17 @@
       <c r="X37">
         <v>475.616893529891</v>
       </c>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z37">
+        <v>89.169257879257202</v>
+      </c>
+      <c r="AA37">
+        <v>0.25969924925655202</v>
+      </c>
+      <c r="AB37">
+        <v>461.79513716697602</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>87.741601467132497</v>
       </c>
@@ -10615,8 +10945,17 @@
       <c r="X38">
         <v>476.06138896942099</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z38">
+        <v>87.978750467300401</v>
+      </c>
+      <c r="AA38">
+        <v>0.31268606102309399</v>
+      </c>
+      <c r="AB38">
+        <v>461.53372931480402</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>89.309173822402897</v>
       </c>
@@ -10671,8 +11010,17 @@
       <c r="X39">
         <v>474.98520922660799</v>
       </c>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z39">
+        <v>89.323407411575303</v>
+      </c>
+      <c r="AA39">
+        <v>0.25088632003663403</v>
+      </c>
+      <c r="AB39">
+        <v>462.360209465026</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>87.722629308700505</v>
       </c>
@@ -10700,6 +11048,9 @@
       <c r="L40">
         <v>566.00424218177795</v>
       </c>
+      <c r="M40" t="s">
+        <v>19</v>
+      </c>
       <c r="N40">
         <v>88.426971435546804</v>
       </c>
@@ -10727,8 +11078,17 @@
       <c r="X40">
         <v>473.39102768897999</v>
       </c>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z40">
+        <v>87.532907724380493</v>
+      </c>
+      <c r="AA40">
+        <v>0.338108114561606</v>
+      </c>
+      <c r="AB40">
+        <v>460.29124689102099</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>88.891786336898804</v>
       </c>
@@ -10783,8 +11143,17 @@
       <c r="X41">
         <v>475.56896162033001</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z41">
+        <v>88.996136188506995</v>
+      </c>
+      <c r="AA41">
+        <v>0.26961057123740201</v>
+      </c>
+      <c r="AB41">
+        <v>463.76413369178698</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>88.922619819641099</v>
       </c>
@@ -10839,8 +11208,17 @@
       <c r="X42">
         <v>475.40050315856899</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z42">
+        <v>89.529728889465304</v>
+      </c>
+      <c r="AA42">
+        <v>0.24368283545649699</v>
+      </c>
+      <c r="AB42">
+        <v>463.56668210029602</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>88.509970903396606</v>
       </c>
@@ -10895,8 +11273,17 @@
       <c r="X43">
         <v>475.44683098793001</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z43">
+        <v>88.839614391326904</v>
+      </c>
+      <c r="AA43">
+        <v>0.25797176401899802</v>
+      </c>
+      <c r="AB43">
+        <v>462.25898408889702</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>89.057791233062702</v>
       </c>
@@ -10951,8 +11338,17 @@
       <c r="X44">
         <v>475.22317361831603</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z44">
+        <v>89.188230037689195</v>
+      </c>
+      <c r="AA44">
+        <v>0.26381842122476601</v>
+      </c>
+      <c r="AB44">
+        <v>460.543656826019</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>82.941639423370304</v>
       </c>
@@ -11007,8 +11403,17 @@
       <c r="X45">
         <v>473.21894955635003</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z45">
+        <v>89.188230037689195</v>
+      </c>
+      <c r="AA45">
+        <v>0.25237014731330198</v>
+      </c>
+      <c r="AB45">
+        <v>463.21752071380598</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>89.072024822235093</v>
       </c>
@@ -11063,8 +11468,17 @@
       <c r="X46">
         <v>475.72774577140802</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z46">
+        <v>87.891006469726506</v>
+      </c>
+      <c r="AA46">
+        <v>0.32553704761340202</v>
+      </c>
+      <c r="AB46">
+        <v>460.541975975036</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>88.782697916030799</v>
       </c>
@@ -11119,8 +11533,17 @@
       <c r="X47">
         <v>475.782336473464</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z47">
+        <v>88.460171222686697</v>
+      </c>
+      <c r="AA47">
+        <v>0.27916198640133699</v>
+      </c>
+      <c r="AB47">
+        <v>463.69074869155799</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>88.906013965606604</v>
       </c>
@@ -11175,8 +11598,17 @@
       <c r="X48">
         <v>474.92248678207397</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z48">
+        <v>88.858586549758897</v>
+      </c>
+      <c r="AA48">
+        <v>0.27800204176438498</v>
+      </c>
+      <c r="AB48">
+        <v>463.50334715843201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>88.336849212646399</v>
       </c>
@@ -11231,8 +11663,17 @@
       <c r="X49">
         <v>475.63016104698102</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z49">
+        <v>88.455426692962604</v>
+      </c>
+      <c r="AA49">
+        <v>0.27894910599501899</v>
+      </c>
+      <c r="AB49">
+        <v>463.32916593551602</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>88.206416368484497</v>
       </c>
@@ -11287,8 +11728,17 @@
       <c r="X50">
         <v>474.57900500297501</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z50">
+        <v>88.000094890594397</v>
+      </c>
+      <c r="AA50">
+        <v>0.28667592244733697</v>
+      </c>
+      <c r="AB50">
+        <v>462.64667034149102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>88.097327947616506</v>
       </c>
@@ -11343,8 +11793,17 @@
       <c r="X51">
         <v>475.34892082214299</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z51">
+        <v>89.043563604354802</v>
+      </c>
+      <c r="AA51">
+        <v>0.24802463422834001</v>
+      </c>
+      <c r="AB51">
+        <v>462.66078042983997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
@@ -11420,8 +11879,20 @@
         <f>AVERAGE(X3:X51)</f>
         <v>475.26840829362646</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z53" s="2">
+        <f>AVERAGE(Z3:Z51)</f>
+        <v>88.759563042193022</v>
+      </c>
+      <c r="AA53" s="2">
+        <f>AVERAGE(AA3:AA51)</f>
+        <v>0.27236671204458485</v>
+      </c>
+      <c r="AB53" s="2">
+        <f>AVERAGE(AB3:AB51)</f>
+        <v>462.5055727326137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -11497,8 +11968,20 @@
         <f>AVERAGE(X3:X15,X17:X51)</f>
         <v>475.25604033470125</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z54">
+        <f>AVERAGE(Z3:Z51)</f>
+        <v>88.759563042193022</v>
+      </c>
+      <c r="AA54">
+        <f>AVERAGE(AA3:AA51)</f>
+        <v>0.27236671204458485</v>
+      </c>
+      <c r="AB54">
+        <f>AVERAGE(AB3:AB51)</f>
+        <v>462.5055727326137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>1</v>
       </c>
@@ -11516,6 +11999,9 @@
       </c>
       <c r="V56">
         <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/50TrialsVaryPackets.xlsx
+++ b/50TrialsVaryPackets.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\AP-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="114_{ECF119BF-3237-4B2E-BAD2-5A7D69F321E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B03AE32D-8614-4976-A50A-C0AF7D708C7B}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="114_{21BAF252-F231-4780-ADA0-26D6252FB769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{66A8E914-10AD-480D-9CBC-52CBC2EFC727}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="27600" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="27600" windowHeight="15030" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="4" r:id="rId1"/>
     <sheet name="ANOVA Packet Lengths" sheetId="7" r:id="rId2"/>
-    <sheet name="MW CNN 1D" sheetId="3" r:id="rId3"/>
-    <sheet name="CNN 2D" sheetId="2" r:id="rId4"/>
-    <sheet name="CNN 1D" sheetId="1" r:id="rId5"/>
-    <sheet name="ANOVA Time" sheetId="5" r:id="rId6"/>
-    <sheet name="ANOVA Loss" sheetId="6" r:id="rId7"/>
+    <sheet name="ANOVA Loss" sheetId="8" r:id="rId3"/>
+    <sheet name="MW CNN 1D" sheetId="3" r:id="rId4"/>
+    <sheet name="CNN 2D" sheetId="2" r:id="rId5"/>
+    <sheet name="CNN 1D" sheetId="1" r:id="rId6"/>
+    <sheet name="ANOVA Time" sheetId="5" r:id="rId7"/>
+    <sheet name="ANOVA Loss Between Models" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="55">
   <si>
     <t>Acc</t>
   </si>
@@ -199,13 +200,16 @@
   <si>
     <t>t Critical two-tail</t>
   </si>
+  <si>
+    <t>Statistics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -544,7 +548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -679,6 +683,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -724,7 +737,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -736,7 +749,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -782,7 +804,342 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -809,6 +1166,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy of Models Through</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Varying Packet Lengths</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1633,7 +2050,1955 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Loss of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Models Through Varying Packet Lengths</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1D-CNN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$L$13:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25250892815873882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25296847138353051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25271396173605115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25397736139035804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25457393418632901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25667699720940784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25882860519111833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58CC-43D4-B91A-BE2033CA5F89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2D-CNN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.653763440860215E-2"/>
+                  <c:y val="-0.11584095157586512"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-58CC-43D4-B91A-BE2033CA5F89}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$K$3:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$M$3:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.28035382149444082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2839892331293008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27756050853356795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27181587591363621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28113333910177979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33148675481590034</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27850191224082005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-58CC-43D4-B91A-BE2033CA5F89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MW-1D-CNN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9440860215053761E-2"/>
+                  <c:y val="3.9801050576706042E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-58CC-43D4-B91A-BE2033CA5F89}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2989247311827993E-2"/>
+                  <c:y val="4.6718472894597962E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-58CC-43D4-B91A-BE2033CA5F89}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$K$3:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$M$13:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.27422886871488167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26861987611685756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26727999964450727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27152418235869347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27440817489783076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27483680097808427</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27236671204458485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-58CC-43D4-B91A-BE2033CA5F89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1481922928"/>
+        <c:axId val="1491292192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1481922928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="298"/>
+          <c:min val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Packets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1491292192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1491292192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.24000000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Loss (Mean</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Squared Error)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1481922928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Marginal Percenage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Decrease in Run Time with Varying Packet Lengths</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1D-CNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$A$47:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$C$56:$C$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5502226982879446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7061446841513717</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3788825783308498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3719437963959362</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8629835408478779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76165074581861147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3464-43E7-8A71-FC5292FD7764}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2D-CNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4404258246148907E-2"/>
+                  <c:y val="5.7844863907503402E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-3464-43E7-8A71-FC5292FD7764}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$A$47:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$B$56:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1151974279941994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4178148123703656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1486476347875554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79880716908407901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9048319910481872</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6239287334064958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3464-43E7-8A71-FC5292FD7764}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$D$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MW-1D-CNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2161477395682897E-2"/>
+                  <c:y val="4.0324060367583701E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-3464-43E7-8A71-FC5292FD7764}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$A$47:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$D$56:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.356018275330714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6086443938241288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8170242891289403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8246594637863067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5685597464898251</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6828628191885744</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3464-43E7-8A71-FC5292FD7764}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1553461616"/>
+        <c:axId val="1490631296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1553461616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="298"/>
+          <c:min val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Packets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1490631296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1490631296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Marginal</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Decrease(%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553461616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2189,20 +4554,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>242886</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>90486</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2227,7 +5624,147 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C174A8F-3B31-4086-AB4C-B0E590B6474C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>138111</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{289FCF87-0B17-47FA-ACBC-7A39339F9744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{39CD8213-1C81-4F52-9CC4-9218A2A8454C}" name="Table2" displayName="Table2" ref="B39:H43" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30">
+  <autoFilter ref="B39:H43" xr:uid="{907A0970-D7D5-4201-B9BA-60065503D71C}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{BDE41873-38F0-48D4-BCFB-7BA65E56EE4D}" name="Source of Variation" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{09BAF440-6C53-4FFB-AD73-169C070B36CE}" name="SS" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{6641F612-1F1C-4305-8D0E-931AAFA472E0}" name="df" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{E850EFE3-3999-471F-AE07-C3FC6B840EF2}" name="MS" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{01768610-9A7D-4A6E-B91D-CA1D2AFA78DF}" name="F" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{D7CC90FD-BDC1-4B52-918A-EBEE6D9D619F}" name="P-value" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{7EBECEA1-C11E-4FD1-9DB9-C16703733E43}" name="F crit" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7CD78C80-0D2C-460B-941C-FF19420A01A6}" name="Table3" displayName="Table3" ref="J40:L51" totalsRowShown="0" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+  <autoFilter ref="J40:L51" xr:uid="{47B3AAA0-23CE-4F76-BC1B-9DA8182D38F2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EB6B3FA1-625F-42F4-88C9-00731D9CBBE0}" name="Statistics" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{A8A8D3B1-F395-4C24-BE1F-2D546400BB16}" name="2D-CNN" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{53EB4393-0904-4F30-A917-C048CDD63AD0}" name="1D-CNN" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6B924D82-0FF1-4523-9685-9C2782772080}" name="Table4" displayName="Table4" ref="Q42:S53" totalsRowShown="0">
+  <autoFilter ref="Q42:S53" xr:uid="{4FABDD90-8A51-495D-9A31-0BA45A09B228}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{83BE7481-1C2E-4F89-96E6-AE5CFE52D1ED}" name="Statistics"/>
+    <tableColumn id="2" xr3:uid="{D1C8444A-2026-4E26-BD4E-F0409EBFA15E}" name="2D-CNN"/>
+    <tableColumn id="3" xr3:uid="{051B40FD-1485-4D6D-95F6-0274FE017421}" name="MW-1D-CNN"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{800722E0-2EAD-4102-B241-093ECC4B8DBD}" name="Table5" displayName="Table5" ref="E15:G26" totalsRowShown="0" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+  <autoFilter ref="E15:G26" xr:uid="{460D8F1C-AD9E-4B21-81A6-19C082F6D9BA}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3A1811EC-2B2F-449A-9E69-F020219C1B91}" name="Statistics" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{4A7540EA-93F3-4ACE-9583-5787664E7786}" name="1D-CNN" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{C81489CE-D8CB-4774-8F7D-95C92E57162F}" name="MW-1D-CNN" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD4F4C31-364E-40C4-82D0-683D9856C3F9}" name="Table1" displayName="Table1" ref="B67:H71" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B67:H71" xr:uid="{CDEF0AA1-0B17-45B1-A3CD-CF4D025C6DCE}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{487A31F9-04FC-4385-8C96-B9BC32B0B84B}" name="Source of Variation" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{3350821B-A05A-46FD-8A05-E3721DA7044F}" name="SS" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{5F467EBA-3FD6-4A0C-A695-AAEF04F43982}" name="df" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A2010C39-2940-418D-A277-AEEBF570DAF3}" name="MS" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{EAABBCF5-A9DA-4440-976B-021C290A15BA}" name="F" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{DA4E8F65-2E3A-4AB0-B01D-3948244F12F8}" name="P-value" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{2E27B644-DA1D-4049-80EA-0B6F21FE7E99}" name="F crit" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2527,13 +6064,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X53"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -3058,6 +6606,15 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -3072,8 +6629,17 @@
       <c r="E13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>0.28035382149444082</v>
+      </c>
+      <c r="L13">
+        <v>0.25250892815873882</v>
+      </c>
+      <c r="M13">
+        <v>0.27422886871488167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>86.974880029988825</v>
       </c>
@@ -3082,6 +6648,15 @@
       </c>
       <c r="C14">
         <v>88.73487966401234</v>
+      </c>
+      <c r="K14">
+        <v>0.2839892331293008</v>
+      </c>
+      <c r="L14">
+        <v>0.25296847138353051</v>
+      </c>
+      <c r="M14">
+        <v>0.26861987611685756</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -3094,12 +6669,23 @@
       <c r="C15">
         <v>88.869603971640245</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="10" t="s">
         <v>25</v>
+      </c>
+      <c r="K15">
+        <v>0.27756050853356795</v>
+      </c>
+      <c r="L15">
+        <v>0.25271396173605115</v>
+      </c>
+      <c r="M15">
+        <v>0.26727999964450727</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -3121,8 +6707,17 @@
       <c r="G16" s="6">
         <v>88.708099989994295</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>0.27181587591363621</v>
+      </c>
+      <c r="L16">
+        <v>0.25397736139035804</v>
+      </c>
+      <c r="M16">
+        <v>0.27152418235869347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>86.946599998257369</v>
       </c>
@@ -3141,8 +6736,17 @@
       <c r="G17" s="6">
         <v>1.1284050230494287E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>0.28113333910177979</v>
+      </c>
+      <c r="L17">
+        <v>0.25457393418632901</v>
+      </c>
+      <c r="M17">
+        <v>0.27440817489783076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>86.845163188197375</v>
       </c>
@@ -3161,8 +6765,17 @@
       <c r="G18" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>0.33148675481590034</v>
+      </c>
+      <c r="L18">
+        <v>0.25667699720940784</v>
+      </c>
+      <c r="M18">
+        <v>0.27483680097808427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>87.061466152469293</v>
       </c>
@@ -3179,8 +6792,17 @@
         <v>1.6710571228361559E-2</v>
       </c>
       <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>0.27850191224082005</v>
+      </c>
+      <c r="L19">
+        <v>0.25882860519111833</v>
+      </c>
+      <c r="M19">
+        <v>0.27236671204458485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E20" s="6" t="s">
         <v>48</v>
       </c>
@@ -3189,7 +6811,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E21" s="6" t="s">
         <v>36</v>
       </c>
@@ -3198,7 +6820,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E22" s="6" t="s">
         <v>49</v>
       </c>
@@ -3207,7 +6829,7 @@
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E23" s="6" t="s">
         <v>50</v>
       </c>
@@ -3216,7 +6838,7 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
         <v>51</v>
       </c>
@@ -3225,7 +6847,7 @@
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E25" s="6" t="s">
         <v>52</v>
       </c>
@@ -3234,26 +6856,26 @@
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="7" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>2.1788128296672284</v>
       </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
@@ -3270,7 +6892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>24</v>
       </c>
@@ -3287,7 +6909,7 @@
         <v>6.9110541181879634E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>23</v>
       </c>
@@ -3304,7 +6926,7 @@
         <v>2.2137092226228828E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>25</v>
       </c>
@@ -3321,7 +6943,7 @@
         <v>1.1284050230494287E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -3329,30 +6951,30 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="8" t="s">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>41</v>
       </c>
@@ -3374,18 +6996,20 @@
       <c r="H40" s="6">
         <v>3.5545571456617879</v>
       </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8" t="s">
+      <c r="J40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="10" t="s">
         <v>23</v>
       </c>
       <c r="Q40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
         <v>42</v>
       </c>
@@ -3411,7 +7035,7 @@
         <v>89.116939834243922</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -3428,6 +7052,9 @@
       <c r="L42" s="6">
         <v>2.2137092226228828E-2</v>
       </c>
+      <c r="Q42" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="R42" t="s">
         <v>24</v>
       </c>
@@ -3435,20 +7062,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="7" t="s">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>15.908740464113206</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>20</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
       <c r="J43" s="6" t="s">
         <v>46</v>
       </c>
@@ -3468,7 +7095,7 @@
         <v>88.708099989994253</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J44" s="6" t="s">
         <v>47</v>
       </c>
@@ -3486,7 +7113,7 @@
         <v>1.1284050230494287E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J45" s="6" t="s">
         <v>48</v>
       </c>
@@ -3504,7 +7131,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
       <c r="J46" s="6" t="s">
         <v>36</v>
       </c>
@@ -3519,7 +7158,19 @@
         <v>4.0197295706186957E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>298</v>
+      </c>
+      <c r="B47">
+        <v>85.41220502155582</v>
+      </c>
+      <c r="C47">
+        <v>75.356114840020936</v>
+      </c>
+      <c r="D47">
+        <v>622.28743798037351</v>
+      </c>
       <c r="J47" s="6" t="s">
         <v>49</v>
       </c>
@@ -3534,7 +7185,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>290</v>
+      </c>
+      <c r="B48">
+        <v>81.897324157315623</v>
+      </c>
+      <c r="C48">
+        <v>77.27786358521908</v>
+      </c>
+      <c r="D48">
+        <v>601.4033578366649</v>
+      </c>
       <c r="J48" s="6" t="s">
         <v>50</v>
       </c>
@@ -3549,7 +7212,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>270</v>
+      </c>
+      <c r="B49">
+        <v>78.279252039758759</v>
+      </c>
+      <c r="C49">
+        <v>75.959391423634116</v>
+      </c>
+      <c r="D49">
+        <v>567.67278212308872</v>
+      </c>
       <c r="J49" s="6" t="s">
         <v>51</v>
       </c>
@@ -3564,7 +7239,19 @@
         <v>-14.658491660083516</v>
       </c>
     </row>
-    <row r="50" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>250</v>
+      </c>
+      <c r="B50">
+        <v>73.466136660686743</v>
+      </c>
+      <c r="C50">
+        <v>71.114031037505782</v>
+      </c>
+      <c r="D50">
+        <v>546.00457414667642</v>
+      </c>
       <c r="J50" s="6" t="s">
         <v>52</v>
       </c>
@@ -3579,14 +7266,26 @@
         <v>2.5279812688783744E-9</v>
       </c>
     </row>
-    <row r="51" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J51" s="7" t="s">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>230</v>
+      </c>
+      <c r="B51">
+        <v>72.879283894192071</v>
+      </c>
+      <c r="C51">
+        <v>68.716105879569525</v>
+      </c>
+      <c r="D51">
+        <v>503.28157556300238</v>
+      </c>
+      <c r="J51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="6">
         <v>2.1788128296672284</v>
       </c>
-      <c r="L51" s="7"/>
+      <c r="L51" s="6"/>
       <c r="Q51" t="s">
         <v>51</v>
       </c>
@@ -3594,7 +7293,19 @@
         <v>1.7822875556493194</v>
       </c>
     </row>
-    <row r="52" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>210</v>
+      </c>
+      <c r="B52">
+        <v>68.575884623960988</v>
+      </c>
+      <c r="C52">
+        <v>66.748775078325849</v>
+      </c>
+      <c r="D52">
+        <v>475.25604033470125</v>
+      </c>
       <c r="Q52" t="s">
         <v>52</v>
       </c>
@@ -3602,32 +7313,186 @@
         <v>5.0559625377567488E-9</v>
       </c>
     </row>
-    <row r="53" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>200</v>
+      </c>
+      <c r="B53">
+        <v>64.719225744406359</v>
+      </c>
+      <c r="C53">
+        <v>66.240382535116993</v>
+      </c>
+      <c r="D53">
+        <v>462.5055727326137</v>
+      </c>
       <c r="Q53" t="s">
         <v>53</v>
       </c>
       <c r="R53">
         <v>2.1788128296672284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>298</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>290</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57:D62" si="0">ABS((B48-B47)/B47)*100</f>
+        <v>4.1151974279941994</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>2.5502226982879446</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>3.356018275330714</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>270</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>4.4178148123703656</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>1.7061446841513717</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>5.6086443938241288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>250</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>6.1486476347875554</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>6.3788825783308498</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>3.8170242891289403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>230</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>0.79880716908407901</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>3.3719437963959362</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>7.8246594637863067</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>210</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>5.9048319910481872</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>2.8629835408478779</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>5.5685597464898251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>200</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>5.6239287334064958</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>0.76165074581861147</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>2.6828628191885744</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="4">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9FDD9E-190C-4A23-857F-D438AEE83A39}">
-  <dimension ref="A1:X106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:X125"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="H71" sqref="B67:H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7163,25 +11028,25 @@
       </c>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" s="10" t="s">
         <v>40</v>
       </c>
       <c r="J67" s="8" t="s">
@@ -7363,19 +11228,19 @@
       <c r="X70" s="6"/>
     </row>
     <row r="71" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <v>60.37229510469043</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="6">
         <v>342</v>
       </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
       <c r="J71" s="7" t="s">
         <v>43</v>
       </c>
@@ -7727,18 +11592,4479 @@
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
     </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="6">
+        <v>298</v>
+      </c>
+      <c r="C112" s="6">
+        <v>49</v>
+      </c>
+      <c r="D112" s="6">
+        <v>4374.5915055274954</v>
+      </c>
+      <c r="E112" s="6">
+        <v>89.277377663826442</v>
+      </c>
+      <c r="F112" s="6">
+        <v>0.17608370127486014</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="6">
+        <v>290</v>
+      </c>
+      <c r="C113" s="6">
+        <v>49</v>
+      </c>
+      <c r="D113" s="6">
+        <v>4374.7480094432822</v>
+      </c>
+      <c r="E113" s="6">
+        <v>89.280571621291472</v>
+      </c>
+      <c r="F113" s="6">
+        <v>0.13065090318886832</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="6">
+        <v>270</v>
+      </c>
+      <c r="C114" s="6">
+        <v>49</v>
+      </c>
+      <c r="D114" s="6">
+        <v>4370.6120908260345</v>
+      </c>
+      <c r="E114" s="6">
+        <v>89.196165118898662</v>
+      </c>
+      <c r="F114" s="6">
+        <v>0.16085914653185615</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="6">
+        <v>250</v>
+      </c>
+      <c r="C115" s="6">
+        <v>49</v>
+      </c>
+      <c r="D115" s="6">
+        <v>4365.1836752891531</v>
+      </c>
+      <c r="E115" s="6">
+        <v>89.085381128350065</v>
+      </c>
+      <c r="F115" s="6">
+        <v>0.15899753423298096</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="6">
+        <v>230</v>
+      </c>
+      <c r="C116" s="6">
+        <v>49</v>
+      </c>
+      <c r="D116" s="6">
+        <v>4367.1662449836722</v>
+      </c>
+      <c r="E116" s="6">
+        <v>89.125841734360662</v>
+      </c>
+      <c r="F116" s="6">
+        <v>0.15441372779162413</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="7">
+        <v>210</v>
+      </c>
+      <c r="C117" s="7">
+        <v>49</v>
+      </c>
+      <c r="D117" s="7">
+        <v>4358.2445859909049</v>
+      </c>
+      <c r="E117" s="7">
+        <v>88.943767061038869</v>
+      </c>
+      <c r="F117" s="7">
+        <v>0.14837646574629904</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" s="6">
+        <v>4.0514506545166</v>
+      </c>
+      <c r="D122" s="6">
+        <v>5</v>
+      </c>
+      <c r="E122" s="6">
+        <v>0.81029013090332003</v>
+      </c>
+      <c r="F122" s="6">
+        <v>5.2311573842343106</v>
+      </c>
+      <c r="G122" s="6">
+        <v>1.2949800442070013E-4</v>
+      </c>
+      <c r="H122" s="6">
+        <v>2.2453454953427898</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C123" s="6">
+        <v>44.610310980791461</v>
+      </c>
+      <c r="D123" s="6">
+        <v>288</v>
+      </c>
+      <c r="E123" s="6">
+        <v>0.15489691312774811</v>
+      </c>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" s="7">
+        <v>48.661761635308061</v>
+      </c>
+      <c r="D125" s="7">
+        <v>293</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:X108"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>298</v>
+      </c>
+      <c r="C2" s="1">
+        <v>290</v>
+      </c>
+      <c r="D2" s="1">
+        <v>270</v>
+      </c>
+      <c r="E2" s="1">
+        <v>250</v>
+      </c>
+      <c r="F2" s="1">
+        <v>230</v>
+      </c>
+      <c r="G2" s="1">
+        <v>210</v>
+      </c>
+      <c r="H2" s="1">
+        <v>200</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <v>298</v>
+      </c>
+      <c r="K2" s="1">
+        <v>290</v>
+      </c>
+      <c r="L2" s="1">
+        <v>270</v>
+      </c>
+      <c r="M2" s="1">
+        <v>250</v>
+      </c>
+      <c r="N2" s="1">
+        <v>230</v>
+      </c>
+      <c r="O2" s="1">
+        <v>210</v>
+      </c>
+      <c r="P2" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1">
+        <v>298</v>
+      </c>
+      <c r="S2" s="1">
+        <v>290</v>
+      </c>
+      <c r="T2" s="1">
+        <v>270</v>
+      </c>
+      <c r="U2" s="1">
+        <v>250</v>
+      </c>
+      <c r="V2" s="1">
+        <v>230</v>
+      </c>
+      <c r="W2" s="1">
+        <v>210</v>
+      </c>
+      <c r="X2" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.25059651093783603</v>
+      </c>
+      <c r="C3">
+        <v>0.24965414835185201</v>
+      </c>
+      <c r="D3">
+        <v>0.244528188925136</v>
+      </c>
+      <c r="E3">
+        <v>0.252545211645541</v>
+      </c>
+      <c r="F3">
+        <v>0.26912349552781201</v>
+      </c>
+      <c r="G3">
+        <v>0.25934758216158899</v>
+      </c>
+      <c r="H3">
+        <v>0.25438294162742697</v>
+      </c>
+      <c r="J3">
+        <v>0.27769745134200002</v>
+      </c>
+      <c r="K3">
+        <v>0.27601916275212202</v>
+      </c>
+      <c r="L3">
+        <v>0.281579822667617</v>
+      </c>
+      <c r="M3">
+        <v>0.264625312352887</v>
+      </c>
+      <c r="N3">
+        <v>0.264765702028815</v>
+      </c>
+      <c r="O3">
+        <v>0.29661182584761597</v>
+      </c>
+      <c r="P3">
+        <v>0.27344635745206602</v>
+      </c>
+      <c r="R3">
+        <v>0.25593475341601801</v>
+      </c>
+      <c r="S3">
+        <v>0.26857903370728298</v>
+      </c>
+      <c r="T3">
+        <v>0.27364717987528597</v>
+      </c>
+      <c r="U3">
+        <v>0.281325041714515</v>
+      </c>
+      <c r="V3">
+        <v>0.32339541383366199</v>
+      </c>
+      <c r="W3">
+        <v>0.27343421652540201</v>
+      </c>
+      <c r="X3">
+        <v>0.29172533327497502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.25174670138941602</v>
+      </c>
+      <c r="C4">
+        <v>0.25059440996934501</v>
+      </c>
+      <c r="D4">
+        <v>0.25267978321172402</v>
+      </c>
+      <c r="E4">
+        <v>0.252583463879403</v>
+      </c>
+      <c r="F4">
+        <v>0.25287529295787198</v>
+      </c>
+      <c r="G4">
+        <v>0.26116378010725699</v>
+      </c>
+      <c r="H4">
+        <v>0.254669853235239</v>
+      </c>
+      <c r="J4">
+        <v>0.29503988322422398</v>
+      </c>
+      <c r="K4">
+        <v>0.28836688755879702</v>
+      </c>
+      <c r="L4">
+        <v>0.26426110206051301</v>
+      </c>
+      <c r="M4">
+        <v>0.275874593980038</v>
+      </c>
+      <c r="N4">
+        <v>0.29043662896042799</v>
+      </c>
+      <c r="O4">
+        <v>0.25948277362466499</v>
+      </c>
+      <c r="P4">
+        <v>0.25774980586164398</v>
+      </c>
+      <c r="R4">
+        <v>0.27932078153680101</v>
+      </c>
+      <c r="S4">
+        <v>0.248842758329333</v>
+      </c>
+      <c r="T4">
+        <v>0.26449414726576298</v>
+      </c>
+      <c r="U4">
+        <v>0.252420932368148</v>
+      </c>
+      <c r="V4">
+        <v>0.254406929885792</v>
+      </c>
+      <c r="W4">
+        <v>0.25869673290508699</v>
+      </c>
+      <c r="X4">
+        <v>0.25142665083347998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.24708731637081</v>
+      </c>
+      <c r="C5">
+        <v>0.26019107261172703</v>
+      </c>
+      <c r="D5">
+        <v>0.25918662667721099</v>
+      </c>
+      <c r="E5">
+        <v>0.25359862651281401</v>
+      </c>
+      <c r="F5">
+        <v>0.25610320560331401</v>
+      </c>
+      <c r="G5">
+        <v>0.25677374567799599</v>
+      </c>
+      <c r="H5">
+        <v>0.253604208176749</v>
+      </c>
+      <c r="J5">
+        <v>0.26785905080514</v>
+      </c>
+      <c r="K5">
+        <v>0.25757784132007699</v>
+      </c>
+      <c r="L5">
+        <v>0.32385418468048899</v>
+      </c>
+      <c r="M5">
+        <v>0.25691701595578398</v>
+      </c>
+      <c r="N5">
+        <v>0.30168453050423799</v>
+      </c>
+      <c r="O5">
+        <v>0.25456604177208803</v>
+      </c>
+      <c r="P5">
+        <v>0.297402189457594</v>
+      </c>
+      <c r="R5">
+        <v>0.27616908617080299</v>
+      </c>
+      <c r="S5">
+        <v>0.25321479901417998</v>
+      </c>
+      <c r="T5">
+        <v>0.25839889372028602</v>
+      </c>
+      <c r="U5">
+        <v>0.306426730454052</v>
+      </c>
+      <c r="V5">
+        <v>0.259136820126531</v>
+      </c>
+      <c r="W5">
+        <v>0.292166782665643</v>
+      </c>
+      <c r="X5">
+        <v>0.26566754305444901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.24904939495015499</v>
+      </c>
+      <c r="C6">
+        <v>0.25879923641931801</v>
+      </c>
+      <c r="D6">
+        <v>0.25369177561717199</v>
+      </c>
+      <c r="E6">
+        <v>0.25728204508864599</v>
+      </c>
+      <c r="F6">
+        <v>0.263082958474816</v>
+      </c>
+      <c r="G6">
+        <v>0.25671114812366902</v>
+      </c>
+      <c r="H6">
+        <v>0.26864633259369203</v>
+      </c>
+      <c r="J6">
+        <v>0.26710454454858301</v>
+      </c>
+      <c r="K6">
+        <v>0.27564888606440002</v>
+      </c>
+      <c r="L6">
+        <v>0.27443617149637201</v>
+      </c>
+      <c r="M6">
+        <v>0.277072963475259</v>
+      </c>
+      <c r="N6">
+        <v>0.29237627452062398</v>
+      </c>
+      <c r="O6">
+        <v>0.28414600740387602</v>
+      </c>
+      <c r="P6">
+        <v>0.28040545287405499</v>
+      </c>
+      <c r="R6">
+        <v>0.30643616261680501</v>
+      </c>
+      <c r="S6">
+        <v>0.26044764199624498</v>
+      </c>
+      <c r="T6">
+        <v>0.26261496832917403</v>
+      </c>
+      <c r="U6">
+        <v>0.26398389835938002</v>
+      </c>
+      <c r="V6">
+        <v>0.27531552605310899</v>
+      </c>
+      <c r="W6">
+        <v>0.27073244168051502</v>
+      </c>
+      <c r="X6">
+        <v>0.25564228762697799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.247443497367349</v>
+      </c>
+      <c r="C7">
+        <v>0.25185175198057702</v>
+      </c>
+      <c r="D7">
+        <v>0.24768675051806699</v>
+      </c>
+      <c r="E7">
+        <v>0.25985459607330103</v>
+      </c>
+      <c r="F7">
+        <v>0.25077301616098102</v>
+      </c>
+      <c r="G7">
+        <v>0.25011162909726298</v>
+      </c>
+      <c r="H7">
+        <v>0.26269290123330002</v>
+      </c>
+      <c r="J7">
+        <v>0.28680863579486499</v>
+      </c>
+      <c r="K7">
+        <v>0.27157388276724398</v>
+      </c>
+      <c r="L7">
+        <v>0.29780629344655002</v>
+      </c>
+      <c r="M7">
+        <v>0.273769662052744</v>
+      </c>
+      <c r="N7">
+        <v>0.27188473447171702</v>
+      </c>
+      <c r="O7">
+        <v>0.29747534543823501</v>
+      </c>
+      <c r="P7">
+        <v>0.29203820308600498</v>
+      </c>
+      <c r="R7">
+        <v>0.32576677804585602</v>
+      </c>
+      <c r="S7">
+        <v>0.28145703729974902</v>
+      </c>
+      <c r="T7">
+        <v>0.248651185612245</v>
+      </c>
+      <c r="U7">
+        <v>0.28471131582523101</v>
+      </c>
+      <c r="V7">
+        <v>0.249530878661437</v>
+      </c>
+      <c r="W7">
+        <v>0.27658210352254298</v>
+      </c>
+      <c r="X7">
+        <v>0.29991020372850602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.25428471326542401</v>
+      </c>
+      <c r="C8">
+        <v>0.24497260909659899</v>
+      </c>
+      <c r="D8">
+        <v>0.26343331673686798</v>
+      </c>
+      <c r="E8">
+        <v>0.25010520547531501</v>
+      </c>
+      <c r="F8">
+        <v>0.25939821293550802</v>
+      </c>
+      <c r="G8">
+        <v>0.25854574584609902</v>
+      </c>
+      <c r="H8">
+        <v>0.26003783162621602</v>
+      </c>
+      <c r="J8">
+        <v>0.28182332678524202</v>
+      </c>
+      <c r="K8">
+        <v>0.27510275845858601</v>
+      </c>
+      <c r="L8">
+        <v>0.27876328906797898</v>
+      </c>
+      <c r="M8">
+        <v>0.27249325014062198</v>
+      </c>
+      <c r="N8">
+        <v>0.263791751192403</v>
+      </c>
+      <c r="O8">
+        <v>0.31428972326209698</v>
+      </c>
+      <c r="P8">
+        <v>0.288058755348577</v>
+      </c>
+      <c r="R8">
+        <v>0.25954075623456002</v>
+      </c>
+      <c r="S8">
+        <v>0.2569100149945</v>
+      </c>
+      <c r="T8">
+        <v>0.26690111964305602</v>
+      </c>
+      <c r="U8">
+        <v>0.27909826622030498</v>
+      </c>
+      <c r="V8">
+        <v>0.273849304244485</v>
+      </c>
+      <c r="W8">
+        <v>0.25093016665626999</v>
+      </c>
+      <c r="X8">
+        <v>0.28511941850529499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.247513722220814</v>
+      </c>
+      <c r="C9">
+        <v>0.25108997460988203</v>
+      </c>
+      <c r="D9">
+        <v>0.25511473001401602</v>
+      </c>
+      <c r="E9">
+        <v>0.25206261013849601</v>
+      </c>
+      <c r="F9">
+        <v>0.25101132475818999</v>
+      </c>
+      <c r="G9">
+        <v>0.25441960220068499</v>
+      </c>
+      <c r="H9">
+        <v>0.258972979994395</v>
+      </c>
+      <c r="J9">
+        <v>0.28215008380884199</v>
+      </c>
+      <c r="K9">
+        <v>0.32062178085626702</v>
+      </c>
+      <c r="L9">
+        <v>0.27485895048335901</v>
+      </c>
+      <c r="M9">
+        <v>0.28442993207168299</v>
+      </c>
+      <c r="N9">
+        <v>0.26024197134928401</v>
+      </c>
+      <c r="O9">
+        <v>0.26085949756911297</v>
+      </c>
+      <c r="P9">
+        <v>0.26516301425847799</v>
+      </c>
+      <c r="R9">
+        <v>0.25807979315569501</v>
+      </c>
+      <c r="S9">
+        <v>0.24868068436680699</v>
+      </c>
+      <c r="T9">
+        <v>0.24983153020603099</v>
+      </c>
+      <c r="U9">
+        <v>0.26166537757056002</v>
+      </c>
+      <c r="V9">
+        <v>0.23938763019855799</v>
+      </c>
+      <c r="W9">
+        <v>0.290271485498106</v>
+      </c>
+      <c r="X9">
+        <v>0.27735378177696901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.251939910298494</v>
+      </c>
+      <c r="C10">
+        <v>0.24701588166087399</v>
+      </c>
+      <c r="D10">
+        <v>0.25308474167839601</v>
+      </c>
+      <c r="E10">
+        <v>0.25984460084723598</v>
+      </c>
+      <c r="F10">
+        <v>0.25330214329852102</v>
+      </c>
+      <c r="G10">
+        <v>0.25215584548049202</v>
+      </c>
+      <c r="H10">
+        <v>0.25462025246967701</v>
+      </c>
+      <c r="J10">
+        <v>0.291507470804097</v>
+      </c>
+      <c r="K10">
+        <v>0.298445907240941</v>
+      </c>
+      <c r="L10">
+        <v>0.27890797038134202</v>
+      </c>
+      <c r="M10">
+        <v>0.26331662705797199</v>
+      </c>
+      <c r="N10">
+        <v>0.31405787178449801</v>
+      </c>
+      <c r="O10">
+        <v>0.257278953988404</v>
+      </c>
+      <c r="P10">
+        <v>0.27637953875471399</v>
+      </c>
+      <c r="R10">
+        <v>0.25581393391264901</v>
+      </c>
+      <c r="S10">
+        <v>0.254047972597995</v>
+      </c>
+      <c r="T10">
+        <v>0.25886353362694098</v>
+      </c>
+      <c r="U10">
+        <v>0.284870725911266</v>
+      </c>
+      <c r="V10">
+        <v>0.28207105664682902</v>
+      </c>
+      <c r="W10">
+        <v>0.25366190866465899</v>
+      </c>
+      <c r="X10">
+        <v>0.25306278556266498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.24890807994558301</v>
+      </c>
+      <c r="C11">
+        <v>0.25539374347861599</v>
+      </c>
+      <c r="D11">
+        <v>0.25379235884448298</v>
+      </c>
+      <c r="E11">
+        <v>0.26225827017307601</v>
+      </c>
+      <c r="F11">
+        <v>0.246350247479621</v>
+      </c>
+      <c r="G11">
+        <v>0.25438966601274199</v>
+      </c>
+      <c r="H11">
+        <v>0.253632214114274</v>
+      </c>
+      <c r="J11">
+        <v>0.274819421176835</v>
+      </c>
+      <c r="K11">
+        <v>0.26434668743870698</v>
+      </c>
+      <c r="L11">
+        <v>0.26925302901499998</v>
+      </c>
+      <c r="M11">
+        <v>0.27875969776002901</v>
+      </c>
+      <c r="N11">
+        <v>0.265459077894315</v>
+      </c>
+      <c r="O11">
+        <v>0.28479393370504102</v>
+      </c>
+      <c r="P11">
+        <v>0.28503508429721502</v>
+      </c>
+      <c r="R11">
+        <v>0.25247172338670998</v>
+      </c>
+      <c r="S11">
+        <v>0.24492994293838699</v>
+      </c>
+      <c r="T11">
+        <v>0.27139978508277002</v>
+      </c>
+      <c r="U11">
+        <v>0.28846056012302701</v>
+      </c>
+      <c r="V11">
+        <v>0.29210190150156001</v>
+      </c>
+      <c r="W11">
+        <v>0.27186900231785099</v>
+      </c>
+      <c r="X11">
+        <v>0.24944038304830901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.32221880306228901</v>
+      </c>
+      <c r="C12">
+        <v>0.251695422007709</v>
+      </c>
+      <c r="D12">
+        <v>0.23951616773269299</v>
+      </c>
+      <c r="E12">
+        <v>0.26163952592211198</v>
+      </c>
+      <c r="F12">
+        <v>0.25696080555966999</v>
+      </c>
+      <c r="G12">
+        <v>0.25434290394047299</v>
+      </c>
+      <c r="H12">
+        <v>0.27674202843933299</v>
+      </c>
+      <c r="J12">
+        <v>0.26558895921090497</v>
+      </c>
+      <c r="K12">
+        <v>0.27926671390230401</v>
+      </c>
+      <c r="L12">
+        <v>0.26928981486074</v>
+      </c>
+      <c r="M12">
+        <v>0.264986227652805</v>
+      </c>
+      <c r="N12">
+        <v>0.26089043518615401</v>
+      </c>
+      <c r="O12">
+        <v>0.26799528539119899</v>
+      </c>
+      <c r="P12">
+        <v>0.28297697417776302</v>
+      </c>
+      <c r="R12">
+        <v>0.24845205380204</v>
+      </c>
+      <c r="S12">
+        <v>0.264490755426184</v>
+      </c>
+      <c r="T12">
+        <v>0.25948665560720902</v>
+      </c>
+      <c r="U12">
+        <v>0.26560601756776298</v>
+      </c>
+      <c r="V12">
+        <v>0.25190459219327799</v>
+      </c>
+      <c r="W12">
+        <v>0.26855127063338202</v>
+      </c>
+      <c r="X12">
+        <v>0.32642584738585301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.24220817905066599</v>
+      </c>
+      <c r="C13">
+        <v>0.245520916702682</v>
+      </c>
+      <c r="D13">
+        <v>0.24038724478290899</v>
+      </c>
+      <c r="E13">
+        <v>0.25785235024443198</v>
+      </c>
+      <c r="F13">
+        <v>0.25985198954120797</v>
+      </c>
+      <c r="G13">
+        <v>0.25018582702005299</v>
+      </c>
+      <c r="H13">
+        <v>0.269551629044956</v>
+      </c>
+      <c r="J13">
+        <v>0.26511989357827398</v>
+      </c>
+      <c r="K13">
+        <v>0.278621514167321</v>
+      </c>
+      <c r="L13">
+        <v>0.28855843345665799</v>
+      </c>
+      <c r="M13">
+        <v>0.26830112650344801</v>
+      </c>
+      <c r="N13">
+        <v>0.28684454690901301</v>
+      </c>
+      <c r="O13">
+        <v>0.276827876021352</v>
+      </c>
+      <c r="P13">
+        <v>0.26649139156371499</v>
+      </c>
+      <c r="R13">
+        <v>0.27470413344004901</v>
+      </c>
+      <c r="S13">
+        <v>0.26715121349469001</v>
+      </c>
+      <c r="T13">
+        <v>0.26117336892303</v>
+      </c>
+      <c r="U13">
+        <v>0.359610378499442</v>
+      </c>
+      <c r="V13">
+        <v>0.280288274066054</v>
+      </c>
+      <c r="W13">
+        <v>0.26727963977828301</v>
+      </c>
+      <c r="X13">
+        <v>0.27395483164948198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.24929087607091299</v>
+      </c>
+      <c r="C14">
+        <v>0.25535384067814498</v>
+      </c>
+      <c r="D14">
+        <v>0.25078049290404097</v>
+      </c>
+      <c r="E14">
+        <v>0.25773916314572298</v>
+      </c>
+      <c r="F14">
+        <v>0.25125204967355402</v>
+      </c>
+      <c r="G14">
+        <v>0.251874246114559</v>
+      </c>
+      <c r="H14">
+        <v>0.25408717550116899</v>
+      </c>
+      <c r="J14">
+        <v>0.28136088573315199</v>
+      </c>
+      <c r="K14">
+        <v>0.28687788840489897</v>
+      </c>
+      <c r="L14">
+        <v>0.27154288616769101</v>
+      </c>
+      <c r="M14">
+        <v>0.27969539775049601</v>
+      </c>
+      <c r="N14">
+        <v>0.26828533962800399</v>
+      </c>
+      <c r="O14">
+        <v>0.28952061040808202</v>
+      </c>
+      <c r="P14">
+        <v>0.26339664288289399</v>
+      </c>
+      <c r="R14">
+        <v>0.29265578793354702</v>
+      </c>
+      <c r="S14">
+        <v>0.25549109000405601</v>
+      </c>
+      <c r="T14">
+        <v>0.26289581964776798</v>
+      </c>
+      <c r="U14">
+        <v>0.26030729608185499</v>
+      </c>
+      <c r="V14">
+        <v>0.25122237992315799</v>
+      </c>
+      <c r="W14">
+        <v>0.30733290919774497</v>
+      </c>
+      <c r="X14">
+        <v>0.27031771345587702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.249474713264352</v>
+      </c>
+      <c r="C15">
+        <v>0.25383954660911201</v>
+      </c>
+      <c r="D15">
+        <v>0.23855006397332301</v>
+      </c>
+      <c r="E15">
+        <v>0.25607624672087997</v>
+      </c>
+      <c r="F15">
+        <v>0.25244044060549198</v>
+      </c>
+      <c r="G15">
+        <v>0.26733159638007797</v>
+      </c>
+      <c r="H15">
+        <v>0.258276793598396</v>
+      </c>
+      <c r="J15">
+        <v>0.30348183921715999</v>
+      </c>
+      <c r="K15">
+        <v>0.265405901820637</v>
+      </c>
+      <c r="L15">
+        <v>0.263351672608027</v>
+      </c>
+      <c r="M15">
+        <v>0.259511783328573</v>
+      </c>
+      <c r="N15">
+        <v>0.27761200636785699</v>
+      </c>
+      <c r="O15">
+        <v>0.264605301316997</v>
+      </c>
+      <c r="P15">
+        <v>0.28441361926408898</v>
+      </c>
+      <c r="R15">
+        <v>0.25481620887200901</v>
+      </c>
+      <c r="S15">
+        <v>0.31578386592705798</v>
+      </c>
+      <c r="T15">
+        <v>0.28794452782073499</v>
+      </c>
+      <c r="U15">
+        <v>0.28436701727602598</v>
+      </c>
+      <c r="V15">
+        <v>0.262904541021033</v>
+      </c>
+      <c r="W15">
+        <v>0.287633079399091</v>
+      </c>
+      <c r="X15">
+        <v>0.25591995566252901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.25315491195269701</v>
+      </c>
+      <c r="C16">
+        <v>0.25005670582064699</v>
+      </c>
+      <c r="D16">
+        <v>0.261448279177599</v>
+      </c>
+      <c r="E16">
+        <v>0.25407364842019797</v>
+      </c>
+      <c r="F16">
+        <v>0.240826629251888</v>
+      </c>
+      <c r="G16">
+        <v>0.25385067766290997</v>
+      </c>
+      <c r="H16">
+        <v>0.25737923893893799</v>
+      </c>
+      <c r="J16">
+        <v>0.26193962489184303</v>
+      </c>
+      <c r="K16">
+        <v>0.287447618680373</v>
+      </c>
+      <c r="L16">
+        <v>0.267221673143484</v>
+      </c>
+      <c r="M16">
+        <v>0.28381115740686402</v>
+      </c>
+      <c r="N16">
+        <v>0.26761227144483102</v>
+      </c>
+      <c r="O16">
+        <v>0.25890895686696402</v>
+      </c>
+      <c r="P16">
+        <v>0.28139868792735001</v>
+      </c>
+      <c r="R16">
+        <v>0.27021681278103599</v>
+      </c>
+      <c r="S16">
+        <v>0.29081200122031697</v>
+      </c>
+      <c r="T16">
+        <v>0.27293423157291502</v>
+      </c>
+      <c r="U16">
+        <v>0.27837585723352398</v>
+      </c>
+      <c r="V16">
+        <v>0.25923464412610497</v>
+      </c>
+      <c r="W16">
+        <v>0.26995677887936798</v>
+      </c>
+      <c r="X16">
+        <v>0.26133078872799798</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.25264359618932603</v>
+      </c>
+      <c r="C17">
+        <v>0.24693027609700699</v>
+      </c>
+      <c r="D17">
+        <v>0.25448242167212898</v>
+      </c>
+      <c r="E17">
+        <v>0.25561310755237299</v>
+      </c>
+      <c r="F17">
+        <v>0.255289133261347</v>
+      </c>
+      <c r="G17">
+        <v>0.25177153254137902</v>
+      </c>
+      <c r="H17">
+        <v>0.26277419243781802</v>
+      </c>
+      <c r="J17">
+        <v>0.29319895227982401</v>
+      </c>
+      <c r="K17">
+        <v>0.28632474602824298</v>
+      </c>
+      <c r="L17">
+        <v>0.28073625322633999</v>
+      </c>
+      <c r="M17">
+        <v>0.28241683919118099</v>
+      </c>
+      <c r="N17">
+        <v>0.30064781244692101</v>
+      </c>
+      <c r="O17">
+        <v>0.27318291738443801</v>
+      </c>
+      <c r="P17">
+        <v>0.26422198295238403</v>
+      </c>
+      <c r="R17">
+        <v>0.25701161256516702</v>
+      </c>
+      <c r="S17">
+        <v>0.254558706449942</v>
+      </c>
+      <c r="T17">
+        <v>0.25717963969796198</v>
+      </c>
+      <c r="U17">
+        <v>0.26104552296434202</v>
+      </c>
+      <c r="V17">
+        <v>0.26661843286817999</v>
+      </c>
+      <c r="W17">
+        <v>0.303669110416184</v>
+      </c>
+      <c r="X17">
+        <v>0.29450335650544102</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.24935536880296</v>
+      </c>
+      <c r="C18">
+        <v>0.25344082640612597</v>
+      </c>
+      <c r="D18">
+        <v>0.24392899600639401</v>
+      </c>
+      <c r="E18">
+        <v>0.25459275126052899</v>
+      </c>
+      <c r="F18">
+        <v>0.246590712003668</v>
+      </c>
+      <c r="G18">
+        <v>0.25823497754035102</v>
+      </c>
+      <c r="H18">
+        <v>0.27176142808745202</v>
+      </c>
+      <c r="J18">
+        <v>0.28085267110243001</v>
+      </c>
+      <c r="K18">
+        <v>0.27733732076754403</v>
+      </c>
+      <c r="L18">
+        <v>0.27096173594753098</v>
+      </c>
+      <c r="M18">
+        <v>0.256593548464145</v>
+      </c>
+      <c r="N18">
+        <v>0.29719339798510602</v>
+      </c>
+      <c r="O18">
+        <v>0.30540214691742301</v>
+      </c>
+      <c r="P18">
+        <v>0.30746913967835998</v>
+      </c>
+      <c r="R18">
+        <v>0.253373333388688</v>
+      </c>
+      <c r="S18">
+        <v>0.28474434469498799</v>
+      </c>
+      <c r="T18">
+        <v>0.28394434498728299</v>
+      </c>
+      <c r="U18">
+        <v>0.26672030669906699</v>
+      </c>
+      <c r="V18">
+        <v>0.25083581785206399</v>
+      </c>
+      <c r="W18">
+        <v>0.26553729447443403</v>
+      </c>
+      <c r="X18">
+        <v>0.25481036988731598</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.25437853947413602</v>
+      </c>
+      <c r="C19">
+        <v>0.24613412473972099</v>
+      </c>
+      <c r="D19">
+        <v>0.24944798000179599</v>
+      </c>
+      <c r="E19">
+        <v>0.24229520157583401</v>
+      </c>
+      <c r="F19">
+        <v>0.26004882433884602</v>
+      </c>
+      <c r="G19">
+        <v>0.25948571404496701</v>
+      </c>
+      <c r="H19">
+        <v>0.24872770649891701</v>
+      </c>
+      <c r="J19">
+        <v>0.28680695181275501</v>
+      </c>
+      <c r="K19">
+        <v>0.30469947454019902</v>
+      </c>
+      <c r="L19">
+        <v>0.25051751339032202</v>
+      </c>
+      <c r="M19">
+        <v>0.264681673419637</v>
+      </c>
+      <c r="N19">
+        <v>0.25886780820845401</v>
+      </c>
+      <c r="O19">
+        <v>0.26952707213432697</v>
+      </c>
+      <c r="P19">
+        <v>0.29631816906081898</v>
+      </c>
+      <c r="R19">
+        <v>0.27868630412323597</v>
+      </c>
+      <c r="S19">
+        <v>0.27045019738305198</v>
+      </c>
+      <c r="T19">
+        <v>0.28930436779771002</v>
+      </c>
+      <c r="U19">
+        <v>0.25990669919340398</v>
+      </c>
+      <c r="V19">
+        <v>0.263333906400956</v>
+      </c>
+      <c r="W19">
+        <v>0.27681490250896001</v>
+      </c>
+      <c r="X19">
+        <v>0.31816218429759602</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.25201111871075998</v>
+      </c>
+      <c r="C20">
+        <v>0.25225351121896999</v>
+      </c>
+      <c r="D20">
+        <v>0.24763306652123901</v>
+      </c>
+      <c r="E20">
+        <v>0.25341787500523899</v>
+      </c>
+      <c r="F20">
+        <v>0.25694732281784199</v>
+      </c>
+      <c r="G20">
+        <v>0.25049730098220302</v>
+      </c>
+      <c r="H20">
+        <v>0.25570197520383497</v>
+      </c>
+      <c r="J20">
+        <v>0.275884313022213</v>
+      </c>
+      <c r="K20">
+        <v>0.31860044258782599</v>
+      </c>
+      <c r="L20">
+        <v>0.26455069644328499</v>
+      </c>
+      <c r="M20">
+        <v>0.283929232093865</v>
+      </c>
+      <c r="N20">
+        <v>0.27213141955012099</v>
+      </c>
+      <c r="O20">
+        <v>0.27879863941210298</v>
+      </c>
+      <c r="P20">
+        <v>0.26160770693638902</v>
+      </c>
+      <c r="R20">
+        <v>0.30781715617771499</v>
+      </c>
+      <c r="S20">
+        <v>0.26071879735326098</v>
+      </c>
+      <c r="T20">
+        <v>0.26881124585344601</v>
+      </c>
+      <c r="U20">
+        <v>0.27289671628287598</v>
+      </c>
+      <c r="V20">
+        <v>0.32525435395212399</v>
+      </c>
+      <c r="W20">
+        <v>0.27028999525349401</v>
+      </c>
+      <c r="X20">
+        <v>0.257885398734092</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.24038756216152801</v>
+      </c>
+      <c r="C21">
+        <v>0.24856722385598001</v>
+      </c>
+      <c r="D21">
+        <v>0.25881855143789601</v>
+      </c>
+      <c r="E21">
+        <v>0.24233236525013399</v>
+      </c>
+      <c r="F21">
+        <v>0.25473587350469601</v>
+      </c>
+      <c r="G21">
+        <v>0.25933104252607098</v>
+      </c>
+      <c r="H21">
+        <v>0.26295139850374</v>
+      </c>
+      <c r="J21">
+        <v>0.29968467387745201</v>
+      </c>
+      <c r="K21">
+        <v>0.29146146650996102</v>
+      </c>
+      <c r="L21">
+        <v>0.27336596498878402</v>
+      </c>
+      <c r="M21">
+        <v>0.25927294716534</v>
+      </c>
+      <c r="N21">
+        <v>0.29416847245012201</v>
+      </c>
+      <c r="O21">
+        <v>0.25599985133868802</v>
+      </c>
+      <c r="P21">
+        <v>0.29469060519281698</v>
+      </c>
+      <c r="R21">
+        <v>0.25344664179127702</v>
+      </c>
+      <c r="S21">
+        <v>0.272076325806687</v>
+      </c>
+      <c r="T21">
+        <v>0.291519165259574</v>
+      </c>
+      <c r="U21">
+        <v>0.29010992726569801</v>
+      </c>
+      <c r="V21">
+        <v>0.28285851866833001</v>
+      </c>
+      <c r="W21">
+        <v>0.28783930616323899</v>
+      </c>
+      <c r="X21">
+        <v>0.27025974393110003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.258333146773012</v>
+      </c>
+      <c r="C22">
+        <v>0.25865033778296798</v>
+      </c>
+      <c r="D22">
+        <v>0.242277082595513</v>
+      </c>
+      <c r="E22">
+        <v>0.25192946128653698</v>
+      </c>
+      <c r="F22">
+        <v>0.25280641418191602</v>
+      </c>
+      <c r="G22">
+        <v>0.25306688412392397</v>
+      </c>
+      <c r="H22">
+        <v>0.26155262232016901</v>
+      </c>
+      <c r="J22">
+        <v>0.29059914103836698</v>
+      </c>
+      <c r="K22">
+        <v>0.28529822053480702</v>
+      </c>
+      <c r="L22">
+        <v>0.30994683470727402</v>
+      </c>
+      <c r="M22">
+        <v>0.26462417335476501</v>
+      </c>
+      <c r="N22">
+        <v>0.27134637639290798</v>
+      </c>
+      <c r="O22">
+        <v>0.28531870762351802</v>
+      </c>
+      <c r="P22">
+        <v>0.26581365415767599</v>
+      </c>
+      <c r="R22">
+        <v>0.30415420046414798</v>
+      </c>
+      <c r="S22">
+        <v>0.28059903449910301</v>
+      </c>
+      <c r="T22">
+        <v>0.28873213954559801</v>
+      </c>
+      <c r="U22">
+        <v>0.30982169429669798</v>
+      </c>
+      <c r="V22">
+        <v>0.28909618343189503</v>
+      </c>
+      <c r="W22">
+        <v>0.299483421928181</v>
+      </c>
+      <c r="X22">
+        <v>0.25176019515860398</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.25642677312165302</v>
+      </c>
+      <c r="C23">
+        <v>0.246642254805195</v>
+      </c>
+      <c r="D23">
+        <v>0.25252829890109002</v>
+      </c>
+      <c r="E23">
+        <v>0.26436049926094901</v>
+      </c>
+      <c r="F23">
+        <v>0.26166377226755</v>
+      </c>
+      <c r="G23">
+        <v>0.25597477278740999</v>
+      </c>
+      <c r="H23">
+        <v>0.257388196507287</v>
+      </c>
+      <c r="J23">
+        <v>0.26187385342304698</v>
+      </c>
+      <c r="K23">
+        <v>0.28788178539928799</v>
+      </c>
+      <c r="L23">
+        <v>0.29157089938466801</v>
+      </c>
+      <c r="M23">
+        <v>0.26087337634886898</v>
+      </c>
+      <c r="N23">
+        <v>0.26532468423970001</v>
+      </c>
+      <c r="O23">
+        <v>0.29036311370479401</v>
+      </c>
+      <c r="P23">
+        <v>0.327350065479457</v>
+      </c>
+      <c r="R23">
+        <v>0.30682559471366999</v>
+      </c>
+      <c r="S23">
+        <v>0.27318828151923003</v>
+      </c>
+      <c r="T23">
+        <v>0.26834346629382499</v>
+      </c>
+      <c r="U23">
+        <v>0.264758731574678</v>
+      </c>
+      <c r="V23">
+        <v>0.269333901143752</v>
+      </c>
+      <c r="W23">
+        <v>0.26059916884217299</v>
+      </c>
+      <c r="X23">
+        <v>0.245837544843688</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.25574898779403499</v>
+      </c>
+      <c r="C24">
+        <v>0.25394454298261998</v>
+      </c>
+      <c r="D24">
+        <v>0.25169569942632403</v>
+      </c>
+      <c r="E24">
+        <v>0.24085296937197001</v>
+      </c>
+      <c r="F24">
+        <v>0.25392871053295302</v>
+      </c>
+      <c r="G24">
+        <v>0.25601118781132098</v>
+      </c>
+      <c r="H24">
+        <v>0.260061346537801</v>
+      </c>
+      <c r="J24">
+        <v>0.26239407995377001</v>
+      </c>
+      <c r="K24">
+        <v>0.26996309225579901</v>
+      </c>
+      <c r="L24">
+        <v>0.28714244804722799</v>
+      </c>
+      <c r="M24">
+        <v>0.27476585600764097</v>
+      </c>
+      <c r="N24">
+        <v>0.30881494839443802</v>
+      </c>
+      <c r="O24">
+        <v>0.29607144801000101</v>
+      </c>
+      <c r="P24">
+        <v>0.249481786307755</v>
+      </c>
+      <c r="R24">
+        <v>0.27912531950338199</v>
+      </c>
+      <c r="S24">
+        <v>0.30326147420745198</v>
+      </c>
+      <c r="T24">
+        <v>0.274134513162546</v>
+      </c>
+      <c r="U24">
+        <v>0.24955440453571301</v>
+      </c>
+      <c r="V24">
+        <v>0.26802358747653798</v>
+      </c>
+      <c r="W24">
+        <v>0.281142269587288</v>
+      </c>
+      <c r="X24">
+        <v>0.27472634441592397</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0.25999395579864998</v>
+      </c>
+      <c r="C25">
+        <v>0.25376304177598702</v>
+      </c>
+      <c r="D25">
+        <v>0.25440847281804102</v>
+      </c>
+      <c r="E25">
+        <v>0.24993859493842199</v>
+      </c>
+      <c r="F25">
+        <v>0.26895801092282801</v>
+      </c>
+      <c r="G25">
+        <v>0.249479398120769</v>
+      </c>
+      <c r="H25">
+        <v>0.25518282571728901</v>
+      </c>
+      <c r="J25">
+        <v>0.28287483567024402</v>
+      </c>
+      <c r="K25">
+        <v>0.26997012312736401</v>
+      </c>
+      <c r="L25">
+        <v>0.26780801476218402</v>
+      </c>
+      <c r="M25">
+        <v>0.26097718422941002</v>
+      </c>
+      <c r="N25">
+        <v>0.27090088435611598</v>
+      </c>
+      <c r="O25">
+        <v>0.27488830516945101</v>
+      </c>
+      <c r="P25">
+        <v>0.271586461314759</v>
+      </c>
+      <c r="R25">
+        <v>0.25731988630920799</v>
+      </c>
+      <c r="S25">
+        <v>0.26622943177910702</v>
+      </c>
+      <c r="T25">
+        <v>0.259638950536135</v>
+      </c>
+      <c r="U25">
+        <v>0.25332823623609002</v>
+      </c>
+      <c r="V25">
+        <v>0.31135509708749098</v>
+      </c>
+      <c r="W25">
+        <v>0.26324638395573502</v>
+      </c>
+      <c r="X25">
+        <v>0.26139393250298198</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.240730368365111</v>
+      </c>
+      <c r="C26">
+        <v>0.26562910988881999</v>
+      </c>
+      <c r="D26">
+        <v>0.25551032082455299</v>
+      </c>
+      <c r="E26">
+        <v>0.26853464283145401</v>
+      </c>
+      <c r="F26">
+        <v>0.248675107689834</v>
+      </c>
+      <c r="G26">
+        <v>0.25443345032098502</v>
+      </c>
+      <c r="H26">
+        <v>0.25594247625935002</v>
+      </c>
+      <c r="J26">
+        <v>0.28233318821814501</v>
+      </c>
+      <c r="K26">
+        <v>0.26982108908240598</v>
+      </c>
+      <c r="L26">
+        <v>0.262321183658207</v>
+      </c>
+      <c r="M26">
+        <v>0.28638225017276198</v>
+      </c>
+      <c r="N26">
+        <v>0.284858503280708</v>
+      </c>
+      <c r="O26">
+        <v>0.30304984008164398</v>
+      </c>
+      <c r="P26">
+        <v>0.29200259537853901</v>
+      </c>
+      <c r="R26">
+        <v>0.29874858677112998</v>
+      </c>
+      <c r="S26">
+        <v>0.27335121566751502</v>
+      </c>
+      <c r="T26">
+        <v>0.265488644609297</v>
+      </c>
+      <c r="U26">
+        <v>0.26073585859903697</v>
+      </c>
+      <c r="V26">
+        <v>0.294473698137734</v>
+      </c>
+      <c r="W26">
+        <v>0.284407365364377</v>
+      </c>
+      <c r="X26">
+        <v>0.27351009722826503</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.25370456233055499</v>
+      </c>
+      <c r="C27">
+        <v>0.33386494393980998</v>
+      </c>
+      <c r="D27">
+        <v>0.25626749786626601</v>
+      </c>
+      <c r="E27">
+        <v>0.245401347847126</v>
+      </c>
+      <c r="F27">
+        <v>0.25674521599223599</v>
+      </c>
+      <c r="G27">
+        <v>0.25832459695445797</v>
+      </c>
+      <c r="H27">
+        <v>0.25779701111085102</v>
+      </c>
+      <c r="J27">
+        <v>0.29228865190134301</v>
+      </c>
+      <c r="K27">
+        <v>0.27539024574641702</v>
+      </c>
+      <c r="L27">
+        <v>0.28395239979500098</v>
+      </c>
+      <c r="M27">
+        <v>0.26282273293082797</v>
+      </c>
+      <c r="N27">
+        <v>0.29508772968735603</v>
+      </c>
+      <c r="O27">
+        <v>0.30300526917182102</v>
+      </c>
+      <c r="P27">
+        <v>0.25658139156344401</v>
+      </c>
+      <c r="R27">
+        <v>0.28577206744850697</v>
+      </c>
+      <c r="S27">
+        <v>0.29522743620245001</v>
+      </c>
+      <c r="T27">
+        <v>0.24944659968504601</v>
+      </c>
+      <c r="U27">
+        <v>0.27444691853879799</v>
+      </c>
+      <c r="V27">
+        <v>0.26118712204175798</v>
+      </c>
+      <c r="W27">
+        <v>0.285111464213891</v>
+      </c>
+      <c r="X27">
+        <v>0.25417985736045901</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.25080304555070998</v>
+      </c>
+      <c r="C28">
+        <v>0.24196221421001299</v>
+      </c>
+      <c r="D28">
+        <v>0.25850718530676298</v>
+      </c>
+      <c r="E28">
+        <v>0.25298739580282997</v>
+      </c>
+      <c r="F28">
+        <v>0.25517505047163902</v>
+      </c>
+      <c r="G28">
+        <v>0.25188562783665502</v>
+      </c>
+      <c r="H28">
+        <v>0.24904361947571199</v>
+      </c>
+      <c r="J28">
+        <v>0.297896636297244</v>
+      </c>
+      <c r="K28">
+        <v>0.268820609204653</v>
+      </c>
+      <c r="L28">
+        <v>0.27187566282327602</v>
+      </c>
+      <c r="M28">
+        <v>0.25526879585726803</v>
+      </c>
+      <c r="N28">
+        <v>0.30049246508136601</v>
+      </c>
+      <c r="O28">
+        <v>0.26453388337285499</v>
+      </c>
+      <c r="P28">
+        <v>0.25718509018241598</v>
+      </c>
+      <c r="R28">
+        <v>0.24558426476231299</v>
+      </c>
+      <c r="S28">
+        <v>0.28394295179797502</v>
+      </c>
+      <c r="T28">
+        <v>0.26888305771927401</v>
+      </c>
+      <c r="U28">
+        <v>0.28404082121221902</v>
+      </c>
+      <c r="V28">
+        <v>0.31737491708827198</v>
+      </c>
+      <c r="W28">
+        <v>0.25975923391168199</v>
+      </c>
+      <c r="X28">
+        <v>0.293079361334737</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.25597664939813503</v>
+      </c>
+      <c r="C29">
+        <v>0.24645660310940501</v>
+      </c>
+      <c r="D29">
+        <v>0.25150514153655101</v>
+      </c>
+      <c r="E29">
+        <v>0.24597882526853401</v>
+      </c>
+      <c r="F29">
+        <v>0.24333109311892101</v>
+      </c>
+      <c r="G29">
+        <v>0.267513954964477</v>
+      </c>
+      <c r="H29">
+        <v>0.26518077581271299</v>
+      </c>
+      <c r="J29">
+        <v>0.26378162383908099</v>
+      </c>
+      <c r="K29">
+        <v>0.26979230514485403</v>
+      </c>
+      <c r="L29">
+        <v>0.27590422758115002</v>
+      </c>
+      <c r="M29">
+        <v>0.26598735865391299</v>
+      </c>
+      <c r="N29">
+        <v>0.28769832397700501</v>
+      </c>
+      <c r="O29">
+        <v>0.29239789224302498</v>
+      </c>
+      <c r="P29">
+        <v>0.26282472246713801</v>
+      </c>
+      <c r="R29">
+        <v>0.25280046165144898</v>
+      </c>
+      <c r="S29">
+        <v>0.27660272217203602</v>
+      </c>
+      <c r="T29">
+        <v>0.27972395518576798</v>
+      </c>
+      <c r="U29">
+        <v>0.26247188221237999</v>
+      </c>
+      <c r="V29">
+        <v>0.30841567893434002</v>
+      </c>
+      <c r="W29">
+        <v>0.29059671263517201</v>
+      </c>
+      <c r="X29">
+        <v>0.24245275793190299</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0.25172854768006298</v>
+      </c>
+      <c r="C30">
+        <v>0.26284448350633799</v>
+      </c>
+      <c r="D30">
+        <v>0.25054168452265502</v>
+      </c>
+      <c r="E30">
+        <v>0.25262072788501999</v>
+      </c>
+      <c r="F30">
+        <v>0.245791154289593</v>
+      </c>
+      <c r="G30">
+        <v>0.257179626512129</v>
+      </c>
+      <c r="H30">
+        <v>0.25775008423846102</v>
+      </c>
+      <c r="J30">
+        <v>0.26751537651942398</v>
+      </c>
+      <c r="K30">
+        <v>0.31910174135417702</v>
+      </c>
+      <c r="L30">
+        <v>0.28363601776416297</v>
+      </c>
+      <c r="M30">
+        <v>0.258728507533112</v>
+      </c>
+      <c r="N30">
+        <v>0.291208854473755</v>
+      </c>
+      <c r="O30">
+        <v>0.263069080078835</v>
+      </c>
+      <c r="P30">
+        <v>0.27445424753006098</v>
+      </c>
+      <c r="R30">
+        <v>0.27090228943310002</v>
+      </c>
+      <c r="S30">
+        <v>0.28012373466246498</v>
+      </c>
+      <c r="T30">
+        <v>0.23787439667117899</v>
+      </c>
+      <c r="U30">
+        <v>0.259553523475755</v>
+      </c>
+      <c r="V30">
+        <v>0.32520304055804999</v>
+      </c>
+      <c r="W30">
+        <v>0.30187840168542002</v>
+      </c>
+      <c r="X30">
+        <v>0.25922572803289601</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0.24629245014653101</v>
+      </c>
+      <c r="C31">
+        <v>0.26103126144539601</v>
+      </c>
+      <c r="D31">
+        <v>0.27117592397217899</v>
+      </c>
+      <c r="E31">
+        <v>0.24315573055814199</v>
+      </c>
+      <c r="F31">
+        <v>0.26215698969425799</v>
+      </c>
+      <c r="G31">
+        <v>0.25743814151486999</v>
+      </c>
+      <c r="H31">
+        <v>0.25866306127234401</v>
+      </c>
+      <c r="J31">
+        <v>0.27296707574541801</v>
+      </c>
+      <c r="K31">
+        <v>0.27807993861128399</v>
+      </c>
+      <c r="L31">
+        <v>0.26228163083129802</v>
+      </c>
+      <c r="M31">
+        <v>0.284947408038772</v>
+      </c>
+      <c r="N31">
+        <v>0.26365141086413701</v>
+      </c>
+      <c r="O31">
+        <v>0.28163654454746601</v>
+      </c>
+      <c r="P31">
+        <v>0.29183078213038699</v>
+      </c>
+      <c r="R31">
+        <v>0.28100848707252302</v>
+      </c>
+      <c r="S31">
+        <v>0.261589169804755</v>
+      </c>
+      <c r="T31">
+        <v>0.27651749239611101</v>
+      </c>
+      <c r="U31">
+        <v>0.26531235577315598</v>
+      </c>
+      <c r="V31">
+        <v>0.28942292421129601</v>
+      </c>
+      <c r="W31">
+        <v>0.26718273395944703</v>
+      </c>
+      <c r="X31">
+        <v>0.29369116100866999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.25766693379223798</v>
+      </c>
+      <c r="C32">
+        <v>0.24037304039968799</v>
+      </c>
+      <c r="D32">
+        <v>0.244464064881007</v>
+      </c>
+      <c r="E32">
+        <v>0.260568303093277</v>
+      </c>
+      <c r="F32">
+        <v>0.251220728692363</v>
+      </c>
+      <c r="G32">
+        <v>0.245754239570736</v>
+      </c>
+      <c r="H32">
+        <v>0.24555993769185699</v>
+      </c>
+      <c r="J32">
+        <v>0.27581942583646002</v>
+      </c>
+      <c r="K32">
+        <v>0.29837795085629798</v>
+      </c>
+      <c r="L32">
+        <v>0.29633449149425201</v>
+      </c>
+      <c r="M32">
+        <v>0.30869558429299998</v>
+      </c>
+      <c r="N32">
+        <v>0.25171889708067702</v>
+      </c>
+      <c r="O32">
+        <v>0.27230176695577601</v>
+      </c>
+      <c r="P32">
+        <v>0.273095712291332</v>
+      </c>
+      <c r="R32">
+        <v>0.27410961023838198</v>
+      </c>
+      <c r="S32">
+        <v>0.28523247776489002</v>
+      </c>
+      <c r="T32">
+        <v>0.25385649970335</v>
+      </c>
+      <c r="U32">
+        <v>0.27672774358729701</v>
+      </c>
+      <c r="V32">
+        <v>0.24997637207201101</v>
+      </c>
+      <c r="W32">
+        <v>0.26404085830018298</v>
+      </c>
+      <c r="X32">
+        <v>0.25030409383191898</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.25445636741778599</v>
+      </c>
+      <c r="C33">
+        <v>0.25585411950406201</v>
+      </c>
+      <c r="D33">
+        <v>0.26747144625227998</v>
+      </c>
+      <c r="E33">
+        <v>0.26244507051402999</v>
+      </c>
+      <c r="F33">
+        <v>0.24443516779753599</v>
+      </c>
+      <c r="G33">
+        <v>0.25803214582539502</v>
+      </c>
+      <c r="H33">
+        <v>0.25078757245077699</v>
+      </c>
+      <c r="J33">
+        <v>0.28830567644077898</v>
+      </c>
+      <c r="K33">
+        <v>0.28663002960216899</v>
+      </c>
+      <c r="L33">
+        <v>0.26737022138150401</v>
+      </c>
+      <c r="M33">
+        <v>0.25281027914581999</v>
+      </c>
+      <c r="N33">
+        <v>0.27219134221932501</v>
+      </c>
+      <c r="O33">
+        <v>0.28526015635817897</v>
+      </c>
+      <c r="P33">
+        <v>0.25742864137367399</v>
+      </c>
+      <c r="R33">
+        <v>0.26262793515588601</v>
+      </c>
+      <c r="S33">
+        <v>0.26079855601980401</v>
+      </c>
+      <c r="T33">
+        <v>0.26093641278191998</v>
+      </c>
+      <c r="U33">
+        <v>0.248404741251362</v>
+      </c>
+      <c r="V33">
+        <v>0.29460028703839403</v>
+      </c>
+      <c r="W33">
+        <v>0.28140151834544103</v>
+      </c>
+      <c r="X33">
+        <v>0.298987714733779</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.25158736878591997</v>
+      </c>
+      <c r="C34">
+        <v>0.243527756710991</v>
+      </c>
+      <c r="D34">
+        <v>0.264799719276476</v>
+      </c>
+      <c r="E34">
+        <v>0.25796546142202897</v>
+      </c>
+      <c r="F34">
+        <v>0.26175096853258201</v>
+      </c>
+      <c r="G34">
+        <v>0.26604930700906398</v>
+      </c>
+      <c r="H34">
+        <v>0.26172375478293702</v>
+      </c>
+      <c r="J34">
+        <v>0.261784661588019</v>
+      </c>
+      <c r="K34">
+        <v>0.29996143048544099</v>
+      </c>
+      <c r="L34">
+        <v>0.27982012202458001</v>
+      </c>
+      <c r="M34">
+        <v>0.29592066387937099</v>
+      </c>
+      <c r="N34">
+        <v>0.28005267312842902</v>
+      </c>
+      <c r="O34">
+        <v>0.254652629686003</v>
+      </c>
+      <c r="P34">
+        <v>0.25665540870306502</v>
+      </c>
+      <c r="R34">
+        <v>0.27065842287150599</v>
+      </c>
+      <c r="S34">
+        <v>0.25300722584263702</v>
+      </c>
+      <c r="T34">
+        <v>0.279851582453916</v>
+      </c>
+      <c r="U34">
+        <v>0.26492855713896202</v>
+      </c>
+      <c r="V34">
+        <v>0.251193278323396</v>
+      </c>
+      <c r="W34">
+        <v>0.26970616802012998</v>
+      </c>
+      <c r="X34">
+        <v>0.27118690311007498</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.250823160786592</v>
+      </c>
+      <c r="C35">
+        <v>0.2495982262891</v>
+      </c>
+      <c r="D35">
+        <v>0.258527421027829</v>
+      </c>
+      <c r="E35">
+        <v>0.246497458720698</v>
+      </c>
+      <c r="F35">
+        <v>0.250213219927652</v>
+      </c>
+      <c r="G35">
+        <v>0.25426672133652301</v>
+      </c>
+      <c r="H35">
+        <v>0.25872530461726601</v>
+      </c>
+      <c r="J35">
+        <v>0.27729379129241</v>
+      </c>
+      <c r="K35">
+        <v>0.31409958712108998</v>
+      </c>
+      <c r="L35">
+        <v>0.26376537824767798</v>
+      </c>
+      <c r="M35">
+        <v>0.27818662244915299</v>
+      </c>
+      <c r="N35">
+        <v>0.29075864017798397</v>
+      </c>
+      <c r="O35">
+        <v>0.28833663318033398</v>
+      </c>
+      <c r="P35">
+        <v>0.25741935373843799</v>
+      </c>
+      <c r="R35">
+        <v>0.28455346995084202</v>
+      </c>
+      <c r="S35">
+        <v>0.259902310250682</v>
+      </c>
+      <c r="T35">
+        <v>0.276040247304353</v>
+      </c>
+      <c r="U35">
+        <v>0.25159506870326198</v>
+      </c>
+      <c r="V35">
+        <v>0.26526913727101797</v>
+      </c>
+      <c r="W35">
+        <v>0.26886090285554598</v>
+      </c>
+      <c r="X35">
+        <v>0.27288601945761498</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0.25335053764551302</v>
+      </c>
+      <c r="C36">
+        <v>0.24276216834932601</v>
+      </c>
+      <c r="D36">
+        <v>0.25453679464543799</v>
+      </c>
+      <c r="E36">
+        <v>0.24958485578640799</v>
+      </c>
+      <c r="F36">
+        <v>0.251498217096777</v>
+      </c>
+      <c r="G36">
+        <v>0.25741595921508098</v>
+      </c>
+      <c r="H36">
+        <v>0.26951708561742199</v>
+      </c>
+      <c r="J36">
+        <v>0.264681776859853</v>
+      </c>
+      <c r="K36">
+        <v>0.29030622976850001</v>
+      </c>
+      <c r="L36">
+        <v>0.295255313200599</v>
+      </c>
+      <c r="M36">
+        <v>0.27434361932050999</v>
+      </c>
+      <c r="N36">
+        <v>0.25811993370596498</v>
+      </c>
+      <c r="O36">
+        <v>0.28939637275619401</v>
+      </c>
+      <c r="P36">
+        <v>0.328430703784232</v>
+      </c>
+      <c r="R36">
+        <v>0.28403646209373001</v>
+      </c>
+      <c r="S36">
+        <v>0.27669326043972498</v>
+      </c>
+      <c r="T36">
+        <v>0.26452549647477203</v>
+      </c>
+      <c r="U36">
+        <v>0.29609051382293999</v>
+      </c>
+      <c r="V36">
+        <v>0.27159849401903202</v>
+      </c>
+      <c r="W36">
+        <v>0.254103022740505</v>
+      </c>
+      <c r="X36">
+        <v>0.24464437900555899</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.26928835398364798</v>
+      </c>
+      <c r="C37">
+        <v>0.25043806790772599</v>
+      </c>
+      <c r="D37">
+        <v>0.24804810150953499</v>
+      </c>
+      <c r="E37">
+        <v>0.249828237407385</v>
+      </c>
+      <c r="F37">
+        <v>0.26033363638799401</v>
+      </c>
+      <c r="G37">
+        <v>0.25426651996323302</v>
+      </c>
+      <c r="H37">
+        <v>0.26200680068615201</v>
+      </c>
+      <c r="J37">
+        <v>0.31403404351810699</v>
+      </c>
+      <c r="K37">
+        <v>0.29968842456796302</v>
+      </c>
+      <c r="L37">
+        <v>0.27634043613196901</v>
+      </c>
+      <c r="M37">
+        <v>0.30220035082075303</v>
+      </c>
+      <c r="N37">
+        <v>0.33297670761921799</v>
+      </c>
+      <c r="O37">
+        <v>0.272073031383533</v>
+      </c>
+      <c r="P37">
+        <v>0.27151091939571698</v>
+      </c>
+      <c r="R37">
+        <v>0.259713368020911</v>
+      </c>
+      <c r="S37">
+        <v>0.25748578514735398</v>
+      </c>
+      <c r="T37">
+        <v>0.25380408502098301</v>
+      </c>
+      <c r="U37">
+        <v>0.28873343550453801</v>
+      </c>
+      <c r="V37">
+        <v>0.25650285274602402</v>
+      </c>
+      <c r="W37">
+        <v>0.28969253109181398</v>
+      </c>
+      <c r="X37">
+        <v>0.25969924925655202</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.248867710165082</v>
+      </c>
+      <c r="C38">
+        <v>0.24529566749399201</v>
+      </c>
+      <c r="D38">
+        <v>0.25602399755423799</v>
+      </c>
+      <c r="E38">
+        <v>0.25471635787702301</v>
+      </c>
+      <c r="F38">
+        <v>0.25170568995396603</v>
+      </c>
+      <c r="G38">
+        <v>0.26501452281481302</v>
+      </c>
+      <c r="H38">
+        <v>0.25170213104571498</v>
+      </c>
+      <c r="J38">
+        <v>0.276541047344738</v>
+      </c>
+      <c r="K38">
+        <v>0.27863506997420601</v>
+      </c>
+      <c r="L38">
+        <v>0.269248082937873</v>
+      </c>
+      <c r="M38">
+        <v>0.26029498222245701</v>
+      </c>
+      <c r="N38">
+        <v>0.26665605488314398</v>
+      </c>
+      <c r="O38">
+        <v>0.28155214996188899</v>
+      </c>
+      <c r="P38">
+        <v>0.26767146111504297</v>
+      </c>
+      <c r="R38">
+        <v>0.286458535266501</v>
+      </c>
+      <c r="S38">
+        <v>0.24398595633627301</v>
+      </c>
+      <c r="T38">
+        <v>0.25534665625980801</v>
+      </c>
+      <c r="U38">
+        <v>0.27449781699912401</v>
+      </c>
+      <c r="V38">
+        <v>0.26652290204589202</v>
+      </c>
+      <c r="W38">
+        <v>0.31016186920070998</v>
+      </c>
+      <c r="X38">
+        <v>0.31268606102309399</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0.24414525863634701</v>
+      </c>
+      <c r="C39">
+        <v>0.24745369490458499</v>
+      </c>
+      <c r="D39">
+        <v>0.258948004286644</v>
+      </c>
+      <c r="E39">
+        <v>0.25970559938143001</v>
+      </c>
+      <c r="F39">
+        <v>0.25919652122440601</v>
+      </c>
+      <c r="G39">
+        <v>0.263480796469655</v>
+      </c>
+      <c r="H39">
+        <v>0.25689226990108799</v>
+      </c>
+      <c r="J39">
+        <v>0.261655265279719</v>
+      </c>
+      <c r="K39">
+        <v>0.27671523363010903</v>
+      </c>
+      <c r="L39">
+        <v>0.27013809832448699</v>
+      </c>
+      <c r="M39">
+        <v>0.27104607281253201</v>
+      </c>
+      <c r="N39">
+        <v>0.272359962511594</v>
+      </c>
+      <c r="O39">
+        <v>0.25581680016074099</v>
+      </c>
+      <c r="P39">
+        <v>0.29575851041206302</v>
+      </c>
+      <c r="R39">
+        <v>0.25667114041414002</v>
+      </c>
+      <c r="S39">
+        <v>0.29019046121226699</v>
+      </c>
+      <c r="T39">
+        <v>0.28369151539454701</v>
+      </c>
+      <c r="U39">
+        <v>0.268049381352639</v>
+      </c>
+      <c r="V39">
+        <v>0.244437376629909</v>
+      </c>
+      <c r="W39">
+        <v>0.26670696850613601</v>
+      </c>
+      <c r="X39">
+        <v>0.25088632003663403</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0.25477076753764399</v>
+      </c>
+      <c r="C40">
+        <v>0.25240405662498999</v>
+      </c>
+      <c r="D40">
+        <v>0.25585194801063998</v>
+      </c>
+      <c r="E40">
+        <v>0.250110044411053</v>
+      </c>
+      <c r="F40">
+        <v>0.252560794765531</v>
+      </c>
+      <c r="G40">
+        <v>0.25527435053535402</v>
+      </c>
+      <c r="H40">
+        <v>0.26715390335801198</v>
+      </c>
+      <c r="J40">
+        <v>0.30061166674435102</v>
+      </c>
+      <c r="K40">
+        <v>0.26505278520989101</v>
+      </c>
+      <c r="L40">
+        <v>0.28877040364610901</v>
+      </c>
+      <c r="M40">
+        <v>0.26542148996487003</v>
+      </c>
+      <c r="N40">
+        <v>0.27786745282299602</v>
+      </c>
+      <c r="O40">
+        <v>0.26858320974101002</v>
+      </c>
+      <c r="P40">
+        <v>0.268626176879037</v>
+      </c>
+      <c r="R40">
+        <v>0.32560889764015499</v>
+      </c>
+      <c r="S40">
+        <v>0.26330253773477702</v>
+      </c>
+      <c r="T40">
+        <v>0.25009892779530601</v>
+      </c>
+      <c r="U40">
+        <v>0.25549514489000302</v>
+      </c>
+      <c r="V40">
+        <v>0.254452926719276</v>
+      </c>
+      <c r="W40">
+        <v>0.30109523190104798</v>
+      </c>
+      <c r="X40">
+        <v>0.338108114561606</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.25883958929037398</v>
+      </c>
+      <c r="C41">
+        <v>0.25834342497413199</v>
+      </c>
+      <c r="D41">
+        <v>0.23998273261691599</v>
+      </c>
+      <c r="E41">
+        <v>0.25412208723213903</v>
+      </c>
+      <c r="F41">
+        <v>0.25214308744849601</v>
+      </c>
+      <c r="G41">
+        <v>0.258508421178688</v>
+      </c>
+      <c r="H41">
+        <v>0.25163316931152802</v>
+      </c>
+      <c r="J41">
+        <v>0.29289897332598203</v>
+      </c>
+      <c r="K41">
+        <v>0.27481404390639003</v>
+      </c>
+      <c r="M41">
+        <v>0.28181546851739903</v>
+      </c>
+      <c r="N41">
+        <v>0.28105299032230302</v>
+      </c>
+      <c r="O41">
+        <v>2.6234215325207999</v>
+      </c>
+      <c r="P41">
+        <v>0.31244047473066799</v>
+      </c>
+      <c r="R41">
+        <v>0.28413221820336199</v>
+      </c>
+      <c r="S41">
+        <v>0.25400611398098</v>
+      </c>
+      <c r="T41">
+        <v>0.26349528033048503</v>
+      </c>
+      <c r="U41">
+        <v>0.26159132634100402</v>
+      </c>
+      <c r="V41">
+        <v>0.28876673847038897</v>
+      </c>
+      <c r="W41">
+        <v>0.24556850342737599</v>
+      </c>
+      <c r="X41">
+        <v>0.26961057123740201</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.24747208099529799</v>
+      </c>
+      <c r="C42">
+        <v>0.246218782329891</v>
+      </c>
+      <c r="D42">
+        <v>0.244280452884269</v>
+      </c>
+      <c r="E42">
+        <v>0.258900934794837</v>
+      </c>
+      <c r="F42">
+        <v>0.24519696594476201</v>
+      </c>
+      <c r="G42">
+        <v>0.25643364860937801</v>
+      </c>
+      <c r="H42">
+        <v>0.251611393987623</v>
+      </c>
+      <c r="J42">
+        <v>0.29638089413215002</v>
+      </c>
+      <c r="K42">
+        <v>0.27853036461736802</v>
+      </c>
+      <c r="M42">
+        <v>0.27010709252139098</v>
+      </c>
+      <c r="N42">
+        <v>0.29336210926296502</v>
+      </c>
+      <c r="O42">
+        <v>0.285530815439066</v>
+      </c>
+      <c r="P42">
+        <v>0.28698463674673402</v>
+      </c>
+      <c r="R42">
+        <v>0.26338667526728399</v>
+      </c>
+      <c r="S42">
+        <v>0.24883833904820499</v>
+      </c>
+      <c r="T42">
+        <v>0.28729819680042201</v>
+      </c>
+      <c r="U42">
+        <v>0.28134602580025903</v>
+      </c>
+      <c r="V42">
+        <v>0.30783324543025598</v>
+      </c>
+      <c r="W42">
+        <v>0.29728718058918402</v>
+      </c>
+      <c r="X42">
+        <v>0.24368283545649699</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0.245613208918181</v>
+      </c>
+      <c r="C43">
+        <v>0.25221898406673299</v>
+      </c>
+      <c r="D43">
+        <v>0.25502020090282601</v>
+      </c>
+      <c r="E43">
+        <v>0.25723445218750002</v>
+      </c>
+      <c r="F43">
+        <v>0.25244328693842799</v>
+      </c>
+      <c r="G43">
+        <v>0.247812827585909</v>
+      </c>
+      <c r="H43">
+        <v>0.267891941957629</v>
+      </c>
+      <c r="J43">
+        <v>0.271246363287586</v>
+      </c>
+      <c r="K43">
+        <v>0.27262644007157699</v>
+      </c>
+      <c r="M43">
+        <v>0.268638267395235</v>
+      </c>
+      <c r="N43">
+        <v>0.26635324594339999</v>
+      </c>
+      <c r="O43">
+        <v>0.29686690774007002</v>
+      </c>
+      <c r="P43">
+        <v>0.26719601728273101</v>
+      </c>
+      <c r="R43">
+        <v>0.26999710821183998</v>
+      </c>
+      <c r="S43">
+        <v>0.286496894217867</v>
+      </c>
+      <c r="T43">
+        <v>0.27594648872458599</v>
+      </c>
+      <c r="U43">
+        <v>0.24437450679058301</v>
+      </c>
+      <c r="V43">
+        <v>0.274864964552544</v>
+      </c>
+      <c r="W43">
+        <v>0.28707218853222699</v>
+      </c>
+      <c r="X43">
+        <v>0.25797176401899802</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0.24663439679691199</v>
+      </c>
+      <c r="C44">
+        <v>0.24910503148341301</v>
+      </c>
+      <c r="D44">
+        <v>0.25527764901182698</v>
+      </c>
+      <c r="E44">
+        <v>0.26046220264874897</v>
+      </c>
+      <c r="F44">
+        <v>0.25686037386819499</v>
+      </c>
+      <c r="G44">
+        <v>0.27097763357065102</v>
+      </c>
+      <c r="H44">
+        <v>0.25702410885892202</v>
+      </c>
+      <c r="K44">
+        <v>0.29761943380857298</v>
+      </c>
+      <c r="M44">
+        <v>0.25336455599020902</v>
+      </c>
+      <c r="N44">
+        <v>0.28276195560040801</v>
+      </c>
+      <c r="O44">
+        <v>0.26821277522314402</v>
+      </c>
+      <c r="P44">
+        <v>0.25705344326551899</v>
+      </c>
+      <c r="R44">
+        <v>0.25949050475079799</v>
+      </c>
+      <c r="S44">
+        <v>0.27657860226737102</v>
+      </c>
+      <c r="T44">
+        <v>0.25494215230629202</v>
+      </c>
+      <c r="U44">
+        <v>0.25561373741417698</v>
+      </c>
+      <c r="V44">
+        <v>0.27505873285733401</v>
+      </c>
+      <c r="W44">
+        <v>0.260360641379145</v>
+      </c>
+      <c r="X44">
+        <v>0.26381842122476601</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0.24206809069945601</v>
+      </c>
+      <c r="C45">
+        <v>0.24096332230512199</v>
+      </c>
+      <c r="D45">
+        <v>0.25693635091425499</v>
+      </c>
+      <c r="E45">
+        <v>0.25560344505453297</v>
+      </c>
+      <c r="F45">
+        <v>0.26274500668609302</v>
+      </c>
+      <c r="G45">
+        <v>0.25647250204662803</v>
+      </c>
+      <c r="H45">
+        <v>0.259289089396744</v>
+      </c>
+      <c r="K45">
+        <v>0.28061396861286497</v>
+      </c>
+      <c r="M45">
+        <v>0.279400984002945</v>
+      </c>
+      <c r="N45">
+        <v>0.27109047767019301</v>
+      </c>
+      <c r="O45">
+        <v>0.27302086115014801</v>
+      </c>
+      <c r="P45">
+        <v>0.276600441735673</v>
+      </c>
+      <c r="R45">
+        <v>0.258677962333</v>
+      </c>
+      <c r="S45">
+        <v>0.275368125577443</v>
+      </c>
+      <c r="T45">
+        <v>0.26137452160043101</v>
+      </c>
+      <c r="U45">
+        <v>0.26804574518342</v>
+      </c>
+      <c r="V45">
+        <v>0.25426941915770801</v>
+      </c>
+      <c r="W45">
+        <v>0.26437195707536998</v>
+      </c>
+      <c r="X45">
+        <v>0.25237014731330198</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0.240352161774812</v>
+      </c>
+      <c r="C46">
+        <v>0.25240760327804601</v>
+      </c>
+      <c r="D46">
+        <v>0.242593294158473</v>
+      </c>
+      <c r="E46">
+        <v>0.25533980482943403</v>
+      </c>
+      <c r="F46">
+        <v>0.25729004903374297</v>
+      </c>
+      <c r="G46">
+        <v>0.26448322193947998</v>
+      </c>
+      <c r="H46">
+        <v>0.25922640642127298</v>
+      </c>
+      <c r="N46">
+        <v>0.32420824389931802</v>
+      </c>
+      <c r="O46">
+        <v>0.265784725836612</v>
+      </c>
+      <c r="P46">
+        <v>0.264391790864409</v>
+      </c>
+      <c r="R46">
+        <v>0.27610162069314398</v>
+      </c>
+      <c r="S46">
+        <v>0.256679909101515</v>
+      </c>
+      <c r="T46">
+        <v>0.25538730008993299</v>
+      </c>
+      <c r="U46">
+        <v>0.25049732122971802</v>
+      </c>
+      <c r="V46">
+        <v>0.26151681250084002</v>
+      </c>
+      <c r="W46">
+        <v>0.26337824377491198</v>
+      </c>
+      <c r="X46">
+        <v>0.32553704761340202</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0.25000933257760699</v>
+      </c>
+      <c r="C47">
+        <v>0.24950862478062899</v>
+      </c>
+      <c r="D47">
+        <v>0.24983933237144601</v>
+      </c>
+      <c r="E47">
+        <v>0.25332533133851998</v>
+      </c>
+      <c r="F47">
+        <v>0.26704773569128498</v>
+      </c>
+      <c r="G47">
+        <v>0.26319794338199598</v>
+      </c>
+      <c r="H47">
+        <v>0.26364589213584899</v>
+      </c>
+      <c r="P47">
+        <v>0.30728197478090602</v>
+      </c>
+      <c r="R47">
+        <v>0.26900770298879201</v>
+      </c>
+      <c r="S47">
+        <v>0.25425598798473997</v>
+      </c>
+      <c r="T47">
+        <v>0.29412961411902799</v>
+      </c>
+      <c r="U47">
+        <v>0.26366006618967502</v>
+      </c>
+      <c r="V47">
+        <v>0.28200692942259398</v>
+      </c>
+      <c r="W47">
+        <v>0.25953211930480102</v>
+      </c>
+      <c r="X47">
+        <v>0.27916198640133699</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0.25149045833863198</v>
+      </c>
+      <c r="C48">
+        <v>0.25379090315737202</v>
+      </c>
+      <c r="D48">
+        <v>0.25353088884362601</v>
+      </c>
+      <c r="E48">
+        <v>0.26096192185155198</v>
+      </c>
+      <c r="F48">
+        <v>0.246782750153139</v>
+      </c>
+      <c r="G48">
+        <v>0.25641162460143102</v>
+      </c>
+      <c r="H48">
+        <v>0.25290057101533198</v>
+      </c>
+      <c r="P48">
+        <v>0.28741314188365003</v>
+      </c>
+      <c r="R48">
+        <v>0.28707863962150998</v>
+      </c>
+      <c r="S48">
+        <v>0.28561226159894598</v>
+      </c>
+      <c r="T48">
+        <v>0.26776675705595399</v>
+      </c>
+      <c r="U48">
+        <v>0.27222664157325699</v>
+      </c>
+      <c r="V48">
+        <v>0.25169849239608999</v>
+      </c>
+      <c r="W48">
+        <v>0.26780182982297002</v>
+      </c>
+      <c r="X48">
+        <v>0.27800204176438498</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0.26557450813637501</v>
+      </c>
+      <c r="C49">
+        <v>0.25269989554048899</v>
+      </c>
+      <c r="D49">
+        <v>0.25039767996927298</v>
+      </c>
+      <c r="E49">
+        <v>0.24715598011463799</v>
+      </c>
+      <c r="F49">
+        <v>0.25290859650150699</v>
+      </c>
+      <c r="G49">
+        <v>0.24674472755254201</v>
+      </c>
+      <c r="H49">
+        <v>0.26422306826310699</v>
+      </c>
+      <c r="P49">
+        <v>0.30061774726076301</v>
+      </c>
+      <c r="R49">
+        <v>0.27207447418147801</v>
+      </c>
+      <c r="S49">
+        <v>0.26715121061036701</v>
+      </c>
+      <c r="T49">
+        <v>0.249937309914257</v>
+      </c>
+      <c r="U49">
+        <v>0.25382578302136999</v>
+      </c>
+      <c r="V49">
+        <v>0.267249805656951</v>
+      </c>
+      <c r="W49">
+        <v>0.24985707223282499</v>
+      </c>
+      <c r="X49">
+        <v>0.27894910599501899</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0.246960991473585</v>
+      </c>
+      <c r="C50">
+        <v>0.25835350327257101</v>
+      </c>
+      <c r="D50">
+        <v>0.25604076211240601</v>
+      </c>
+      <c r="E50">
+        <v>0.25077409204322998</v>
+      </c>
+      <c r="F50">
+        <v>0.25707833496460297</v>
+      </c>
+      <c r="G50">
+        <v>0.26532755009217701</v>
+      </c>
+      <c r="H50">
+        <v>0.25475019325397502</v>
+      </c>
+      <c r="P50">
+        <v>0.26374111377715398</v>
+      </c>
+      <c r="R50">
+        <v>0.27564597893096798</v>
+      </c>
+      <c r="S50">
+        <v>0.26098381193810899</v>
+      </c>
+      <c r="T50">
+        <v>0.28223201247204599</v>
+      </c>
+      <c r="V50">
+        <v>0.28814849022857197</v>
+      </c>
+      <c r="W50">
+        <v>0.25451135662409802</v>
+      </c>
+      <c r="X50">
+        <v>0.28667592244733697</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0.24953419958223899</v>
+      </c>
+      <c r="C51">
+        <v>0.25599420865869099</v>
+      </c>
+      <c r="D51">
+        <v>0.25780443963407501</v>
+      </c>
+      <c r="E51">
+        <v>0.248062007436813</v>
+      </c>
+      <c r="F51">
+        <v>0.25451644660448802</v>
+      </c>
+      <c r="G51">
+        <v>0.24941599555441599</v>
+      </c>
+      <c r="H51">
+        <v>0.25856195903409301</v>
+      </c>
+      <c r="S51">
+        <v>0.25830146733526599</v>
+      </c>
+      <c r="V51">
+        <v>0.26249624012110501</v>
+      </c>
+      <c r="X51">
+        <v>0.24802463422834001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" t="s">
+        <v>26</v>
+      </c>
+      <c r="R53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" t="s">
+        <v>27</v>
+      </c>
+      <c r="R55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R56" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T56" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="U56" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V56" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B57" s="6">
+        <v>298</v>
+      </c>
+      <c r="C57" s="6">
+        <v>49</v>
+      </c>
+      <c r="D57" s="6">
+        <v>12.372937479778203</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0.25250892815873882</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1.3740809107112731E-4</v>
+      </c>
+      <c r="J57" s="6">
+        <v>298</v>
+      </c>
+      <c r="K57" s="6">
+        <v>41</v>
+      </c>
+      <c r="L57" s="6">
+        <v>11.494506681272073</v>
+      </c>
+      <c r="M57" s="6">
+        <v>0.28035382149444082</v>
+      </c>
+      <c r="N57" s="6">
+        <v>1.873828483980981E-4</v>
+      </c>
+      <c r="R57" s="6">
+        <v>298</v>
+      </c>
+      <c r="S57" s="6">
+        <v>48</v>
+      </c>
+      <c r="T57" s="6">
+        <v>13.162985698314319</v>
+      </c>
+      <c r="U57" s="6">
+        <v>0.27422886871488167</v>
+      </c>
+      <c r="V57" s="6">
+        <v>3.8187634000269631E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B58" s="6">
+        <v>290</v>
+      </c>
+      <c r="C58" s="6">
+        <v>49</v>
+      </c>
+      <c r="D58" s="6">
+        <v>12.395455097792995</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0.25296847138353051</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1.7178088298229737E-4</v>
+      </c>
+      <c r="J58" s="6">
+        <v>290</v>
+      </c>
+      <c r="K58" s="6">
+        <v>43</v>
+      </c>
+      <c r="L58" s="6">
+        <v>12.211537024559934</v>
+      </c>
+      <c r="M58" s="6">
+        <v>0.2839892331293008</v>
+      </c>
+      <c r="N58" s="6">
+        <v>2.4037274680519823E-4</v>
+      </c>
+      <c r="R58" s="6">
+        <v>290</v>
+      </c>
+      <c r="S58" s="6">
+        <v>49</v>
+      </c>
+      <c r="T58" s="6">
+        <v>13.162373929726021</v>
+      </c>
+      <c r="U58" s="6">
+        <v>0.26861987611685756</v>
+      </c>
+      <c r="V58" s="6">
+        <v>2.4952768455778192E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B59" s="6">
+        <v>270</v>
+      </c>
+      <c r="C59" s="6">
+        <v>49</v>
+      </c>
+      <c r="D59" s="6">
+        <v>12.382984125066505</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0.25271396173605115</v>
+      </c>
+      <c r="F59" s="6">
+        <v>5.2060971966484524E-5</v>
+      </c>
+      <c r="J59" s="6">
+        <v>270</v>
+      </c>
+      <c r="K59" s="6">
+        <v>38</v>
+      </c>
+      <c r="L59" s="6">
+        <v>10.547299324275583</v>
+      </c>
+      <c r="M59" s="6">
+        <v>0.27756050853356795</v>
+      </c>
+      <c r="N59" s="6">
+        <v>2.0454804615994577E-4</v>
+      </c>
+      <c r="R59" s="6">
+        <v>270</v>
+      </c>
+      <c r="S59" s="6">
+        <v>48</v>
+      </c>
+      <c r="T59" s="6">
+        <v>12.82943998293635</v>
+      </c>
+      <c r="U59" s="6">
+        <v>0.26727999964450727</v>
+      </c>
+      <c r="V59" s="6">
+        <v>1.7723756243997489E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B60" s="6">
+        <v>250</v>
+      </c>
+      <c r="C60" s="6">
+        <v>49</v>
+      </c>
+      <c r="D60" s="6">
+        <v>12.444890708127543</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0.25397736139035804</v>
+      </c>
+      <c r="F60" s="6">
+        <v>3.7565929488758114E-5</v>
+      </c>
+      <c r="J60" s="6">
+        <v>250</v>
+      </c>
+      <c r="K60" s="6">
+        <v>43</v>
+      </c>
+      <c r="L60" s="6">
+        <v>11.688082664286357</v>
+      </c>
+      <c r="M60" s="6">
+        <v>0.27181587591363621</v>
+      </c>
+      <c r="N60" s="6">
+        <v>1.6469057924853604E-4</v>
+      </c>
+      <c r="R60" s="6">
+        <v>250</v>
+      </c>
+      <c r="S60" s="6">
+        <v>47</v>
+      </c>
+      <c r="T60" s="6">
+        <v>12.761636570858593</v>
+      </c>
+      <c r="U60" s="6">
+        <v>0.27152418235869347</v>
+      </c>
+      <c r="V60" s="6">
+        <v>3.987638269006873E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B61" s="6">
+        <v>230</v>
+      </c>
+      <c r="C61" s="6">
+        <v>49</v>
+      </c>
+      <c r="D61" s="6">
+        <v>12.474122775130121</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0.25457393418632901</v>
+      </c>
+      <c r="F61" s="6">
+        <v>4.1094707082729773E-5</v>
+      </c>
+      <c r="J61" s="6">
+        <v>230</v>
+      </c>
+      <c r="K61" s="6">
+        <v>44</v>
+      </c>
+      <c r="L61" s="6">
+        <v>12.36986692047831</v>
+      </c>
+      <c r="M61" s="6">
+        <v>0.28113333910177979</v>
+      </c>
+      <c r="N61" s="6">
+        <v>3.3429217195946579E-4</v>
+      </c>
+      <c r="R61" s="6">
+        <v>230</v>
+      </c>
+      <c r="S61" s="6">
+        <v>49</v>
+      </c>
+      <c r="T61" s="6">
+        <v>13.446000569993707</v>
+      </c>
+      <c r="U61" s="6">
+        <v>0.27440817489783076</v>
+      </c>
+      <c r="V61" s="6">
+        <v>5.0596843700249884E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B62" s="6">
+        <v>210</v>
+      </c>
+      <c r="C62" s="6">
+        <v>49</v>
+      </c>
+      <c r="D62" s="6">
+        <v>12.577172863260984</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0.25667699720940784</v>
+      </c>
+      <c r="F62" s="6">
+        <v>3.2215726413100023E-5</v>
+      </c>
+      <c r="J62" s="6">
+        <v>210</v>
+      </c>
+      <c r="K62" s="6">
+        <v>44</v>
+      </c>
+      <c r="L62" s="6">
+        <v>14.585417211899616</v>
+      </c>
+      <c r="M62" s="6">
+        <v>0.33148675481590034</v>
+      </c>
+      <c r="N62" s="6">
+        <v>0.12524590883483872</v>
+      </c>
+      <c r="R62" s="6">
+        <v>210</v>
+      </c>
+      <c r="S62" s="6">
+        <v>48</v>
+      </c>
+      <c r="T62" s="6">
+        <v>13.192166446948045</v>
+      </c>
+      <c r="U62" s="6">
+        <v>0.27483680097808427</v>
+      </c>
+      <c r="V62" s="6">
+        <v>2.7458499045428838E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="7">
+        <v>200</v>
+      </c>
+      <c r="C63" s="7">
+        <v>49</v>
+      </c>
+      <c r="D63" s="7">
+        <v>12.682601654364799</v>
+      </c>
+      <c r="E63" s="7">
+        <v>0.25882860519111833</v>
+      </c>
+      <c r="F63" s="7">
+        <v>4.0756856405261107E-5</v>
+      </c>
+      <c r="J63" s="7">
+        <v>200</v>
+      </c>
+      <c r="K63" s="7">
+        <v>48</v>
+      </c>
+      <c r="L63" s="7">
+        <v>13.368091787559363</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0.27850191224082005</v>
+      </c>
+      <c r="N63" s="7">
+        <v>3.5602224558529489E-4</v>
+      </c>
+      <c r="R63" s="7">
+        <v>200</v>
+      </c>
+      <c r="S63" s="7">
+        <v>49</v>
+      </c>
+      <c r="T63" s="7">
+        <v>13.345968890184658</v>
+      </c>
+      <c r="U63" s="7">
+        <v>0.27236671204458485</v>
+      </c>
+      <c r="V63" s="7">
+        <v>5.5712971654284487E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66" t="s">
+        <v>33</v>
+      </c>
+      <c r="R66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P67" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R67" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S67" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T67" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U67" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="X67" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="6">
+        <v>1.6255579593626411E-3</v>
+      </c>
+      <c r="D68" s="6">
+        <v>6</v>
+      </c>
+      <c r="E68" s="6">
+        <v>2.709263265604402E-4</v>
+      </c>
+      <c r="F68" s="6">
+        <v>3.6976926010194182</v>
+      </c>
+      <c r="G68" s="6">
+        <v>1.4236749246780141E-3</v>
+      </c>
+      <c r="H68" s="6">
+        <v>2.1255907081392968</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K68" s="6">
+        <v>0.10751110104241679</v>
+      </c>
+      <c r="L68" s="6">
+        <v>6</v>
+      </c>
+      <c r="M68" s="6">
+        <v>1.7918516840402798E-2</v>
+      </c>
+      <c r="N68" s="6">
+        <v>0.9668339113099288</v>
+      </c>
+      <c r="O68" s="6">
+        <v>0.44788126831451203</v>
+      </c>
+      <c r="P68" s="6">
+        <v>2.1294734384578362</v>
+      </c>
+      <c r="R68" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S68" s="6">
+        <v>2.5516170931111082E-3</v>
+      </c>
+      <c r="T68" s="6">
+        <v>6</v>
+      </c>
+      <c r="U68" s="6">
+        <v>4.2526951551851805E-4</v>
+      </c>
+      <c r="V68" s="6">
+        <v>1.1678476544740106</v>
+      </c>
+      <c r="W68" s="6">
+        <v>0.32310139840892205</v>
+      </c>
+      <c r="X68" s="6">
+        <v>2.1260009525840826</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="6">
+        <v>2.4618391939668395E-2</v>
+      </c>
+      <c r="D69" s="6">
+        <v>336</v>
+      </c>
+      <c r="E69" s="6">
+        <v>7.3269023629965463E-5</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="J69" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69" s="6">
+        <v>5.4487579401729276</v>
+      </c>
+      <c r="L69" s="6">
+        <v>294</v>
+      </c>
+      <c r="M69" s="6">
+        <v>1.8533190272697033E-2</v>
+      </c>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="R69" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S69" s="6">
+        <v>0.12053302423253875</v>
+      </c>
+      <c r="T69" s="6">
+        <v>331</v>
+      </c>
+      <c r="U69" s="6">
+        <v>3.6414810946386333E-4</v>
+      </c>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+    </row>
+    <row r="71" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="7">
+        <v>2.6243949899031036E-2</v>
+      </c>
+      <c r="D71" s="7">
+        <v>342</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="J71" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K71" s="7">
+        <v>5.5562690412153444</v>
+      </c>
+      <c r="L71" s="7">
+        <v>300</v>
+      </c>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="R71" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S71" s="7">
+        <v>0.12308464132564986</v>
+      </c>
+      <c r="T71" s="7">
+        <v>337</v>
+      </c>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B76" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B77" s="6">
+        <v>298</v>
+      </c>
+      <c r="C77" s="6">
+        <v>49</v>
+      </c>
+      <c r="D77" s="6">
+        <v>12.372937479778203</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0.25250892815873882</v>
+      </c>
+      <c r="F77" s="6">
+        <v>1.3740809107112731E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B78" s="6">
+        <v>290</v>
+      </c>
+      <c r="C78" s="6">
+        <v>49</v>
+      </c>
+      <c r="D78" s="6">
+        <v>12.395455097792995</v>
+      </c>
+      <c r="E78" s="6">
+        <v>0.25296847138353051</v>
+      </c>
+      <c r="F78" s="6">
+        <v>1.7178088298229737E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B79" s="6">
+        <v>270</v>
+      </c>
+      <c r="C79" s="6">
+        <v>49</v>
+      </c>
+      <c r="D79" s="6">
+        <v>12.382984125066505</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0.25271396173605115</v>
+      </c>
+      <c r="F79" s="6">
+        <v>5.2060971966484524E-5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B80" s="6">
+        <v>250</v>
+      </c>
+      <c r="C80" s="6">
+        <v>49</v>
+      </c>
+      <c r="D80" s="6">
+        <v>12.444890708127543</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0.25397736139035804</v>
+      </c>
+      <c r="F80" s="6">
+        <v>3.7565929488758114E-5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="6">
+        <v>230</v>
+      </c>
+      <c r="C81" s="6">
+        <v>49</v>
+      </c>
+      <c r="D81" s="6">
+        <v>12.474122775130121</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0.25457393418632901</v>
+      </c>
+      <c r="F81" s="6">
+        <v>4.1094707082729773E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="7">
+        <v>210</v>
+      </c>
+      <c r="C82" s="7">
+        <v>49</v>
+      </c>
+      <c r="D82" s="7">
+        <v>12.577172863260984</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0.25667699720940784</v>
+      </c>
+      <c r="F82" s="7">
+        <v>3.2215726413100023E-5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="6">
+        <v>6.0668538497805555E-4</v>
+      </c>
+      <c r="D87" s="6">
+        <v>5</v>
+      </c>
+      <c r="E87" s="6">
+        <v>1.2133707699561111E-4</v>
+      </c>
+      <c r="F87" s="6">
+        <v>1.5420078230945016</v>
+      </c>
+      <c r="G87" s="6">
+        <v>0.17672544740612131</v>
+      </c>
+      <c r="H87" s="6">
+        <v>2.2453454953427898</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="6">
+        <v>2.2662062832215862E-2</v>
+      </c>
+      <c r="D88" s="6">
+        <v>288</v>
+      </c>
+      <c r="E88" s="6">
+        <v>7.8687718167416189E-5</v>
+      </c>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="7">
+        <v>2.3268748217193918E-2</v>
+      </c>
+      <c r="D90" s="7">
+        <v>293</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="6">
+        <v>298</v>
+      </c>
+      <c r="C96" s="6">
+        <v>49</v>
+      </c>
+      <c r="D96" s="6">
+        <v>12.372937479778203</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0.25250892815873882</v>
+      </c>
+      <c r="F96" s="6">
+        <v>1.3740809107112731E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="6">
+        <v>290</v>
+      </c>
+      <c r="C97" s="6">
+        <v>49</v>
+      </c>
+      <c r="D97" s="6">
+        <v>12.395455097792995</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0.25296847138353051</v>
+      </c>
+      <c r="F97" s="6">
+        <v>1.7178088298229737E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="6">
+        <v>270</v>
+      </c>
+      <c r="C98" s="6">
+        <v>49</v>
+      </c>
+      <c r="D98" s="6">
+        <v>12.382984125066505</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0.25271396173605115</v>
+      </c>
+      <c r="F98" s="6">
+        <v>5.2060971966484524E-5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="6">
+        <v>250</v>
+      </c>
+      <c r="C99" s="6">
+        <v>49</v>
+      </c>
+      <c r="D99" s="6">
+        <v>12.444890708127543</v>
+      </c>
+      <c r="E99" s="6">
+        <v>0.25397736139035804</v>
+      </c>
+      <c r="F99" s="6">
+        <v>3.7565929488758114E-5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="7">
+        <v>230</v>
+      </c>
+      <c r="C100" s="7">
+        <v>49</v>
+      </c>
+      <c r="D100" s="7">
+        <v>12.474122775130121</v>
+      </c>
+      <c r="E100" s="7">
+        <v>0.25457393418632901</v>
+      </c>
+      <c r="F100" s="7">
+        <v>4.1094707082729773E-5</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C105" s="6">
+        <v>1.5430575411597841E-4</v>
+      </c>
+      <c r="D105" s="6">
+        <v>4</v>
+      </c>
+      <c r="E105" s="6">
+        <v>3.8576438528994603E-5</v>
+      </c>
+      <c r="F105" s="6">
+        <v>0.43845772363273222</v>
+      </c>
+      <c r="G105" s="6">
+        <v>0.78075617937310682</v>
+      </c>
+      <c r="H105" s="6">
+        <v>2.4092566006847989</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" s="6">
+        <v>2.1115707964387061E-2</v>
+      </c>
+      <c r="D106" s="6">
+        <v>240</v>
+      </c>
+      <c r="E106" s="6">
+        <v>8.7982116518279426E-5</v>
+      </c>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" s="7">
+        <v>2.1270013718503039E-2</v>
+      </c>
+      <c r="D108" s="7">
+        <v>244</v>
+      </c>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:Z51"/>
+    <sheetView topLeftCell="H24" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3:AA51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11226,12 +19552,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="Z23" activeCellId="1" sqref="Z3:Z21 Z23:Z51"/>
+    <sheetView topLeftCell="H36" workbookViewId="0">
+      <selection activeCell="AA23" activeCellId="1" sqref="AA3:AA21 AA23:AA51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14847,12 +23173,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="H24" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3:AA51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18444,12 +26770,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O50"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="Q34" sqref="P23:Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18532,7 +26858,9 @@
       <c r="J5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="8"/>
+      <c r="M5" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="N5" s="8" t="s">
         <v>24</v>
       </c>
@@ -18869,7 +27197,7 @@
       </c>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>74.507419109344397</v>
       </c>
@@ -18880,7 +27208,7 @@
         <v>622.00117516517605</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>74.635200500488196</v>
       </c>
@@ -18891,7 +27219,7 @@
         <v>622.52004361152603</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>75.061919450759802</v>
       </c>
@@ -18902,7 +27230,7 @@
         <v>620.82996916770901</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>75.048404455184894</v>
       </c>
@@ -18916,7 +27244,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>75.118994235992403</v>
       </c>
@@ -18926,8 +27254,11 @@
       <c r="C21">
         <v>625.07487797737099</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>74.924762010574298</v>
       </c>
@@ -18945,7 +27276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>75.415207862854004</v>
       </c>
@@ -18964,8 +27295,15 @@
       <c r="K23" s="6">
         <v>622.24223748031909</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O23" s="8"/>
+      <c r="P23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>75.166744232177706</v>
       </c>
@@ -18984,8 +27322,17 @@
       <c r="K24" s="6">
         <v>3.8060899746524317</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" s="6">
+        <v>75.356114840020936</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>85.279865031339682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>75.598283767700195</v>
       </c>
@@ -19004,8 +27351,17 @@
       <c r="K25" s="6">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="6">
+        <v>1.6501834540898923</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>5.4510447039283347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>74.585319042205796</v>
       </c>
@@ -19022,8 +27378,17 @@
         <v>2.7281367143711619</v>
       </c>
       <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="6">
+        <v>49</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>75.590289115905705</v>
       </c>
@@ -19040,8 +27405,15 @@
         <v>0</v>
       </c>
       <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P27" s="6">
+        <v>3.5506140790091134</v>
+      </c>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>75.485824108123694</v>
       </c>
@@ -19058,8 +27430,15 @@
         <v>96</v>
       </c>
       <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>75.159650802612305</v>
       </c>
@@ -19076,8 +27455,15 @@
         <v>-1638.8789618556227</v>
       </c>
       <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29" s="6">
+        <v>96</v>
+      </c>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>75.285389900207505</v>
       </c>
@@ -19094,8 +27480,15 @@
         <v>1.4468540035172594E-215</v>
       </c>
       <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P30" s="6">
+        <v>-26.067965052636488</v>
+      </c>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>74.586282014846802</v>
       </c>
@@ -19112,8 +27505,15 @@
         <v>1.6608814403248366</v>
       </c>
       <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P31" s="6">
+        <v>1.2155251109544982E-45</v>
+      </c>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>75.993334770202594</v>
       </c>
@@ -19130,8 +27530,15 @@
         <v>2.8937080070345188E-215</v>
       </c>
       <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" s="6">
+        <v>1.6608814403248366</v>
+      </c>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>74.486284017562795</v>
       </c>
@@ -19148,8 +27555,15 @@
         <v>1.9849843115224561</v>
       </c>
       <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" s="6">
+        <v>2.4310502219089964E-45</v>
+      </c>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>75.700707197189303</v>
       </c>
@@ -19159,8 +27573,15 @@
       <c r="C34">
         <v>619.62267351150501</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" s="7">
+        <v>1.9849843115224561</v>
+      </c>
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>75.524472951888995</v>
       </c>
@@ -19171,7 +27592,7 @@
         <v>622.44991159438996</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>75.102858066558795</v>
       </c>
@@ -19182,7 +27603,7 @@
         <v>625.08124709129299</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>74.561195611953707</v>
       </c>
@@ -19193,7 +27614,7 @@
         <v>623.22033381462097</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>75.467106580734196</v>
       </c>
@@ -19204,7 +27625,7 @@
         <v>619.80937767028797</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>75.6887593269348</v>
       </c>
@@ -19215,7 +27636,7 @@
         <v>624.04310846328701</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>75.047974824905396</v>
       </c>
@@ -19226,7 +27647,7 @@
         <v>622.62831640243496</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>75.224390268325806</v>
       </c>
@@ -19237,7 +27658,7 @@
         <v>623.05654406547501</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>75.638946533203097</v>
       </c>
@@ -19248,7 +27669,7 @@
         <v>622.40083050727799</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>75.251666545867906</v>
       </c>
@@ -19259,7 +27680,7 @@
         <v>621.44749498367298</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>75.892596483230506</v>
       </c>
@@ -19270,7 +27691,7 @@
         <v>620.072613477706</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>75.026247262954698</v>
       </c>
@@ -19281,7 +27702,7 @@
         <v>624.22593569755497</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>75.778846263885498</v>
       </c>
@@ -19292,7 +27713,7 @@
         <v>621.95561194419804</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>75.535724401473999</v>
       </c>
@@ -19303,7 +27724,7 @@
         <v>620.71887111663796</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>75.278319835662799</v>
       </c>
@@ -19342,12 +27763,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E694E0-8DDC-4F59-8B05-1C14EC9362FA}">
-  <dimension ref="A1:Q31"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20:Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19711,8 +28132,11 @@
       <c r="I20" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="7:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="6" t="s">
         <v>45</v>
       </c>
@@ -19733,6 +28157,13 @@
       <c r="I22" s="6">
         <v>8.8003111543473867E-6</v>
       </c>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G23" s="6" t="s">
@@ -19744,6 +28175,15 @@
       <c r="I23" s="6">
         <v>7</v>
       </c>
+      <c r="O23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0.25460689417936194</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0.27189494496506283</v>
+      </c>
     </row>
     <row r="24" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G24" s="6" t="s">
@@ -19753,6 +28193,15 @@
         <v>2.0907799540121285E-4</v>
       </c>
       <c r="I24" s="6"/>
+      <c r="O24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="6">
+        <v>5.5291087053150004E-6</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>8.8003111543473867E-6</v>
+      </c>
     </row>
     <row r="25" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G25" s="6" t="s">
@@ -19762,6 +28211,15 @@
         <v>0</v>
       </c>
       <c r="I25" s="6"/>
+      <c r="O25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G26" s="6" t="s">
@@ -19771,6 +28229,13 @@
         <v>12</v>
       </c>
       <c r="I26" s="6"/>
+      <c r="O26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P26" s="6">
+        <v>7.1647099298311935E-6</v>
+      </c>
+      <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G27" s="6" t="s">
@@ -19780,6 +28245,13 @@
         <v>1.8774849990506199</v>
       </c>
       <c r="I27" s="6"/>
+      <c r="O27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6"/>
     </row>
     <row r="28" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G28" s="6" t="s">
@@ -19789,6 +28261,13 @@
         <v>4.2482630702450487E-2</v>
       </c>
       <c r="I28" s="6"/>
+      <c r="O28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P28" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="6"/>
     </row>
     <row r="29" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G29" s="6" t="s">
@@ -19798,6 +28277,13 @@
         <v>1.7822875556493194</v>
       </c>
       <c r="I29" s="6"/>
+      <c r="O29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="6">
+        <v>-12.083166105670227</v>
+      </c>
+      <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G30" s="6" t="s">
@@ -19807,6 +28293,13 @@
         <v>8.4965261404900974E-2</v>
       </c>
       <c r="I30" s="6"/>
+      <c r="O30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P30" s="6">
+        <v>2.2387850529939837E-8</v>
+      </c>
+      <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="7:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G31" s="7" t="s">
@@ -19816,6 +28309,31 @@
         <v>2.1788128296672284</v>
       </c>
       <c r="I31" s="7"/>
+      <c r="O31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="6">
+        <v>1.7822875556493194</v>
+      </c>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="O32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" s="6">
+        <v>4.4775701059879675E-8</v>
+      </c>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="15:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" s="7">
+        <v>2.1788128296672284</v>
+      </c>
+      <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
